--- a/Data/Model_Data_Rev1.xlsx
+++ b/Data/Model_Data_Rev1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Homework\Project_3\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F3AA73-B8AD-4D75-AC44-AA9D16B162B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D00718E-777A-4932-BD77-0364457C7C3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,16 +48,16 @@
     <t>Offshore_Rig_Active</t>
   </si>
   <si>
-    <t>World_Petrol_Cunsump</t>
-  </si>
-  <si>
-    <t>World_Petrol_Production</t>
-  </si>
-  <si>
     <t>Land_Rig_Active_Count</t>
   </si>
   <si>
     <t>Adjusted_Nat_Gas_Price_2010</t>
+  </si>
+  <si>
+    <t>World_Oil_Cunsump</t>
+  </si>
+  <si>
+    <t>World_Oil_Production</t>
   </si>
 </sst>
 </file>
@@ -11733,13 +11733,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>506</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>521</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
@@ -11769,13 +11769,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
       <xdr:row>524</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>472440</xdr:colOff>
       <xdr:row>539</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
@@ -12106,8 +12106,8 @@
   <dimension ref="A1:J539"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L511" sqref="L511"/>
+      <pane ySplit="1" topLeftCell="A515" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K13:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12134,7 +12134,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
@@ -12143,10 +12143,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -12159,10 +12159,7 @@
       <c r="G2">
         <v>46.53</v>
       </c>
-      <c r="H2">
-        <v>47035.548000000003</v>
-      </c>
-      <c r="J2">
+      <c r="I2">
         <v>4683.143</v>
       </c>
     </row>
@@ -12176,10 +12173,7 @@
       <c r="G3">
         <v>46.27</v>
       </c>
-      <c r="H3">
-        <v>46047.671000000002</v>
-      </c>
-      <c r="J3">
+      <c r="I3">
         <v>4683.143</v>
       </c>
     </row>
@@ -12193,10 +12187,7 @@
       <c r="G4">
         <v>46.09</v>
       </c>
-      <c r="H4">
-        <v>46091.934999999998</v>
-      </c>
-      <c r="J4">
+      <c r="I4">
         <v>4683.143</v>
       </c>
     </row>
@@ -12210,10 +12201,7 @@
       <c r="G5">
         <v>45.92</v>
       </c>
-      <c r="H5">
-        <v>45721.055999999997</v>
-      </c>
-      <c r="J5">
+      <c r="I5">
         <v>4683.143</v>
       </c>
     </row>
@@ -12227,10 +12215,7 @@
       <c r="G6">
         <v>45.83</v>
       </c>
-      <c r="H6">
-        <v>46119.652999999998</v>
-      </c>
-      <c r="J6">
+      <c r="I6">
         <v>4683.143</v>
       </c>
     </row>
@@ -12244,10 +12229,7 @@
       <c r="G7">
         <v>45.49</v>
       </c>
-      <c r="H7">
-        <v>47347.611000000004</v>
-      </c>
-      <c r="J7">
+      <c r="I7">
         <v>4683.143</v>
       </c>
     </row>
@@ -12261,10 +12243,7 @@
       <c r="G8">
         <v>45.07</v>
       </c>
-      <c r="H8">
-        <v>48728.311999999998</v>
-      </c>
-      <c r="J8">
+      <c r="I8">
         <v>4683.143</v>
       </c>
     </row>
@@ -12278,10 +12257,7 @@
       <c r="G9">
         <v>44.9</v>
       </c>
-      <c r="H9">
-        <v>49696.57</v>
-      </c>
-      <c r="J9">
+      <c r="I9">
         <v>4683.143</v>
       </c>
     </row>
@@ -12295,10 +12271,7 @@
       <c r="G10">
         <v>44.57</v>
       </c>
-      <c r="H10">
-        <v>51649.159</v>
-      </c>
-      <c r="J10">
+      <c r="I10">
         <v>4683.143</v>
       </c>
     </row>
@@ -12312,10 +12285,7 @@
       <c r="G11">
         <v>44.33</v>
       </c>
-      <c r="H11">
-        <v>46064.983</v>
-      </c>
-      <c r="J11">
+      <c r="I11">
         <v>4683.143</v>
       </c>
     </row>
@@ -12329,10 +12299,7 @@
       <c r="G12">
         <v>44.01</v>
       </c>
-      <c r="H12">
-        <v>47778.256999999998</v>
-      </c>
-      <c r="J12">
+      <c r="I12">
         <v>4683.143</v>
       </c>
     </row>
@@ -12346,10 +12313,7 @@
       <c r="G13">
         <v>43.77</v>
       </c>
-      <c r="H13">
-        <v>48495.762999999999</v>
-      </c>
-      <c r="J13">
+      <c r="I13">
         <v>4683.143</v>
       </c>
     </row>
@@ -12363,10 +12327,7 @@
       <c r="G14">
         <v>43.62</v>
       </c>
-      <c r="H14">
-        <v>47599.943999999996</v>
-      </c>
-      <c r="J14">
+      <c r="I14">
         <v>4972.7294166666661</v>
       </c>
     </row>
@@ -12380,10 +12341,7 @@
       <c r="G15">
         <v>46.93</v>
       </c>
-      <c r="H15">
-        <v>48977.046000000002</v>
-      </c>
-      <c r="J15">
+      <c r="I15">
         <v>4972.7294166666661</v>
       </c>
     </row>
@@ -12397,14 +12355,11 @@
       <c r="G16">
         <v>47.12</v>
       </c>
-      <c r="H16">
-        <v>50400.282000000007</v>
-      </c>
-      <c r="J16">
+      <c r="I16">
         <v>4972.7294166666661</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>27851</v>
       </c>
@@ -12414,14 +12369,11 @@
       <c r="G17">
         <v>47.31</v>
       </c>
-      <c r="H17">
-        <v>49371.106</v>
-      </c>
-      <c r="J17">
+      <c r="I17">
         <v>4972.7294166666661</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>27881</v>
       </c>
@@ -12431,14 +12383,11 @@
       <c r="G18">
         <v>47.06</v>
       </c>
-      <c r="H18">
-        <v>49593.629000000001</v>
-      </c>
-      <c r="J18">
+      <c r="I18">
         <v>4972.7294166666661</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>27912</v>
       </c>
@@ -12448,14 +12397,11 @@
       <c r="G19">
         <v>46.81</v>
       </c>
-      <c r="H19">
-        <v>51437.517</v>
-      </c>
-      <c r="J19">
+      <c r="I19">
         <v>4972.7294166666661</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>27942</v>
       </c>
@@ -12465,14 +12411,11 @@
       <c r="G20">
         <v>46.56</v>
       </c>
-      <c r="H20">
-        <v>51622.398999999998</v>
-      </c>
-      <c r="J20">
+      <c r="I20">
         <v>4972.7294166666661</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>27973</v>
       </c>
@@ -12482,14 +12425,11 @@
       <c r="G21">
         <v>46.32</v>
       </c>
-      <c r="H21">
-        <v>51986.930999999997</v>
-      </c>
-      <c r="J21">
+      <c r="I21">
         <v>4972.7294166666661</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>28004</v>
       </c>
@@ -12499,14 +12439,11 @@
       <c r="G22">
         <v>52.63</v>
       </c>
-      <c r="H22">
-        <v>52964.118999999999</v>
-      </c>
-      <c r="J22">
+      <c r="I22">
         <v>4972.7294166666661</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>28034</v>
       </c>
@@ -12516,14 +12453,11 @@
       <c r="G23">
         <v>52.35</v>
       </c>
-      <c r="H23">
-        <v>54762.765999999996</v>
-      </c>
-      <c r="J23">
+      <c r="I23">
         <v>4972.7294166666661</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>28065</v>
       </c>
@@ -12533,14 +12467,11 @@
       <c r="G24">
         <v>52.17</v>
       </c>
-      <c r="H24">
-        <v>55362.103999999999</v>
-      </c>
-      <c r="J24">
+      <c r="I24">
         <v>4972.7294166666661</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>28095</v>
       </c>
@@ -12550,14 +12481,11 @@
       <c r="G25">
         <v>51.91</v>
       </c>
-      <c r="H25">
-        <v>56740.09</v>
-      </c>
-      <c r="J25">
+      <c r="I25">
         <v>4972.7294166666661</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>28126</v>
       </c>
@@ -12567,14 +12495,11 @@
       <c r="G26">
         <v>51.64</v>
       </c>
-      <c r="H26">
-        <v>51027.271000000001</v>
-      </c>
-      <c r="J26">
+      <c r="I26">
         <v>5152.1894166666671</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>28157</v>
       </c>
@@ -12584,14 +12509,11 @@
       <c r="G27">
         <v>51.12</v>
       </c>
-      <c r="H27">
-        <v>54815.088000000003</v>
-      </c>
-      <c r="J27">
+      <c r="I27">
         <v>5152.1894166666671</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>28185</v>
       </c>
@@ -12601,14 +12523,11 @@
       <c r="G28">
         <v>50.86</v>
       </c>
-      <c r="H28">
-        <v>55211.7</v>
-      </c>
-      <c r="J28">
+      <c r="I28">
         <v>5152.1894166666671</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28216</v>
       </c>
@@ -12618,14 +12537,11 @@
       <c r="G29">
         <v>50.52</v>
       </c>
-      <c r="H29">
-        <v>54416.635000000002</v>
-      </c>
-      <c r="J29">
+      <c r="I29">
         <v>5152.1894166666671</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28246</v>
       </c>
@@ -12635,14 +12551,11 @@
       <c r="G30">
         <v>50.35</v>
       </c>
-      <c r="H30">
-        <v>52474.323000000004</v>
-      </c>
-      <c r="J30">
+      <c r="I30">
         <v>5152.1894166666671</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28277</v>
       </c>
@@ -12652,14 +12565,11 @@
       <c r="G31">
         <v>50.1</v>
       </c>
-      <c r="H31">
-        <v>53348.464999999997</v>
-      </c>
-      <c r="J31">
+      <c r="I31">
         <v>5152.1894166666671</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>28307</v>
       </c>
@@ -12669,14 +12579,11 @@
       <c r="G32">
         <v>49.86</v>
       </c>
-      <c r="H32">
-        <v>52231.313999999998</v>
-      </c>
-      <c r="J32">
+      <c r="I32">
         <v>5152.1894166666671</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>28338</v>
       </c>
@@ -12686,14 +12593,11 @@
       <c r="G33">
         <v>53</v>
       </c>
-      <c r="H33">
-        <v>52975.404000000002</v>
-      </c>
-      <c r="J33">
+      <c r="I33">
         <v>5152.1894166666671</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>28369</v>
       </c>
@@ -12703,14 +12607,11 @@
       <c r="G34">
         <v>52.83</v>
       </c>
-      <c r="H34">
-        <v>54427.504999999997</v>
-      </c>
-      <c r="J34">
+      <c r="I34">
         <v>5152.1894166666671</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>28399</v>
       </c>
@@ -12720,14 +12621,11 @@
       <c r="G35">
         <v>52.57</v>
       </c>
-      <c r="H35">
-        <v>54084.205000000009</v>
-      </c>
-      <c r="J35">
+      <c r="I35">
         <v>5152.1894166666671</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>28430</v>
       </c>
@@ -12737,14 +12635,11 @@
       <c r="G36">
         <v>52.23</v>
       </c>
-      <c r="H36">
-        <v>55244.055</v>
-      </c>
-      <c r="J36">
+      <c r="I36">
         <v>5152.1894166666671</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>28460</v>
       </c>
@@ -12754,14 +12649,11 @@
       <c r="G37">
         <v>51.98</v>
       </c>
-      <c r="H37">
-        <v>56465.805</v>
-      </c>
-      <c r="J37">
+      <c r="I37">
         <v>5152.1894166666671</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>28491</v>
       </c>
@@ -12771,14 +12663,11 @@
       <c r="G38">
         <v>51.65</v>
       </c>
-      <c r="H38">
-        <v>50807.837</v>
-      </c>
-      <c r="J38">
+      <c r="I38">
         <v>5346.5407500000001</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>28522</v>
       </c>
@@ -12788,14 +12677,11 @@
       <c r="G39">
         <v>51.4</v>
       </c>
-      <c r="H39">
-        <v>52261.747999999992</v>
-      </c>
-      <c r="J39">
+      <c r="I39">
         <v>5346.5407500000001</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>28550</v>
       </c>
@@ -12805,14 +12691,11 @@
       <c r="G40">
         <v>51.08</v>
       </c>
-      <c r="H40">
-        <v>52772.346000000005</v>
-      </c>
-      <c r="J40">
+      <c r="I40">
         <v>5346.5407500000001</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>28581</v>
       </c>
@@ -12822,14 +12705,11 @@
       <c r="G41">
         <v>50.68</v>
       </c>
-      <c r="H41">
-        <v>53605.764999999999</v>
-      </c>
-      <c r="J41">
+      <c r="I41">
         <v>5346.5407500000001</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>28611</v>
       </c>
@@ -12839,14 +12719,11 @@
       <c r="G42">
         <v>50.21</v>
       </c>
-      <c r="H42">
-        <v>52698.478999999999</v>
-      </c>
-      <c r="J42">
+      <c r="I42">
         <v>5346.5407500000001</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>28642</v>
       </c>
@@ -12856,14 +12733,11 @@
       <c r="G43">
         <v>49.82</v>
       </c>
-      <c r="H43">
-        <v>54033.646999999997</v>
-      </c>
-      <c r="J43">
+      <c r="I43">
         <v>5346.5407500000001</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>28672</v>
       </c>
@@ -12873,14 +12747,11 @@
       <c r="G44">
         <v>49.44</v>
       </c>
-      <c r="H44">
-        <v>53699.466</v>
-      </c>
-      <c r="J44">
+      <c r="I44">
         <v>5346.5407500000001</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>28703</v>
       </c>
@@ -12890,14 +12761,11 @@
       <c r="G45">
         <v>49.14</v>
       </c>
-      <c r="H45">
-        <v>54475.411</v>
-      </c>
-      <c r="J45">
+      <c r="I45">
         <v>5346.5407500000001</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>28734</v>
       </c>
@@ -12907,14 +12775,11 @@
       <c r="G46">
         <v>48.7</v>
       </c>
-      <c r="H46">
-        <v>56663.608999999997</v>
-      </c>
-      <c r="J46">
+      <c r="I46">
         <v>5346.5407500000001</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>28764</v>
       </c>
@@ -12924,14 +12789,11 @@
       <c r="G47">
         <v>48.26</v>
       </c>
-      <c r="H47">
-        <v>57069.268000000004</v>
-      </c>
-      <c r="J47">
+      <c r="I47">
         <v>5346.5407500000001</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>28795</v>
       </c>
@@ -12941,10 +12803,7 @@
       <c r="G48">
         <v>47.98</v>
       </c>
-      <c r="H48">
-        <v>57221.37</v>
-      </c>
-      <c r="J48">
+      <c r="I48">
         <v>5346.5407500000001</v>
       </c>
     </row>
@@ -12958,10 +12817,7 @@
       <c r="G49">
         <v>47.69</v>
       </c>
-      <c r="H49">
-        <v>55776.818000000007</v>
-      </c>
-      <c r="J49">
+      <c r="I49">
         <v>5346.5407500000001</v>
       </c>
     </row>
@@ -12975,10 +12831,7 @@
       <c r="G50">
         <v>47.28</v>
       </c>
-      <c r="H50">
-        <v>54160.567999999999</v>
-      </c>
-      <c r="J50">
+      <c r="I50">
         <v>5435.0216666666665</v>
       </c>
     </row>
@@ -12992,10 +12845,7 @@
       <c r="G51">
         <v>49.95</v>
       </c>
-      <c r="H51">
-        <v>54451.214999999997</v>
-      </c>
-      <c r="J51">
+      <c r="I51">
         <v>5435.0216666666665</v>
       </c>
     </row>
@@ -13009,10 +12859,7 @@
       <c r="G52">
         <v>49.45</v>
       </c>
-      <c r="H52">
-        <v>55806.997000000003</v>
-      </c>
-      <c r="J52">
+      <c r="I52">
         <v>5435.0216666666665</v>
       </c>
     </row>
@@ -13026,10 +12873,7 @@
       <c r="G53">
         <v>48.96</v>
       </c>
-      <c r="H53">
-        <v>56733.736999999994</v>
-      </c>
-      <c r="J53">
+      <c r="I53">
         <v>5435.0216666666665</v>
       </c>
     </row>
@@ -13043,10 +12887,7 @@
       <c r="G54">
         <v>55.28</v>
       </c>
-      <c r="H54">
-        <v>56589.121999999996</v>
-      </c>
-      <c r="J54">
+      <c r="I54">
         <v>5435.0216666666665</v>
       </c>
     </row>
@@ -13060,10 +12901,7 @@
       <c r="G55">
         <v>57.69</v>
       </c>
-      <c r="H55">
-        <v>56862.831999999995</v>
-      </c>
-      <c r="J55">
+      <c r="I55">
         <v>5435.0216666666665</v>
       </c>
     </row>
@@ -13077,10 +12915,7 @@
       <c r="G56">
         <v>64.98</v>
       </c>
-      <c r="H56">
-        <v>57437.975999999995</v>
-      </c>
-      <c r="J56">
+      <c r="I56">
         <v>5435.0216666666665</v>
       </c>
     </row>
@@ -13094,10 +12929,7 @@
       <c r="G57">
         <v>78.41</v>
       </c>
-      <c r="H57">
-        <v>57316.109999999993</v>
-      </c>
-      <c r="J57">
+      <c r="I57">
         <v>5435.0216666666665</v>
       </c>
     </row>
@@ -13111,10 +12943,7 @@
       <c r="G58">
         <v>83.54</v>
       </c>
-      <c r="H58">
-        <v>57177.794000000002</v>
-      </c>
-      <c r="J58">
+      <c r="I58">
         <v>5435.0216666666665</v>
       </c>
     </row>
@@ -13128,10 +12957,7 @@
       <c r="G59">
         <v>84.1</v>
       </c>
-      <c r="H59">
-        <v>57565.031000000003</v>
-      </c>
-      <c r="J59">
+      <c r="I59">
         <v>5435.0216666666665</v>
       </c>
     </row>
@@ -13145,10 +12971,7 @@
       <c r="G60">
         <v>88.95</v>
       </c>
-      <c r="H60">
-        <v>57856.05</v>
-      </c>
-      <c r="J60">
+      <c r="I60">
         <v>5435.0216666666665</v>
       </c>
     </row>
@@ -13162,10 +12985,7 @@
       <c r="G61">
         <v>92.17</v>
       </c>
-      <c r="H61">
-        <v>57329.407999999996</v>
-      </c>
-      <c r="J61">
+      <c r="I61">
         <v>5435.0216666666665</v>
       </c>
     </row>
@@ -13179,11 +12999,11 @@
       <c r="G62">
         <v>90.87</v>
       </c>
-      <c r="H62">
-        <v>56365.775999999998</v>
+      <c r="I62">
+        <v>5259.4392500000004</v>
       </c>
       <c r="J62">
-        <v>5259.4392500000004</v>
+        <v>5332.3166666666666</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -13196,11 +13016,11 @@
       <c r="G63">
         <v>102.14</v>
       </c>
-      <c r="H63">
-        <v>56855.421999999999</v>
+      <c r="I63">
+        <v>5259.4392500000004</v>
       </c>
       <c r="J63">
-        <v>5259.4392500000004</v>
+        <v>5332.3166666666666</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -13213,11 +13033,11 @@
       <c r="G64">
         <v>103.46</v>
       </c>
-      <c r="H64">
-        <v>55736.995999999999</v>
+      <c r="I64">
+        <v>5259.4392500000004</v>
       </c>
       <c r="J64">
-        <v>5259.4392500000004</v>
+        <v>5332.3166666666666</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -13230,11 +13050,11 @@
       <c r="G65">
         <v>106.48</v>
       </c>
-      <c r="H65">
-        <v>54432.986999999994</v>
+      <c r="I65">
+        <v>5259.4392500000004</v>
       </c>
       <c r="J65">
-        <v>5259.4392500000004</v>
+        <v>5332.3166666666666</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -13247,11 +13067,11 @@
       <c r="G66">
         <v>105.44</v>
       </c>
-      <c r="H66">
-        <v>53945.815999999999</v>
+      <c r="I66">
+        <v>5259.4392500000004</v>
       </c>
       <c r="J66">
-        <v>5259.4392500000004</v>
+        <v>5332.3166666666666</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -13264,11 +13084,11 @@
       <c r="G67">
         <v>104.41</v>
       </c>
-      <c r="H67">
-        <v>54199.214999999997</v>
+      <c r="I67">
+        <v>5259.4392500000004</v>
       </c>
       <c r="J67">
-        <v>5259.4392500000004</v>
+        <v>5332.3166666666666</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -13281,11 +13101,11 @@
       <c r="G68">
         <v>104.29</v>
       </c>
-      <c r="H68">
-        <v>53691.345000000001</v>
+      <c r="I68">
+        <v>5259.4392500000004</v>
       </c>
       <c r="J68">
-        <v>5259.4392500000004</v>
+        <v>5332.3166666666666</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -13298,11 +13118,11 @@
       <c r="G69">
         <v>99.6</v>
       </c>
-      <c r="H69">
-        <v>53520.055</v>
+      <c r="I69">
+        <v>5259.4392500000004</v>
       </c>
       <c r="J69">
-        <v>5259.4392500000004</v>
+        <v>5332.3166666666666</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -13315,11 +13135,11 @@
       <c r="G70">
         <v>93.57</v>
       </c>
-      <c r="H70">
-        <v>52420.661</v>
+      <c r="I70">
+        <v>5259.4392500000004</v>
       </c>
       <c r="J70">
-        <v>5259.4392500000004</v>
+        <v>5332.3166666666666</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -13332,11 +13152,11 @@
       <c r="G71">
         <v>92.69</v>
       </c>
-      <c r="H71">
-        <v>49894.065999999999</v>
+      <c r="I71">
+        <v>5259.4392500000004</v>
       </c>
       <c r="J71">
-        <v>5259.4392500000004</v>
+        <v>5332.3166666666666</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -13349,11 +13169,11 @@
       <c r="G72">
         <v>91.72</v>
       </c>
-      <c r="H72">
-        <v>50782.572</v>
+      <c r="I72">
+        <v>5259.4392500000004</v>
       </c>
       <c r="J72">
-        <v>5259.4392500000004</v>
+        <v>5332.3166666666666</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -13366,11 +13186,11 @@
       <c r="G73">
         <v>93.39</v>
       </c>
-      <c r="H73">
-        <v>51976.927999999993</v>
+      <c r="I73">
+        <v>5259.4392500000004</v>
       </c>
       <c r="J73">
-        <v>5259.4392500000004</v>
+        <v>5332.3166666666666</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -13383,11 +13203,11 @@
       <c r="G74">
         <v>95.03</v>
       </c>
-      <c r="H74">
-        <v>51759.718000000001</v>
+      <c r="I74">
+        <v>5078.9028333333335</v>
       </c>
       <c r="J74">
-        <v>5078.9028333333335</v>
+        <v>5050.166666666667</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -13400,11 +13220,11 @@
       <c r="G75">
         <v>94.17</v>
       </c>
-      <c r="H75">
-        <v>51993.702999999994</v>
+      <c r="I75">
+        <v>5078.9028333333335</v>
       </c>
       <c r="J75">
-        <v>5078.9028333333335</v>
+        <v>5050.166666666667</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -13417,11 +13237,11 @@
       <c r="G76">
         <v>93.53</v>
       </c>
-      <c r="H76">
-        <v>52563.569000000003</v>
+      <c r="I76">
+        <v>5078.9028333333335</v>
       </c>
       <c r="J76">
-        <v>5078.9028333333335</v>
+        <v>5050.166666666667</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -13434,11 +13254,11 @@
       <c r="G77">
         <v>93.01</v>
       </c>
-      <c r="H77">
-        <v>51572.008000000002</v>
+      <c r="I77">
+        <v>5078.9028333333335</v>
       </c>
       <c r="J77">
-        <v>5078.9028333333335</v>
+        <v>5050.166666666667</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -13451,11 +13271,11 @@
       <c r="G78">
         <v>92.39</v>
       </c>
-      <c r="H78">
-        <v>50848.94</v>
+      <c r="I78">
+        <v>5078.9028333333335</v>
       </c>
       <c r="J78">
-        <v>5078.9028333333335</v>
+        <v>5050.166666666667</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -13468,11 +13288,11 @@
       <c r="G79">
         <v>86.75</v>
       </c>
-      <c r="H79">
-        <v>50385.373999999996</v>
+      <c r="I79">
+        <v>5078.9028333333335</v>
       </c>
       <c r="J79">
-        <v>5078.9028333333335</v>
+        <v>5050.166666666667</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -13485,11 +13305,11 @@
       <c r="G80">
         <v>85.8</v>
       </c>
-      <c r="H80">
-        <v>48677.884999999995</v>
+      <c r="I80">
+        <v>5078.9028333333335</v>
       </c>
       <c r="J80">
-        <v>5078.9028333333335</v>
+        <v>5050.166666666667</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -13502,11 +13322,11 @@
       <c r="G81">
         <v>85.15</v>
       </c>
-      <c r="H81">
-        <v>48421.205999999998</v>
+      <c r="I81">
+        <v>5078.9028333333335</v>
       </c>
       <c r="J81">
-        <v>5078.9028333333335</v>
+        <v>5050.166666666667</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -13519,11 +13339,11 @@
       <c r="G82">
         <v>84.33</v>
       </c>
-      <c r="H82">
-        <v>48219.252999999997</v>
+      <c r="I82">
+        <v>5078.9028333333335</v>
       </c>
       <c r="J82">
-        <v>5078.9028333333335</v>
+        <v>5050.166666666667</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -13536,11 +13356,11 @@
       <c r="G83">
         <v>81.72</v>
       </c>
-      <c r="H83">
-        <v>48451.031999999999</v>
+      <c r="I83">
+        <v>5078.9028333333335</v>
       </c>
       <c r="J83">
-        <v>5078.9028333333335</v>
+        <v>5050.166666666667</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -13553,11 +13373,11 @@
       <c r="G84">
         <v>83.7</v>
       </c>
-      <c r="H84">
-        <v>47895.051999999996</v>
+      <c r="I84">
+        <v>5078.9028333333335</v>
       </c>
       <c r="J84">
-        <v>5078.9028333333335</v>
+        <v>5050.166666666667</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -13570,11 +13390,11 @@
       <c r="G85">
         <v>81.11</v>
       </c>
-      <c r="H85">
-        <v>48897.837</v>
+      <c r="I85">
+        <v>4968.226666667083</v>
       </c>
       <c r="J85">
-        <v>4968.226666667083</v>
+        <v>5050.166666666667</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -13588,13 +13408,13 @@
         <v>78.2</v>
       </c>
       <c r="H86">
-        <v>48637.438999999998</v>
+        <v>5.1516779661016949</v>
       </c>
       <c r="I86">
-        <v>5.1516779661016949</v>
+        <v>4968.226666667083</v>
       </c>
       <c r="J86">
-        <v>4968.226666667083</v>
+        <v>4841.6750000000002</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -13608,13 +13428,13 @@
         <v>72.680000000000007</v>
       </c>
       <c r="H87">
-        <v>48011.115000000005</v>
+        <v>5.2965575501583944</v>
       </c>
       <c r="I87">
-        <v>5.2965575501583944</v>
+        <v>4968.226666667083</v>
       </c>
       <c r="J87">
-        <v>4968.226666667083</v>
+        <v>4841.6750000000002</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -13628,13 +13448,13 @@
         <v>65.59</v>
       </c>
       <c r="H88">
-        <v>46337.263000000006</v>
+        <v>5.411700105596621</v>
       </c>
       <c r="I88">
-        <v>5.411700105596621</v>
+        <v>4968.226666667083</v>
       </c>
       <c r="J88">
-        <v>4968.226666667083</v>
+        <v>4841.6750000000002</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -13648,13 +13468,13 @@
         <v>76.790000000000006</v>
       </c>
       <c r="H89">
-        <v>45279.322999999997</v>
+        <v>5.5093894736842115</v>
       </c>
       <c r="I89">
-        <v>5.5093894736842115</v>
+        <v>4968.226666667083</v>
       </c>
       <c r="J89">
-        <v>4968.226666667083</v>
+        <v>4841.6750000000002</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -13668,13 +13488,13 @@
         <v>81.709999999999994</v>
       </c>
       <c r="H90">
-        <v>45948.265999999996</v>
+        <v>5.5713868613138686</v>
       </c>
       <c r="I90">
-        <v>5.5713868613138686</v>
+        <v>4968.226666667083</v>
       </c>
       <c r="J90">
-        <v>4968.226666667083</v>
+        <v>4841.6750000000002</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -13688,13 +13508,13 @@
         <v>78.849999999999994</v>
       </c>
       <c r="H91">
-        <v>47771.836999999992</v>
+        <v>5.508206185567011</v>
       </c>
       <c r="I91">
-        <v>5.508206185567011</v>
+        <v>4968.226666667083</v>
       </c>
       <c r="J91">
-        <v>4968.226666667083</v>
+        <v>4841.6750000000002</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -13708,13 +13528,13 @@
         <v>76.41</v>
       </c>
       <c r="H92">
-        <v>47532.928</v>
+        <v>5.5246933333333335</v>
       </c>
       <c r="I92">
-        <v>5.5246933333333335</v>
+        <v>4968.226666667083</v>
       </c>
       <c r="J92">
-        <v>4968.226666667083</v>
+        <v>4841.6750000000002</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -13728,13 +13548,13 @@
         <v>75.78</v>
       </c>
       <c r="H93">
-        <v>47396.58600000001</v>
+        <v>5.6473121801432953</v>
       </c>
       <c r="I93">
-        <v>5.6473121801432953</v>
+        <v>4968.226666667083</v>
       </c>
       <c r="J93">
-        <v>4968.226666667083</v>
+        <v>4841.6750000000002</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -13748,13 +13568,13 @@
         <v>79.53</v>
       </c>
       <c r="H94">
-        <v>47292.627000000008</v>
+        <v>5.7142763561924257</v>
       </c>
       <c r="I94">
-        <v>5.7142763561924257</v>
+        <v>4968.226666667083</v>
       </c>
       <c r="J94">
-        <v>4968.226666667083</v>
+        <v>4841.6750000000002</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -13768,13 +13588,13 @@
         <v>79.319999999999993</v>
       </c>
       <c r="H95">
-        <v>48674.036999999997</v>
+        <v>5.7798980632008163</v>
       </c>
       <c r="I95">
-        <v>5.7798980632008163</v>
+        <v>4968.226666667083</v>
       </c>
       <c r="J95">
-        <v>4968.226666667083</v>
+        <v>4841.6750000000002</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -13788,13 +13608,13 @@
         <v>75.989999999999995</v>
       </c>
       <c r="H96">
-        <v>49308.525000000001</v>
+        <v>5.8303020408163269</v>
       </c>
       <c r="I96">
-        <v>5.8303020408163269</v>
+        <v>4968.226666667083</v>
       </c>
       <c r="J96">
-        <v>4968.226666667083</v>
+        <v>4841.6750000000002</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -13808,13 +13628,13 @@
         <v>70.8</v>
       </c>
       <c r="H97">
-        <v>48300.311999999998</v>
+        <v>5.8482047082906856</v>
       </c>
       <c r="I97">
-        <v>5.8482047082906856</v>
+        <v>4904.0350000019162</v>
       </c>
       <c r="J97">
-        <v>4904.0350000019162</v>
+        <v>4841.6750000000002</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -13828,13 +13648,13 @@
         <v>69.48</v>
       </c>
       <c r="H98">
-        <v>46766.045999999995</v>
+        <v>5.9253605720122575</v>
       </c>
       <c r="I98">
-        <v>5.9253605720122575</v>
+        <v>4904.0350000019162</v>
       </c>
       <c r="J98">
-        <v>4904.0350000019162</v>
+        <v>4827.4416666666666</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -13848,13 +13668,13 @@
         <v>64.42</v>
       </c>
       <c r="H99">
-        <v>44120.298000000003</v>
+        <v>5.919314285714286</v>
       </c>
       <c r="I99">
-        <v>5.919314285714286</v>
+        <v>4904.0350000019162</v>
       </c>
       <c r="J99">
-        <v>4904.0350000019162</v>
+        <v>4827.4416666666666</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -13868,13 +13688,13 @@
         <v>64.069999999999993</v>
       </c>
       <c r="H100">
-        <v>44990.944000000003</v>
+        <v>5.7354373088685024</v>
       </c>
       <c r="I100">
-        <v>5.7354373088685024</v>
+        <v>4904.0350000019162</v>
       </c>
       <c r="J100">
-        <v>4904.0350000019162</v>
+        <v>4827.4416666666666</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -13888,13 +13708,13 @@
         <v>67.569999999999993</v>
       </c>
       <c r="H101">
-        <v>44731.315000000002</v>
+        <v>5.5844372469635628</v>
       </c>
       <c r="I101">
-        <v>5.5844372469635628</v>
+        <v>4904.0350000019162</v>
       </c>
       <c r="J101">
-        <v>4904.0350000019162</v>
+        <v>4827.4416666666666</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -13908,13 +13728,13 @@
         <v>65.95</v>
       </c>
       <c r="H102">
-        <v>46460.133999999998</v>
+        <v>5.5619193548387091</v>
       </c>
       <c r="I102">
-        <v>5.5619193548387091</v>
+        <v>4904.0350000019162</v>
       </c>
       <c r="J102">
-        <v>4904.0350000019162</v>
+        <v>4827.4416666666666</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -13928,13 +13748,13 @@
         <v>68.010000000000005</v>
       </c>
       <c r="H103">
-        <v>46584.044000000002</v>
+        <v>5.6823661971830974</v>
       </c>
       <c r="I103">
-        <v>5.6823661971830974</v>
+        <v>4904.0350000019162</v>
       </c>
       <c r="J103">
-        <v>4904.0350000019162</v>
+        <v>4827.4416666666666</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -13948,13 +13768,13 @@
         <v>69.180000000000007</v>
       </c>
       <c r="H104">
-        <v>48243.090999999993</v>
+        <v>5.5066292585170347</v>
       </c>
       <c r="I104">
-        <v>5.5066292585170347</v>
+        <v>4904.0350000019162</v>
       </c>
       <c r="J104">
-        <v>4904.0350000019162</v>
+        <v>4827.4416666666666</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -13968,13 +13788,13 @@
         <v>69.52</v>
       </c>
       <c r="H105">
-        <v>48148.442999999999</v>
+        <v>5.6208431568431578</v>
       </c>
       <c r="I105">
-        <v>5.6208431568431578</v>
+        <v>4904.0350000019162</v>
       </c>
       <c r="J105">
-        <v>4904.0350000019162</v>
+        <v>4827.4416666666666</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -13988,13 +13808,13 @@
         <v>67.569999999999993</v>
       </c>
       <c r="H106">
-        <v>48148.442999999999</v>
+        <v>5.7995378486055778</v>
       </c>
       <c r="I106">
-        <v>5.7995378486055778</v>
+        <v>4904.0350000019162</v>
       </c>
       <c r="J106">
-        <v>4904.0350000019162</v>
+        <v>4827.4416666666666</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -14008,13 +13828,13 @@
         <v>65.790000000000006</v>
       </c>
       <c r="H107">
-        <v>48368.573000000004</v>
+        <v>5.5818095238095244</v>
       </c>
       <c r="I107">
-        <v>5.5818095238095244</v>
+        <v>4904.0350000019162</v>
       </c>
       <c r="J107">
-        <v>4904.0350000019162</v>
+        <v>4827.4416666666666</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -14028,13 +13848,13 @@
         <v>64.37</v>
       </c>
       <c r="H108">
-        <v>48427.305</v>
+        <v>5.6083877349159259</v>
       </c>
       <c r="I108">
-        <v>5.6083877349159259</v>
+        <v>4904.0350000019162</v>
       </c>
       <c r="J108">
-        <v>4904.0350000019162</v>
+        <v>4827.4416666666666</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -14048,13 +13868,13 @@
         <v>62.89</v>
       </c>
       <c r="H109">
-        <v>47761.613000000005</v>
+        <v>5.6133017751479288</v>
       </c>
       <c r="I109">
-        <v>5.6133017751479288</v>
+        <v>4969.6343246817496</v>
       </c>
       <c r="J109">
-        <v>4969.6343246817496</v>
+        <v>4827.4416666666666</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -14068,13 +13888,13 @@
         <v>63.42</v>
       </c>
       <c r="H110">
-        <v>47805.502743000005</v>
+        <v>5.7029735553379046</v>
       </c>
       <c r="I110">
-        <v>5.7029735553379046</v>
+        <v>4969.6343246817496</v>
       </c>
       <c r="J110">
-        <v>4969.6343246817496</v>
+        <v>4963.6214949909163</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -14088,13 +13908,13 @@
         <v>64.069999999999993</v>
       </c>
       <c r="H111">
-        <v>48178.749757199999</v>
+        <v>5.7602027290448348</v>
       </c>
       <c r="I111">
-        <v>5.7602027290448348</v>
+        <v>4969.6343246817496</v>
       </c>
       <c r="J111">
-        <v>4969.6343246817496</v>
+        <v>4963.6214949909163</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -14108,13 +13928,13 @@
         <v>65.19</v>
       </c>
       <c r="H112">
-        <v>47828.029757200005</v>
+        <v>5.6586355685131196</v>
       </c>
       <c r="I112">
-        <v>5.6586355685131196</v>
+        <v>4969.6343246817496</v>
       </c>
       <c r="J112">
-        <v>4969.6343246817496</v>
+        <v>4963.6214949909163</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
@@ -14128,13 +13948,13 @@
         <v>64.64</v>
       </c>
       <c r="H113">
-        <v>47996.086757200006</v>
+        <v>5.5733901258470473</v>
       </c>
       <c r="I113">
-        <v>5.5733901258470473</v>
+        <v>4969.6343246817496</v>
       </c>
       <c r="J113">
-        <v>4969.6343246817496</v>
+        <v>4963.6214949909163</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
@@ -14148,13 +13968,13 @@
         <v>64.31</v>
       </c>
       <c r="H114">
-        <v>47637.849742999999</v>
+        <v>5.6258318840579706</v>
       </c>
       <c r="I114">
-        <v>5.6258318840579706</v>
+        <v>4969.6343246817496</v>
       </c>
       <c r="J114">
-        <v>4969.6343246817496</v>
+        <v>4963.6214949909163</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
@@ -14168,13 +13988,13 @@
         <v>63.02</v>
       </c>
       <c r="H115">
-        <v>48696.154716999998</v>
+        <v>5.6780713596914181</v>
       </c>
       <c r="I115">
-        <v>5.6780713596914181</v>
+        <v>4969.6343246817496</v>
       </c>
       <c r="J115">
-        <v>4969.6343246817496</v>
+        <v>4963.6214949909163</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
@@ -14188,13 +14008,13 @@
         <v>60.23</v>
       </c>
       <c r="H116">
-        <v>48083.547742999996</v>
+        <v>5.6143554274735834</v>
       </c>
       <c r="I116">
-        <v>5.6143554274735834</v>
+        <v>4969.6343246817496</v>
       </c>
       <c r="J116">
-        <v>4969.6343246817496</v>
+        <v>4963.6214949909163</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
@@ -14208,13 +14028,13 @@
         <v>61.1</v>
       </c>
       <c r="H117">
-        <v>46500.997743</v>
+        <v>5.6191111111111116</v>
       </c>
       <c r="I117">
-        <v>5.6191111111111116</v>
+        <v>4969.6343246817496</v>
       </c>
       <c r="J117">
-        <v>4969.6343246817496</v>
+        <v>4963.6214949909163</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
@@ -14228,13 +14048,13 @@
         <v>61.05</v>
       </c>
       <c r="H118">
-        <v>46928.682743000005</v>
+        <v>5.4572072588347673</v>
       </c>
       <c r="I118">
-        <v>5.4572072588347673</v>
+        <v>4969.6343246817496</v>
       </c>
       <c r="J118">
-        <v>4969.6343246817496</v>
+        <v>4963.6214949909163</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
@@ -14248,13 +14068,13 @@
         <v>59.69</v>
       </c>
       <c r="H119">
-        <v>47303.391743</v>
+        <v>5.4571874405328265</v>
       </c>
       <c r="I119">
-        <v>5.4571874405328265</v>
+        <v>4969.6343246817496</v>
       </c>
       <c r="J119">
-        <v>4969.6343246817496</v>
+        <v>4963.6214949909163</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
@@ -14268,13 +14088,13 @@
         <v>58.19</v>
       </c>
       <c r="H120">
-        <v>47471.477742999996</v>
+        <v>5.4054017094017093</v>
       </c>
       <c r="I120">
-        <v>5.4054017094017093</v>
+        <v>4969.6343246817496</v>
       </c>
       <c r="J120">
-        <v>4969.6343246817496</v>
+        <v>4963.6214949909163</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
@@ -14288,13 +14108,13 @@
         <v>52.56</v>
       </c>
       <c r="H121">
-        <v>47336.160757199992</v>
+        <v>5.3124701421800955</v>
       </c>
       <c r="I121">
-        <v>5.3124701421800955</v>
+        <v>4992.77092493075</v>
       </c>
       <c r="J121">
-        <v>4992.77092493075</v>
+        <v>4963.6214949909163</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
@@ -14308,13 +14128,13 @@
         <v>52.9</v>
       </c>
       <c r="H122">
-        <v>45918.552495000004</v>
+        <v>5.4468420056764435</v>
       </c>
       <c r="I122">
-        <v>5.4468420056764435</v>
+        <v>4992.77092493075</v>
       </c>
       <c r="J122">
-        <v>4992.77092493075</v>
+        <v>4929.6771191533335</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
@@ -14328,13 +14148,13 @@
         <v>55.95</v>
       </c>
       <c r="H123">
-        <v>47331.106646999993</v>
+        <v>5.5597064910630296</v>
       </c>
       <c r="I123">
-        <v>5.5597064910630296</v>
+        <v>4992.77092493075</v>
       </c>
       <c r="J123">
-        <v>4992.77092493075</v>
+        <v>4929.6771191533335</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
@@ -14348,13 +14168,13 @@
         <v>57.66</v>
       </c>
       <c r="H124">
-        <v>47536.262999999999</v>
+        <v>5.3499026217228476</v>
       </c>
       <c r="I124">
-        <v>5.3499026217228476</v>
+        <v>4992.77092493075</v>
       </c>
       <c r="J124">
-        <v>4992.77092493075</v>
+        <v>4929.6771191533335</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
@@ -14368,13 +14188,13 @@
         <v>58.71</v>
       </c>
       <c r="H125">
-        <v>47097.450353000007</v>
+        <v>5.3806654205607476</v>
       </c>
       <c r="I125">
-        <v>5.3806654205607476</v>
+        <v>4992.77092493075</v>
       </c>
       <c r="J125">
-        <v>4992.77092493075</v>
+        <v>4929.6771191533335</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
@@ -14388,13 +14208,13 @@
         <v>56.19</v>
       </c>
       <c r="H126">
-        <v>45710.062293000003</v>
+        <v>5.1468507462686564</v>
       </c>
       <c r="I126">
-        <v>5.1468507462686564</v>
+        <v>4992.77092493075</v>
       </c>
       <c r="J126">
-        <v>4992.77092493075</v>
+        <v>4929.6771191533335</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
@@ -14408,13 +14228,13 @@
         <v>55.06</v>
       </c>
       <c r="H127">
-        <v>44488.224999999999</v>
+        <v>5.2339200000000003</v>
       </c>
       <c r="I127">
-        <v>5.2339200000000003</v>
+        <v>4992.77092493075</v>
       </c>
       <c r="J127">
-        <v>4992.77092493075</v>
+        <v>4929.6771191533335</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
@@ -14428,13 +14248,13 @@
         <v>55.34</v>
       </c>
       <c r="H128">
-        <v>45121.635999999999</v>
+        <v>5.0824586815227475</v>
       </c>
       <c r="I128">
-        <v>5.0824586815227475</v>
+        <v>4992.77092493075</v>
       </c>
       <c r="J128">
-        <v>4992.77092493075</v>
+        <v>4929.6771191533335</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
@@ -14448,13 +14268,13 @@
         <v>56.1</v>
       </c>
       <c r="H129">
-        <v>45006.996706999998</v>
+        <v>4.9921927710843379</v>
       </c>
       <c r="I129">
-        <v>4.9921927710843379</v>
+        <v>4992.77092493075</v>
       </c>
       <c r="J129">
-        <v>4992.77092493075</v>
+        <v>4929.6771191533335</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
@@ -14468,13 +14288,13 @@
         <v>57.07</v>
       </c>
       <c r="H130">
-        <v>46956.061000000002</v>
+        <v>4.8820869565217402</v>
       </c>
       <c r="I130">
-        <v>4.8820869565217402</v>
+        <v>4992.77092493075</v>
       </c>
       <c r="J130">
-        <v>4992.77092493075</v>
+        <v>4929.6771191533335</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
@@ -14488,13 +14308,13 @@
         <v>59.37</v>
       </c>
       <c r="H131">
-        <v>48536.155352999995</v>
+        <v>4.7635907834101383</v>
       </c>
       <c r="I131">
-        <v>4.7635907834101383</v>
+        <v>4992.77092493075</v>
       </c>
       <c r="J131">
-        <v>4992.77092493075</v>
+        <v>4929.6771191533335</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
@@ -14521,13 +14341,13 @@
         <v>61.65</v>
       </c>
       <c r="H132">
-        <v>48996.111999999994</v>
+        <v>4.7217321100917431</v>
       </c>
       <c r="I132">
-        <v>4.7217321100917431</v>
+        <v>4992.77092493075</v>
       </c>
       <c r="J132">
-        <v>4992.77092493075</v>
+        <v>4929.6771191533335</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
@@ -14554,13 +14374,13 @@
         <v>54.23</v>
       </c>
       <c r="H133">
-        <v>49256.083707000005</v>
+        <v>4.540843835616438</v>
       </c>
       <c r="I133">
-        <v>4.540843835616438</v>
+        <v>5149.6462894977494</v>
       </c>
       <c r="J133">
-        <v>5149.6462894977494</v>
+        <v>4929.6771191533335</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
@@ -14587,13 +14407,13 @@
         <v>45.53</v>
       </c>
       <c r="H134">
-        <v>48123.196000000004</v>
+        <v>4.5243166515013646</v>
       </c>
       <c r="I134">
-        <v>4.5243166515013646</v>
+        <v>5149.6462894977494</v>
       </c>
       <c r="J134">
-        <v>5149.6462894977494</v>
+        <v>5127.9131400385832</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
@@ -14620,13 +14440,13 @@
         <v>30.7</v>
       </c>
       <c r="H135">
-        <v>48338.819999999992</v>
+        <v>4.4928058340929802</v>
       </c>
       <c r="I135">
-        <v>4.4928058340929802</v>
+        <v>5149.6462894977494</v>
       </c>
       <c r="J135">
-        <v>5149.6462894977494</v>
+        <v>5127.9131400385832</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
@@ -14653,13 +14473,13 @@
         <v>25.22</v>
       </c>
       <c r="H136">
-        <v>47857.002000000008</v>
+        <v>4.3176241979835019</v>
       </c>
       <c r="I136">
-        <v>4.3176241979835019</v>
+        <v>5149.6462894977494</v>
       </c>
       <c r="J136">
-        <v>5149.6462894977494</v>
+        <v>5127.9131400385832</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
@@ -14686,13 +14506,13 @@
         <v>25.77</v>
       </c>
       <c r="H137">
-        <v>47981.64</v>
+        <v>4.2131370745170189</v>
       </c>
       <c r="I137">
-        <v>4.2131370745170189</v>
+        <v>5149.6462894977494</v>
       </c>
       <c r="J137">
-        <v>5149.6462894977494</v>
+        <v>5127.9131400385832</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
@@ -14719,13 +14539,13 @@
         <v>30.9</v>
       </c>
       <c r="H138">
-        <v>48976.899000000005</v>
+        <v>3.9214385321100922</v>
       </c>
       <c r="I138">
-        <v>3.9214385321100922</v>
+        <v>5149.6462894977494</v>
       </c>
       <c r="J138">
-        <v>5149.6462894977494</v>
+        <v>5127.9131400385832</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
@@ -14752,13 +14572,13 @@
         <v>26.85</v>
       </c>
       <c r="H139">
-        <v>49746.077999999994</v>
+        <v>3.6878244972577696</v>
       </c>
       <c r="I139">
-        <v>3.6878244972577696</v>
+        <v>5149.6462894977494</v>
       </c>
       <c r="J139">
-        <v>5149.6462894977494</v>
+        <v>5127.9131400385832</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
@@ -14785,13 +14605,13 @@
         <v>23.05</v>
       </c>
       <c r="H140">
-        <v>50840.81</v>
+        <v>3.5848767123287675</v>
       </c>
       <c r="I140">
-        <v>3.5848767123287675</v>
+        <v>5149.6462894977494</v>
       </c>
       <c r="J140">
-        <v>5149.6462894977494</v>
+        <v>5127.9131400385832</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
@@ -14818,13 +14638,13 @@
         <v>30.03</v>
       </c>
       <c r="H141">
-        <v>51387.712000000007</v>
+        <v>3.5219124087591247</v>
       </c>
       <c r="I141">
-        <v>3.5219124087591247</v>
+        <v>5149.6462894977494</v>
       </c>
       <c r="J141">
-        <v>5149.6462894977494</v>
+        <v>5127.9131400385832</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
@@ -14851,13 +14671,13 @@
         <v>29.57</v>
       </c>
       <c r="H142">
-        <v>47575.002</v>
+        <v>3.5289309090909091</v>
       </c>
       <c r="I142">
-        <v>3.5289309090909091</v>
+        <v>5149.6462894977494</v>
       </c>
       <c r="J142">
-        <v>5149.6462894977494</v>
+        <v>5127.9131400385832</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
@@ -14884,13 +14704,13 @@
         <v>29.39</v>
       </c>
       <c r="H143">
-        <v>47862</v>
+        <v>3.4235789473684215</v>
       </c>
       <c r="I143">
-        <v>3.4235789473684215</v>
+        <v>5149.6462894977494</v>
       </c>
       <c r="J143">
-        <v>5149.6462894977494</v>
+        <v>5127.9131400385832</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
@@ -14917,13 +14737,13 @@
         <v>30.04</v>
       </c>
       <c r="H144">
-        <v>48687.837</v>
+        <v>3.4963913043478261</v>
       </c>
       <c r="I144">
-        <v>3.4963913043478261</v>
+        <v>5149.6462894977494</v>
       </c>
       <c r="J144">
-        <v>5149.6462894977494</v>
+        <v>5127.9131400385832</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
@@ -14950,13 +14770,13 @@
         <v>31.64</v>
       </c>
       <c r="H145">
-        <v>48869.844999999994</v>
+        <v>3.4640866425992782</v>
       </c>
       <c r="I145">
-        <v>3.4640866425992782</v>
+        <v>5255.1381941780828</v>
       </c>
       <c r="J145">
-        <v>5255.1381941780828</v>
+        <v>5127.9131400385832</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
@@ -14983,13 +14803,13 @@
         <v>36.520000000000003</v>
       </c>
       <c r="H146">
-        <v>48300.586860000003</v>
+        <v>3.4062764811490127</v>
       </c>
       <c r="I146">
-        <v>3.4062764811490127</v>
+        <v>5255.1381941780828</v>
       </c>
       <c r="J146">
-        <v>5255.1381941780828</v>
+        <v>5175.1058703178333</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
@@ -15016,13 +14836,13 @@
         <v>34.58</v>
       </c>
       <c r="H147">
-        <v>47633.10785</v>
+        <v>3.3745831842576033</v>
       </c>
       <c r="I147">
-        <v>3.3745831842576033</v>
+        <v>5255.1381941780828</v>
       </c>
       <c r="J147">
-        <v>5255.1381941780828</v>
+        <v>5175.1058703178333</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
@@ -15049,13 +14869,13 @@
         <v>35.58</v>
       </c>
       <c r="H148">
-        <v>46980.181510000002</v>
+        <v>3.3625525846702318</v>
       </c>
       <c r="I148">
-        <v>3.3625525846702318</v>
+        <v>5255.1381941780828</v>
       </c>
       <c r="J148">
-        <v>5255.1381941780828</v>
+        <v>5175.1058703178333</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
@@ -15082,13 +14902,13 @@
         <v>36.08</v>
       </c>
       <c r="H149">
-        <v>47714.57645</v>
+        <v>3.2702324755989354</v>
       </c>
       <c r="I149">
-        <v>3.2702324755989354</v>
+        <v>5255.1381941780828</v>
       </c>
       <c r="J149">
-        <v>5255.1381941780828</v>
+        <v>5175.1058703178333</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
@@ -15115,13 +14935,13 @@
         <v>37.47</v>
       </c>
       <c r="H150">
-        <v>48304.274449999997</v>
+        <v>3.1843539823008848</v>
       </c>
       <c r="I150">
-        <v>3.1843539823008848</v>
+        <v>5255.1381941780828</v>
       </c>
       <c r="J150">
-        <v>5255.1381941780828</v>
+        <v>5175.1058703178333</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
@@ -15148,13 +14968,13 @@
         <v>38.49</v>
       </c>
       <c r="H151">
-        <v>48002.490449999998</v>
+        <v>3.1703259911894275</v>
       </c>
       <c r="I151">
-        <v>3.1703259911894275</v>
+        <v>5255.1381941780828</v>
       </c>
       <c r="J151">
-        <v>5255.1381941780828</v>
+        <v>5175.1058703178333</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
@@ -15181,13 +15001,13 @@
         <v>40.92</v>
       </c>
       <c r="H152">
-        <v>50282.998159999996</v>
+        <v>3.1811318101933219</v>
       </c>
       <c r="I152">
-        <v>3.1811318101933219</v>
+        <v>5255.1381941780828</v>
       </c>
       <c r="J152">
-        <v>5255.1381941780828</v>
+        <v>5175.1058703178333</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
@@ -15214,13 +15034,13 @@
         <v>38.68</v>
       </c>
       <c r="H153">
-        <v>50985.580499999996</v>
+        <v>3.1099772528433949</v>
       </c>
       <c r="I153">
-        <v>3.1099772528433949</v>
+        <v>5255.1381941780828</v>
       </c>
       <c r="J153">
-        <v>5255.1381941780828</v>
+        <v>5175.1058703178333</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
@@ -15247,13 +15067,13 @@
         <v>37.119999999999997</v>
       </c>
       <c r="H154">
-        <v>50544.842180000007</v>
+        <v>2.9660401046207499</v>
       </c>
       <c r="I154">
-        <v>2.9660401046207499</v>
+        <v>5255.1381941780828</v>
       </c>
       <c r="J154">
-        <v>5255.1381941780828</v>
+        <v>5175.1058703178333</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
@@ -15280,13 +15100,13 @@
         <v>37.64</v>
       </c>
       <c r="H155">
-        <v>50697.3125</v>
+        <v>2.9772660869565222</v>
       </c>
       <c r="I155">
-        <v>2.9772660869565222</v>
+        <v>5255.1381941780828</v>
       </c>
       <c r="J155">
-        <v>5255.1381941780828</v>
+        <v>5175.1058703178333</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
@@ -15313,13 +15133,13 @@
         <v>35.75</v>
       </c>
       <c r="H156">
-        <v>50200.531860000003</v>
+        <v>3.0992305025996529</v>
       </c>
       <c r="I156">
-        <v>3.0992305025996529</v>
+        <v>5255.1381941780828</v>
       </c>
       <c r="J156">
-        <v>5255.1381941780828</v>
+        <v>5175.1058703178333</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
@@ -15346,13 +15166,13 @@
         <v>32.53</v>
       </c>
       <c r="H157">
-        <v>50264.792500000003</v>
+        <v>3.2070588235294122</v>
       </c>
       <c r="I157">
-        <v>3.2070588235294122</v>
+        <v>5412.9423517948335</v>
       </c>
       <c r="J157">
-        <v>5412.9423517948335</v>
+        <v>5175.1058703178333</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
@@ -15379,13 +15199,13 @@
         <v>32.26</v>
       </c>
       <c r="H158">
-        <v>49461.689749999998</v>
+        <v>3.6848000000000001</v>
       </c>
       <c r="I158">
-        <v>3.6848000000000001</v>
+        <v>5412.9423517948335</v>
       </c>
       <c r="J158">
-        <v>5412.9423517948335</v>
+        <v>5366.5609754768329</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
@@ -15412,13 +15232,13 @@
         <v>31.46</v>
       </c>
       <c r="H159">
-        <v>49519.266409999997</v>
+        <v>3.4532461273666097</v>
       </c>
       <c r="I159">
-        <v>3.4532461273666097</v>
+        <v>5412.9423517948335</v>
       </c>
       <c r="J159">
-        <v>5412.9423517948335</v>
+        <v>5366.5609754768329</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
@@ -15445,13 +15265,13 @@
         <v>30.36</v>
       </c>
       <c r="H160">
-        <v>49789.035719999993</v>
+        <v>3.1822832618025751</v>
       </c>
       <c r="I160">
-        <v>3.1822832618025751</v>
+        <v>5412.9423517948335</v>
       </c>
       <c r="J160">
-        <v>5412.9423517948335</v>
+        <v>5366.5609754768329</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
@@ -15478,13 +15298,13 @@
         <v>33.26</v>
       </c>
       <c r="H161">
-        <v>50159.40122</v>
+        <v>2.9585938566552903</v>
       </c>
       <c r="I161">
-        <v>2.9585938566552903</v>
+        <v>5412.9423517948335</v>
       </c>
       <c r="J161">
-        <v>5412.9423517948335</v>
+        <v>5366.5609754768329</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
@@ -15511,13 +15331,13 @@
         <v>32.36</v>
       </c>
       <c r="H162">
-        <v>49881.019220000002</v>
+        <v>2.8211200000000001</v>
       </c>
       <c r="I162">
-        <v>2.8211200000000001</v>
+        <v>5412.9423517948335</v>
       </c>
       <c r="J162">
-        <v>5412.9423517948335</v>
+        <v>5366.5609754768329</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
@@ -15544,13 +15364,13 @@
         <v>30.55</v>
       </c>
       <c r="H163">
-        <v>49564.498220000001</v>
+        <v>2.8276474576271191</v>
       </c>
       <c r="I163">
-        <v>2.8276474576271191</v>
+        <v>5412.9423517948335</v>
       </c>
       <c r="J163">
-        <v>5412.9423517948335</v>
+        <v>5366.5609754768329</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
@@ -15577,13 +15397,13 @@
         <v>28.52</v>
       </c>
       <c r="H164">
-        <v>49913.428220000002</v>
+        <v>2.8709265822784813</v>
       </c>
       <c r="I164">
-        <v>2.8709265822784813</v>
+        <v>5412.9423517948335</v>
       </c>
       <c r="J164">
-        <v>5412.9423517948335</v>
+        <v>5366.5609754768329</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
@@ -15610,13 +15430,13 @@
         <v>28.45</v>
       </c>
       <c r="H165">
-        <v>51061.825219999999</v>
+        <v>2.9688201680672273</v>
       </c>
       <c r="I165">
-        <v>2.9688201680672273</v>
+        <v>5412.9423517948335</v>
       </c>
       <c r="J165">
-        <v>5412.9423517948335</v>
+        <v>5366.5609754768329</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
@@ -15643,13 +15463,13 @@
         <v>26.4</v>
       </c>
       <c r="H166">
-        <v>51495.47322</v>
+        <v>2.7921539748953976</v>
       </c>
       <c r="I166">
-        <v>2.7921539748953976</v>
+        <v>5412.9423517948335</v>
       </c>
       <c r="J166">
-        <v>5412.9423517948335</v>
+        <v>5366.5609754768329</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
@@ -15676,13 +15496,13 @@
         <v>25.1</v>
       </c>
       <c r="H167">
-        <v>53055.503219999999</v>
+        <v>3.055666388657214</v>
       </c>
       <c r="I167">
-        <v>3.055666388657214</v>
+        <v>5412.9423517948335</v>
       </c>
       <c r="J167">
-        <v>5412.9423517948335</v>
+        <v>5366.5609754768329</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
@@ -15709,13 +15529,13 @@
         <v>25.34</v>
       </c>
       <c r="H168">
-        <v>53609.700219999999</v>
+        <v>3.1905303408146306</v>
       </c>
       <c r="I168">
-        <v>3.1905303408146306</v>
+        <v>5412.9423517948335</v>
       </c>
       <c r="J168">
-        <v>5412.9423517948335</v>
+        <v>5366.5609754768329</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
@@ -15742,13 +15562,13 @@
         <v>29.39</v>
       </c>
       <c r="H169">
-        <v>53737.984219999998</v>
+        <v>3.4148400994200498</v>
       </c>
       <c r="I169">
-        <v>3.4148400994200498</v>
+        <v>5503.8022080136661</v>
       </c>
       <c r="J169">
-        <v>5503.8022080136661</v>
+        <v>5366.5609754768329</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
@@ -15775,13 +15595,13 @@
         <v>32.36</v>
       </c>
       <c r="H170">
-        <v>50773.454060000004</v>
+        <v>3.5806864686468645</v>
       </c>
       <c r="I170">
-        <v>3.5806864686468645</v>
+        <v>5503.8022080136661</v>
       </c>
       <c r="J170">
-        <v>5503.8022080136661</v>
+        <v>5460.4092719290829</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
@@ -15808,13 +15628,13 @@
         <v>31.97</v>
       </c>
       <c r="H171">
-        <v>50236.319060000002</v>
+        <v>3.2460921052631582</v>
       </c>
       <c r="I171">
-        <v>3.2460921052631582</v>
+        <v>5503.8022080136661</v>
       </c>
       <c r="J171">
-        <v>5503.8022080136661</v>
+        <v>5460.4092719290829</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
@@ -15841,13 +15661,13 @@
         <v>34.700000000000003</v>
       </c>
       <c r="H172">
-        <v>50642.876059999995</v>
+        <v>3.016</v>
       </c>
       <c r="I172">
-        <v>3.016</v>
+        <v>5503.8022080136661</v>
       </c>
       <c r="J172">
-        <v>5503.8022080136661</v>
+        <v>5460.4092719290829</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
@@ -15874,13 +15694,13 @@
         <v>37.270000000000003</v>
       </c>
       <c r="H173">
-        <v>51213.514259999996</v>
+        <v>2.7636458164094235</v>
       </c>
       <c r="I173">
-        <v>2.7636458164094235</v>
+        <v>5503.8022080136661</v>
       </c>
       <c r="J173">
-        <v>5503.8022080136661</v>
+        <v>5460.4092719290829</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
@@ -15907,13 +15727,13 @@
         <v>35.32</v>
       </c>
       <c r="H174">
-        <v>51088.35626</v>
+        <v>2.8383896523848025</v>
       </c>
       <c r="I174">
-        <v>2.8383896523848025</v>
+        <v>5503.8022080136661</v>
       </c>
       <c r="J174">
-        <v>5503.8022080136661</v>
+        <v>5460.4092719290829</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
@@ -15940,13 +15760,13 @@
         <v>35.15</v>
       </c>
       <c r="H175">
-        <v>51166.016710000004</v>
+        <v>2.8995326349717971</v>
       </c>
       <c r="I175">
-        <v>2.8995326349717971</v>
+        <v>5503.8022080136661</v>
       </c>
       <c r="J175">
-        <v>5503.8022080136661</v>
+        <v>5460.4092719290829</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
@@ -15973,13 +15793,13 @@
         <v>34.409999999999997</v>
       </c>
       <c r="H176">
-        <v>51481.230710000003</v>
+        <v>2.8902168674698796</v>
       </c>
       <c r="I176">
-        <v>2.8902168674698796</v>
+        <v>5503.8022080136661</v>
       </c>
       <c r="J176">
-        <v>5503.8022080136661</v>
+        <v>5460.4092719290829</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
@@ -16006,13 +15826,13 @@
         <v>32.44</v>
       </c>
       <c r="H177">
-        <v>52266.985710000001</v>
+        <v>2.8201510040160644</v>
       </c>
       <c r="I177">
-        <v>2.8201510040160644</v>
+        <v>5503.8022080136661</v>
       </c>
       <c r="J177">
-        <v>5503.8022080136661</v>
+        <v>5460.4092719290829</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
@@ -16039,13 +15859,13 @@
         <v>34.24</v>
       </c>
       <c r="H178">
-        <v>52300.260869999998</v>
+        <v>2.7085256410256413</v>
       </c>
       <c r="I178">
-        <v>2.7085256410256413</v>
+        <v>5503.8022080136661</v>
       </c>
       <c r="J178">
-        <v>5503.8022080136661</v>
+        <v>5460.4092719290829</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
@@ -16072,13 +15892,13 @@
         <v>34.94</v>
       </c>
       <c r="H179">
-        <v>52720.627480000003</v>
+        <v>2.7825199362041468</v>
       </c>
       <c r="I179">
-        <v>2.7825199362041468</v>
+        <v>5503.8022080136661</v>
       </c>
       <c r="J179">
-        <v>5503.8022080136661</v>
+        <v>5460.4092719290829</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
@@ -16105,13 +15925,13 @@
         <v>34.33</v>
       </c>
       <c r="H180">
-        <v>53478.675479999998</v>
+        <v>3.2911199364575059</v>
       </c>
       <c r="I180">
-        <v>3.2911199364575059</v>
+        <v>5503.8022080136661</v>
       </c>
       <c r="J180">
-        <v>5503.8022080136661</v>
+        <v>5460.4092719290829</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
@@ -16138,13 +15958,13 @@
         <v>36.409999999999997</v>
       </c>
       <c r="H181">
-        <v>53091.781479999998</v>
+        <v>3.8677688044338883</v>
       </c>
       <c r="I181">
-        <v>3.8677688044338883</v>
+        <v>5554.9497996917498</v>
       </c>
       <c r="J181">
-        <v>5554.9497996917498</v>
+        <v>5460.4092719290829</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
@@ -16171,13 +15991,13 @@
         <v>38.729999999999997</v>
       </c>
       <c r="H182">
-        <v>52775.96517000001</v>
+        <v>4.0879309803921569</v>
       </c>
       <c r="I182">
-        <v>4.0879309803921569</v>
+        <v>5554.9497996917498</v>
       </c>
       <c r="J182">
-        <v>5554.9497996917498</v>
+        <v>5536.4319921509996</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
@@ -16204,13 +16024,13 @@
         <v>37.67</v>
       </c>
       <c r="H183">
-        <v>52968.491789999993</v>
+        <v>3.2371250000000003</v>
       </c>
       <c r="I183">
-        <v>3.2371250000000003</v>
+        <v>5554.9497996917498</v>
       </c>
       <c r="J183">
-        <v>5554.9497996917498</v>
+        <v>5536.4319921509996</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
@@ -16237,13 +16057,13 @@
         <v>34.619999999999997</v>
       </c>
       <c r="H184">
-        <v>53715.599170000009</v>
+        <v>2.6284914463452571</v>
       </c>
       <c r="I184">
-        <v>2.6284914463452571</v>
+        <v>5554.9497996917498</v>
       </c>
       <c r="J184">
-        <v>5554.9497996917498</v>
+        <v>5536.4319921509996</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
@@ -16270,13 +16090,13 @@
         <v>31.44</v>
       </c>
       <c r="H185">
-        <v>53363.527220000004</v>
+        <v>2.5208626842513575</v>
       </c>
       <c r="I185">
-        <v>2.5208626842513575</v>
+        <v>5554.9497996917498</v>
       </c>
       <c r="J185">
-        <v>5554.9497996917498</v>
+        <v>5536.4319921509996</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
@@ -16303,13 +16123,13 @@
         <v>30.81</v>
       </c>
       <c r="H186">
-        <v>52895.726869999999</v>
+        <v>2.4831727343144849</v>
       </c>
       <c r="I186">
-        <v>2.4831727343144849</v>
+        <v>5554.9497996917498</v>
       </c>
       <c r="J186">
-        <v>5554.9497996917498</v>
+        <v>5536.4319921509996</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
@@ -16336,13 +16156,13 @@
         <v>28.32</v>
       </c>
       <c r="H187">
-        <v>52041.066129999999</v>
+        <v>2.467879907621247</v>
       </c>
       <c r="I187">
-        <v>2.467879907621247</v>
+        <v>5554.9497996917498</v>
       </c>
       <c r="J187">
-        <v>5554.9497996917498</v>
+        <v>5536.4319921509996</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
@@ -16369,13 +16189,13 @@
         <v>31.15</v>
       </c>
       <c r="H188">
-        <v>52150.541820000006</v>
+        <v>2.3562666666666665</v>
       </c>
       <c r="I188">
-        <v>2.3562666666666665</v>
+        <v>5554.9497996917498</v>
       </c>
       <c r="J188">
-        <v>5554.9497996917498</v>
+        <v>5536.4319921509996</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
@@ -16402,13 +16222,13 @@
         <v>45.03</v>
       </c>
       <c r="H189">
-        <v>48455.130719999994</v>
+        <v>2.253714285714286</v>
       </c>
       <c r="I189">
-        <v>2.253714285714286</v>
+        <v>5554.9497996917498</v>
       </c>
       <c r="J189">
-        <v>5554.9497996917498</v>
+        <v>5536.4319921509996</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
@@ -16435,13 +16255,13 @@
         <v>55.44</v>
       </c>
       <c r="H190">
-        <v>50991.592539999998</v>
+        <v>2.3700769811320752</v>
       </c>
       <c r="I190">
-        <v>2.3700769811320752</v>
+        <v>5554.9497996917498</v>
       </c>
       <c r="J190">
-        <v>5554.9497996917498</v>
+        <v>5536.4319921509996</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
@@ -16468,13 +16288,13 @@
         <v>58.72</v>
       </c>
       <c r="H191">
-        <v>51404.185290000009</v>
+        <v>2.7627826086956522</v>
       </c>
       <c r="I191">
-        <v>2.7627826086956522</v>
+        <v>5554.9497996917498</v>
       </c>
       <c r="J191">
-        <v>5554.9497996917498</v>
+        <v>5536.4319921509996</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
@@ -16501,13 +16321,13 @@
         <v>52.68</v>
       </c>
       <c r="H192">
-        <v>51955.420249999988</v>
+        <v>3.4253403141361263</v>
       </c>
       <c r="I192">
-        <v>3.4253403141361263</v>
+        <v>5554.9497996917498</v>
       </c>
       <c r="J192">
-        <v>5554.9497996917498</v>
+        <v>5536.4319921509996</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
@@ -16534,13 +16354,13 @@
         <v>44.42</v>
       </c>
       <c r="H193">
-        <v>52099.127480000003</v>
+        <v>3.4288286140089421</v>
       </c>
       <c r="I193">
-        <v>3.4288286140089421</v>
+        <v>5579.6155452511666</v>
       </c>
       <c r="J193">
-        <v>5579.6155452511666</v>
+        <v>5536.4319921509996</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
@@ -16567,13 +16387,13 @@
         <v>40.409999999999997</v>
       </c>
       <c r="H194">
-        <v>51993.678809999998</v>
+        <v>2.7037386785449149</v>
       </c>
       <c r="I194">
-        <v>2.7037386785449149</v>
+        <v>5579.6155452511666</v>
       </c>
       <c r="J194">
-        <v>5579.6155452511666</v>
+        <v>5528.2375914284166</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
@@ -16600,13 +16420,13 @@
         <v>33.200000000000003</v>
       </c>
       <c r="H195">
-        <v>51604.690280000003</v>
+        <v>2.2002136498516323</v>
       </c>
       <c r="I195">
-        <v>2.2002136498516323</v>
+        <v>5579.6155452511666</v>
       </c>
       <c r="J195">
-        <v>5579.6155452511666</v>
+        <v>5528.2375914284166</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
@@ -16633,13 +16453,13 @@
         <v>32.130000000000003</v>
       </c>
       <c r="H196">
-        <v>51859.829930000007</v>
+        <v>2.1678575667655786</v>
       </c>
       <c r="I196">
-        <v>2.1678575667655786</v>
+        <v>5579.6155452511666</v>
       </c>
       <c r="J196">
-        <v>5579.6155452511666</v>
+        <v>5528.2375914284166</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
@@ -16666,13 +16486,13 @@
         <v>33.61</v>
       </c>
       <c r="H197">
-        <v>50552.204000000005</v>
+        <v>2.1469015544041454</v>
       </c>
       <c r="I197">
-        <v>2.1469015544041454</v>
+        <v>5579.6155452511666</v>
       </c>
       <c r="J197">
-        <v>5579.6155452511666</v>
+        <v>5528.2375914284166</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
@@ -16699,13 +16519,13 @@
         <v>34.159999999999997</v>
       </c>
       <c r="H198">
-        <v>50350.78703</v>
+        <v>2.1068200589970503</v>
       </c>
       <c r="I198">
-        <v>2.1068200589970503</v>
+        <v>5579.6155452511666</v>
       </c>
       <c r="J198">
-        <v>5579.6155452511666</v>
+        <v>5528.2375914284166</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
@@ -16732,13 +16552,13 @@
         <v>32.380000000000003</v>
       </c>
       <c r="H199">
-        <v>50626.544391000003</v>
+        <v>1.924235294117647</v>
       </c>
       <c r="I199">
-        <v>1.924235294117647</v>
+        <v>5579.6155452511666</v>
       </c>
       <c r="J199">
-        <v>5579.6155452511666</v>
+        <v>5528.2375914284166</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
@@ -16765,13 +16585,13 @@
         <v>34.299999999999997</v>
       </c>
       <c r="H200">
-        <v>51502.732391000005</v>
+        <v>1.9053979441997064</v>
       </c>
       <c r="I200">
-        <v>1.9053979441997064</v>
+        <v>5579.6155452511666</v>
       </c>
       <c r="J200">
-        <v>5579.6155452511666</v>
+        <v>5528.2375914284166</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
@@ -16798,13 +16618,13 @@
         <v>34.619999999999997</v>
       </c>
       <c r="H201">
-        <v>50814.236687000004</v>
+        <v>2.0913967789165446</v>
       </c>
       <c r="I201">
-        <v>2.0913967789165446</v>
+        <v>5579.6155452511666</v>
       </c>
       <c r="J201">
-        <v>5579.6155452511666</v>
+        <v>5528.2375914284166</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
@@ -16831,13 +16651,13 @@
         <v>34.79</v>
       </c>
       <c r="H202">
-        <v>52080.815395999991</v>
+        <v>2.5946744525547447</v>
       </c>
       <c r="I202">
-        <v>2.5946744525547447</v>
+        <v>5579.6155452511666</v>
       </c>
       <c r="J202">
-        <v>5579.6155452511666</v>
+        <v>5528.2375914284166</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
@@ -16864,13 +16684,13 @@
         <v>36.92</v>
       </c>
       <c r="H203">
-        <v>51856.865595000003</v>
+        <v>2.813422740524782</v>
       </c>
       <c r="I203">
-        <v>2.813422740524782</v>
+        <v>5579.6155452511666</v>
       </c>
       <c r="J203">
-        <v>5579.6155452511666</v>
+        <v>5528.2375914284166</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
@@ -16897,13 +16717,13 @@
         <v>35.549999999999997</v>
       </c>
       <c r="H204">
-        <v>52098.115742999995</v>
+        <v>2.8644760522496373</v>
       </c>
       <c r="I204">
-        <v>2.8644760522496373</v>
+        <v>5579.6155452511666</v>
       </c>
       <c r="J204">
-        <v>5579.6155452511666</v>
+        <v>5528.2375914284166</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
@@ -16930,13 +16750,13 @@
         <v>30.8</v>
       </c>
       <c r="H205">
-        <v>52534.455736999989</v>
+        <v>3.0297655571635316</v>
       </c>
       <c r="I205">
-        <v>3.0297655571635316</v>
+        <v>5602.9976512795838</v>
       </c>
       <c r="J205">
-        <v>5602.9976512795838</v>
+        <v>5528.2375914284166</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
@@ -16963,13 +16783,13 @@
         <v>29.68</v>
       </c>
       <c r="H206">
-        <v>51697.444424399997</v>
+        <v>2.0183832248734634</v>
       </c>
       <c r="I206">
-        <v>2.0183832248734634</v>
+        <v>5602.9976512795838</v>
       </c>
       <c r="J206">
-        <v>5602.9976512795838</v>
+        <v>5545.9975145588332</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
@@ -16996,13 +16816,13 @@
         <v>29.89</v>
       </c>
       <c r="H207">
-        <v>50905.760688999995</v>
+        <v>1.9038730158730162</v>
       </c>
       <c r="I207">
-        <v>1.9038730158730162</v>
+        <v>5602.9976512795838</v>
       </c>
       <c r="J207">
-        <v>5602.9976512795838</v>
+        <v>5545.9975145588332</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
@@ -17029,13 +16849,13 @@
         <v>29.66</v>
       </c>
       <c r="H208">
-        <v>50168.604593699994</v>
+        <v>2.0067749820273186</v>
       </c>
       <c r="I208">
-        <v>2.0067749820273186</v>
+        <v>5602.9976512795838</v>
       </c>
       <c r="J208">
-        <v>5602.9976512795838</v>
+        <v>5545.9975145588332</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
@@ -17062,13 +16882,13 @@
         <v>31.67</v>
       </c>
       <c r="H209">
-        <v>50515.561883199989</v>
+        <v>2.2996958393113345</v>
       </c>
       <c r="I209">
-        <v>2.2996958393113345</v>
+        <v>5602.9976512795838</v>
       </c>
       <c r="J209">
-        <v>5602.9976512795838</v>
+        <v>5545.9975145588332</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
@@ -17095,13 +16915,13 @@
         <v>32.69</v>
       </c>
       <c r="H210">
-        <v>49530.963652999999</v>
+        <v>2.4820844667143884</v>
       </c>
       <c r="I210">
-        <v>2.4820844667143884</v>
+        <v>5602.9976512795838</v>
       </c>
       <c r="J210">
-        <v>5602.9976512795838</v>
+        <v>5545.9975145588332</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
@@ -17128,13 +16948,13 @@
         <v>34.83</v>
       </c>
       <c r="H211">
-        <v>49744.509408999998</v>
+        <v>2.4282997858672379</v>
       </c>
       <c r="I211">
-        <v>2.4282997858672379</v>
+        <v>5602.9976512795838</v>
       </c>
       <c r="J211">
-        <v>5602.9976512795838</v>
+        <v>5545.9975145588332</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
@@ -17161,13 +16981,13 @@
         <v>33.770000000000003</v>
       </c>
       <c r="H212">
-        <v>50140.157147999998</v>
+        <v>2.7162989323843418</v>
       </c>
       <c r="I212">
-        <v>2.7162989323843418</v>
+        <v>5602.9976512795838</v>
       </c>
       <c r="J212">
-        <v>5602.9976512795838</v>
+        <v>5545.9975145588332</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
@@ -17194,13 +17014,13 @@
         <v>33.07</v>
       </c>
       <c r="H213">
-        <v>50128.269297999999</v>
+        <v>3.0512613636363635</v>
       </c>
       <c r="I213">
-        <v>3.0512613636363635</v>
+        <v>5602.9976512795838</v>
       </c>
       <c r="J213">
-        <v>5602.9976512795838</v>
+        <v>5545.9975145588332</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
@@ -17227,13 +17047,13 @@
         <v>33.85</v>
       </c>
       <c r="H214">
-        <v>50350.339737999995</v>
+        <v>3.6011793054571233</v>
       </c>
       <c r="I214">
-        <v>3.6011793054571233</v>
+        <v>5602.9976512795838</v>
       </c>
       <c r="J214">
-        <v>5602.9976512795838</v>
+        <v>5545.9975145588332</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
@@ -17260,13 +17080,13 @@
         <v>33.380000000000003</v>
       </c>
       <c r="H215">
-        <v>51124.430885999987</v>
+        <v>3.724443189837686</v>
       </c>
       <c r="I215">
-        <v>3.724443189837686</v>
+        <v>5602.9976512795838</v>
       </c>
       <c r="J215">
-        <v>5602.9976512795838</v>
+        <v>5545.9975145588332</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
@@ -17293,13 +17113,13 @@
         <v>31.22</v>
       </c>
       <c r="H216">
-        <v>51025.904806999992</v>
+        <v>3.4377142857142866</v>
       </c>
       <c r="I216">
-        <v>3.4377142857142866</v>
+        <v>5602.9976512795838</v>
       </c>
       <c r="J216">
-        <v>5602.9976512795838</v>
+        <v>5545.9975145588332</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
@@ -17326,13 +17146,13 @@
         <v>29.74</v>
       </c>
       <c r="H217">
-        <v>51155.911343000007</v>
+        <v>3.310279690794097</v>
       </c>
       <c r="I217">
-        <v>3.310279690794097</v>
+        <v>5583.6918093036666</v>
       </c>
       <c r="J217">
-        <v>5583.6918093036666</v>
+        <v>5545.9975145588332</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
@@ -17359,13 +17179,13 @@
         <v>29.13</v>
       </c>
       <c r="H218">
-        <v>50827.679832000002</v>
+        <v>2.8710812324929971</v>
       </c>
       <c r="I218">
-        <v>2.8710812324929971</v>
+        <v>5583.6918093036666</v>
       </c>
       <c r="J218">
-        <v>5583.6918093036666</v>
+        <v>5591.9719411987498</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
@@ -17392,13 +17212,13 @@
         <v>30.56</v>
       </c>
       <c r="H219">
-        <v>51202.569594000001</v>
+        <v>2.575508036338225</v>
       </c>
       <c r="I219">
-        <v>2.575508036338225</v>
+        <v>5583.6918093036666</v>
       </c>
       <c r="J219">
-        <v>5583.6918093036666</v>
+        <v>5591.9719411987498</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
@@ -17425,13 +17245,13 @@
         <v>30.96</v>
       </c>
       <c r="H220">
-        <v>50593.561454000002</v>
+        <v>3.3176161898115843</v>
       </c>
       <c r="I220">
-        <v>3.3176161898115843</v>
+        <v>5583.6918093036666</v>
       </c>
       <c r="J220">
-        <v>5583.6918093036666</v>
+        <v>5591.9719411987498</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
@@ -17458,13 +17278,13 @@
         <v>30.74</v>
       </c>
       <c r="H221">
-        <v>49993.400259999995</v>
+        <v>3.5638942976356049</v>
       </c>
       <c r="I221">
-        <v>3.5638942976356049</v>
+        <v>5583.6918093036666</v>
       </c>
       <c r="J221">
-        <v>5583.6918093036666</v>
+        <v>5591.9719411987498</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
@@ -17491,13 +17311,13 @@
         <v>30.16</v>
       </c>
       <c r="H222">
-        <v>50069.594866999993</v>
+        <v>3.2817864077669907</v>
       </c>
       <c r="I222">
-        <v>3.2817864077669907</v>
+        <v>5583.6918093036666</v>
       </c>
       <c r="J222">
-        <v>5583.6918093036666</v>
+        <v>5591.9719411987498</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
@@ -17524,13 +17344,13 @@
         <v>28.82</v>
       </c>
       <c r="H223">
-        <v>49816.117483000009</v>
+        <v>2.9772529452529453</v>
       </c>
       <c r="I223">
-        <v>2.9772529452529453</v>
+        <v>5583.6918093036666</v>
       </c>
       <c r="J223">
-        <v>5583.6918093036666</v>
+        <v>5591.9719411987498</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
@@ -17557,13 +17377,13 @@
         <v>26.96</v>
       </c>
       <c r="H224">
-        <v>50372.948391000005</v>
+        <v>3.1089605536332181</v>
       </c>
       <c r="I224">
-        <v>3.1089605536332181</v>
+        <v>5583.6918093036666</v>
       </c>
       <c r="J224">
-        <v>5583.6918093036666</v>
+        <v>5591.9719411987498</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -17590,13 +17410,13 @@
         <v>27.12</v>
       </c>
       <c r="H225">
-        <v>50214.901483000009</v>
+        <v>3.4037348066298341</v>
       </c>
       <c r="I225">
-        <v>3.4037348066298341</v>
+        <v>5583.6918093036666</v>
       </c>
       <c r="J225">
-        <v>5583.6918093036666</v>
+        <v>5591.9719411987498</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -17623,13 +17443,13 @@
         <v>26.34</v>
       </c>
       <c r="H226">
-        <v>50150.851938</v>
+        <v>3.4140800000000002</v>
       </c>
       <c r="I226">
-        <v>3.4140800000000002</v>
+        <v>5583.6918093036666</v>
       </c>
       <c r="J226">
-        <v>5583.6918093036666</v>
+        <v>5591.9719411987498</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -17656,13 +17476,13 @@
         <v>27.18</v>
       </c>
       <c r="H227">
-        <v>50660.503520000006</v>
+        <v>3.0255604395604401</v>
       </c>
       <c r="I227">
-        <v>3.0255604395604401</v>
+        <v>5583.6918093036666</v>
       </c>
       <c r="J227">
-        <v>5583.6918093036666</v>
+        <v>5591.9719411987498</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -17689,13 +17509,13 @@
         <v>24.94</v>
       </c>
       <c r="H228">
-        <v>50623.249083999988</v>
+        <v>3.3757589041095888</v>
       </c>
       <c r="I228">
-        <v>3.3757589041095888</v>
+        <v>5583.6918093036666</v>
       </c>
       <c r="J228">
-        <v>5583.6918093036666</v>
+        <v>5591.9719411987498</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -17722,13 +17542,13 @@
         <v>21.63</v>
       </c>
       <c r="H229">
-        <v>50979.470187999992</v>
+        <v>3.4880874914559121</v>
       </c>
       <c r="I229">
-        <v>3.4880874914559121</v>
+        <v>5701.7821710616663</v>
       </c>
       <c r="J229">
-        <v>5701.7821710616663</v>
+        <v>5591.9719411987498</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -17755,13 +17575,13 @@
         <v>22.36</v>
       </c>
       <c r="H230">
-        <v>204137.89999999997</v>
+        <v>3.4880874914559121</v>
       </c>
       <c r="I230">
-        <v>3.4880874914559121</v>
+        <v>5701.7821710616663</v>
       </c>
       <c r="J230">
-        <v>5701.7821710616663</v>
+        <v>5719.92399543375</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -17788,13 +17608,13 @@
         <v>21.97</v>
       </c>
       <c r="H231">
-        <v>203391.59999999998</v>
+        <v>4.0286080436264484</v>
       </c>
       <c r="I231">
-        <v>4.0286080436264484</v>
+        <v>5701.7821710616663</v>
       </c>
       <c r="J231">
-        <v>5701.7821710616663</v>
+        <v>5719.92399543375</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -17821,13 +17641,13 @@
         <v>21.73</v>
       </c>
       <c r="H232">
-        <v>203149.3</v>
+        <v>3.2763888511216863</v>
       </c>
       <c r="I232">
-        <v>3.2763888511216863</v>
+        <v>5701.7821710616663</v>
       </c>
       <c r="J232">
-        <v>5701.7821710616663</v>
+        <v>5719.92399543375</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -17854,13 +17674,13 @@
         <v>24.27</v>
       </c>
       <c r="H233">
-        <v>202016.19999999995</v>
+        <v>3.0223043478260871</v>
       </c>
       <c r="I233">
-        <v>3.0223043478260871</v>
+        <v>5701.7821710616663</v>
       </c>
       <c r="J233">
-        <v>5701.7821710616663</v>
+        <v>5719.92399543375</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
@@ -17887,13 +17707,13 @@
         <v>26.44</v>
       </c>
       <c r="H234">
-        <v>203174.49999999997</v>
+        <v>2.8387362711864408</v>
       </c>
       <c r="I234">
-        <v>2.8387362711864408</v>
+        <v>5701.7821710616663</v>
       </c>
       <c r="J234">
-        <v>5701.7821710616663</v>
+        <v>5719.92399543375</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -17920,13 +17740,13 @@
         <v>28.12</v>
       </c>
       <c r="H235">
-        <v>204318.19999999995</v>
+        <v>2.8015686274509806</v>
       </c>
       <c r="I235">
-        <v>2.8015686274509806</v>
+        <v>5701.7821710616663</v>
       </c>
       <c r="J235">
-        <v>5701.7821710616663</v>
+        <v>5719.92399543375</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
@@ -17953,13 +17773,13 @@
         <v>28.88</v>
       </c>
       <c r="H236">
-        <v>203346.19999999995</v>
+        <v>2.8803018867924526</v>
       </c>
       <c r="I236">
-        <v>2.8803018867924526</v>
+        <v>5701.7821710616663</v>
       </c>
       <c r="J236">
-        <v>5701.7821710616663</v>
+        <v>5719.92399543375</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -17986,13 +17806,13 @@
         <v>26.9</v>
       </c>
       <c r="H237">
-        <v>202990.19999999995</v>
+        <v>2.4296161073825506</v>
       </c>
       <c r="I237">
-        <v>2.4296161073825506</v>
+        <v>5701.7821710616663</v>
       </c>
       <c r="J237">
-        <v>5701.7821710616663</v>
+        <v>5719.92399543375</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -18019,13 +17839,13 @@
         <v>25.5</v>
       </c>
       <c r="H238">
-        <v>204961.19999999995</v>
+        <v>2.1764179504353649</v>
       </c>
       <c r="I238">
-        <v>2.1764179504353649</v>
+        <v>5701.7821710616663</v>
       </c>
       <c r="J238">
-        <v>5701.7821710616663</v>
+        <v>5719.92399543375</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -18052,13 +17872,13 @@
         <v>25.85</v>
       </c>
       <c r="H239">
-        <v>206714.19999999995</v>
+        <v>2.2041552878179385</v>
       </c>
       <c r="I239">
-        <v>2.2041552878179385</v>
+        <v>5701.7821710616663</v>
       </c>
       <c r="J239">
-        <v>5701.7821710616663</v>
+        <v>5719.92399543375</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -18085,13 +17905,13 @@
         <v>26.35</v>
       </c>
       <c r="H240">
-        <v>207857.19999999995</v>
+        <v>2.3001762349799733</v>
       </c>
       <c r="I240">
-        <v>2.3001762349799733</v>
+        <v>5701.7821710616663</v>
       </c>
       <c r="J240">
-        <v>5701.7821710616663</v>
+        <v>5719.92399543375</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
@@ -18118,13 +17938,13 @@
         <v>24.93</v>
       </c>
       <c r="H241">
-        <v>208908.19999999995</v>
+        <v>2.4989846768820789</v>
       </c>
       <c r="I241">
-        <v>2.4989846768820789</v>
+        <v>5820.8462458357499</v>
       </c>
       <c r="J241">
-        <v>5820.8462458357499</v>
+        <v>5719.92399543375</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
@@ -18151,13 +17971,13 @@
         <v>26.07</v>
       </c>
       <c r="H242">
-        <v>208073.40000000011</v>
+        <v>2.1880451827242529</v>
       </c>
       <c r="I242">
-        <v>2.1880451827242529</v>
+        <v>5820.8462458357499</v>
       </c>
       <c r="J242">
-        <v>5820.8462458357499</v>
+        <v>5858.8406621004169</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
@@ -18184,13 +18004,13 @@
         <v>26.78</v>
       </c>
       <c r="H243">
-        <v>209359.40000000011</v>
+        <v>2.2834088800530155</v>
       </c>
       <c r="I243">
-        <v>2.2834088800530155</v>
+        <v>5820.8462458357499</v>
       </c>
       <c r="J243">
-        <v>5820.8462458357499</v>
+        <v>5858.8406621004169</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
@@ -18217,13 +18037,13 @@
         <v>26.76</v>
       </c>
       <c r="H244">
-        <v>206858.40000000011</v>
+        <v>2.2211851851851856</v>
       </c>
       <c r="I244">
-        <v>2.2211851851851856</v>
+        <v>5820.8462458357499</v>
       </c>
       <c r="J244">
-        <v>5820.8462458357499</v>
+        <v>5858.8406621004169</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
@@ -18250,13 +18070,13 @@
         <v>28.55</v>
       </c>
       <c r="H245">
-        <v>209565.40000000014</v>
+        <v>2.327335968379447</v>
       </c>
       <c r="I245">
-        <v>2.327335968379447</v>
+        <v>5820.8462458357499</v>
       </c>
       <c r="J245">
-        <v>5820.8462458357499</v>
+        <v>5858.8406621004169</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
@@ -18283,13 +18103,13 @@
         <v>28.3</v>
       </c>
       <c r="H246">
-        <v>209516.10000000012</v>
+        <v>2.3514214332675873</v>
       </c>
       <c r="I246">
-        <v>2.3514214332675873</v>
+        <v>5820.8462458357499</v>
       </c>
       <c r="J246">
-        <v>5820.8462458357499</v>
+        <v>5858.8406621004169</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
@@ -18316,13 +18136,13 @@
         <v>26.36</v>
       </c>
       <c r="H247">
-        <v>206363.10000000012</v>
+        <v>2.3181732283464571</v>
       </c>
       <c r="I247">
-        <v>2.3181732283464571</v>
+        <v>5820.8462458357499</v>
       </c>
       <c r="J247">
-        <v>5820.8462458357499</v>
+        <v>5858.8406621004169</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
@@ -18349,13 +18169,13 @@
         <v>24.72</v>
       </c>
       <c r="H248">
-        <v>209505.30000000013</v>
+        <v>2.0578977719528182</v>
       </c>
       <c r="I248">
-        <v>2.0578977719528182</v>
+        <v>5820.8462458357499</v>
       </c>
       <c r="J248">
-        <v>5820.8462458357499</v>
+        <v>5858.8406621004169</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
@@ -18382,13 +18202,13 @@
         <v>25.72</v>
       </c>
       <c r="H249">
-        <v>209913.30000000013</v>
+        <v>2.2250150425114454</v>
       </c>
       <c r="I249">
-        <v>2.2250150425114454</v>
+        <v>5820.8462458357499</v>
       </c>
       <c r="J249">
-        <v>5820.8462458357499</v>
+        <v>5858.8406621004169</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
@@ -18415,13 +18235,13 @@
         <v>25.97</v>
       </c>
       <c r="H250">
-        <v>211323.30000000013</v>
+        <v>2.3360627041149575</v>
       </c>
       <c r="I250">
-        <v>2.3360627041149575</v>
+        <v>5820.8462458357499</v>
       </c>
       <c r="J250">
-        <v>5820.8462458357499</v>
+        <v>5858.8406621004169</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
@@ -18448,13 +18268,13 @@
         <v>24.78</v>
       </c>
       <c r="H251">
-        <v>210132.30000000013</v>
+        <v>2.5146684039087952</v>
       </c>
       <c r="I251">
-        <v>2.5146684039087952</v>
+        <v>5820.8462458357499</v>
       </c>
       <c r="J251">
-        <v>5820.8462458357499</v>
+        <v>5858.8406621004169</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
@@ -18481,13 +18301,13 @@
         <v>25.53</v>
       </c>
       <c r="H252">
-        <v>210997.30000000013</v>
+        <v>2.894490566037736</v>
       </c>
       <c r="I252">
-        <v>2.894490566037736</v>
+        <v>5820.8462458357499</v>
       </c>
       <c r="J252">
-        <v>5820.8462458357499</v>
+        <v>5858.8406621004169</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
@@ -18514,13 +18334,13 @@
         <v>26.98</v>
       </c>
       <c r="H253">
-        <v>212051.30000000013</v>
+        <v>3.8401351526965564</v>
       </c>
       <c r="I253">
-        <v>3.8401351526965564</v>
+        <v>5992.2054385132506</v>
       </c>
       <c r="J253">
-        <v>5992.2054385132506</v>
+        <v>5858.8406621004169</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
@@ -18547,13 +18367,13 @@
         <v>26.62</v>
       </c>
       <c r="H254">
-        <v>212359.90000000017</v>
+        <v>4.1304098254686492</v>
       </c>
       <c r="I254">
-        <v>4.1304098254686492</v>
+        <v>5992.2054385132506</v>
       </c>
       <c r="J254">
-        <v>5992.2054385132506</v>
+        <v>5998.8045309654162</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
@@ -18580,13 +18400,13 @@
         <v>26.83</v>
       </c>
       <c r="H255">
-        <v>213249.20000000019</v>
+        <v>6.1906580645161302</v>
       </c>
       <c r="I255">
-        <v>6.1906580645161302</v>
+        <v>5992.2054385132506</v>
       </c>
       <c r="J255">
-        <v>5992.2054385132506</v>
+        <v>5998.8045309654162</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
@@ -18613,13 +18433,13 @@
         <v>29.96</v>
       </c>
       <c r="H256">
-        <v>213469.90000000017</v>
+        <v>4.1372090032154345</v>
       </c>
       <c r="I256">
-        <v>4.1372090032154345</v>
+        <v>5992.2054385132506</v>
       </c>
       <c r="J256">
-        <v>5992.2054385132506</v>
+        <v>5998.8045309654162</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
@@ -18646,13 +18466,13 @@
         <v>32.93</v>
       </c>
       <c r="H257">
-        <v>213076.90000000017</v>
+        <v>3.1154285714285717</v>
       </c>
       <c r="I257">
-        <v>3.1154285714285717</v>
+        <v>5992.2054385132506</v>
       </c>
       <c r="J257">
-        <v>5992.2054385132506</v>
+        <v>5998.8045309654162</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
@@ -18679,13 +18499,13 @@
         <v>29.63</v>
       </c>
       <c r="H258">
-        <v>212859.90000000017</v>
+        <v>3.1233964194373405</v>
       </c>
       <c r="I258">
-        <v>3.1233964194373405</v>
+        <v>5992.2054385132506</v>
       </c>
       <c r="J258">
-        <v>5992.2054385132506</v>
+        <v>5998.8045309654162</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.3">
@@ -18712,13 +18532,13 @@
         <v>28.46</v>
       </c>
       <c r="H259">
-        <v>213680.40000000017</v>
+        <v>3.4653426930440343</v>
       </c>
       <c r="I259">
-        <v>3.4653426930440343</v>
+        <v>5992.2054385132506</v>
       </c>
       <c r="J259">
-        <v>5992.2054385132506</v>
+        <v>5998.8045309654162</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.3">
@@ -18745,13 +18565,13 @@
         <v>29.61</v>
       </c>
       <c r="H260">
-        <v>214222.40000000017</v>
+        <v>3.4448305732484079</v>
       </c>
       <c r="I260">
-        <v>3.4448305732484079</v>
+        <v>5992.2054385132506</v>
       </c>
       <c r="J260">
-        <v>5992.2054385132506</v>
+        <v>5998.8045309654162</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
@@ -18778,13 +18598,13 @@
         <v>30.46</v>
       </c>
       <c r="H261">
-        <v>212922.40000000017</v>
+        <v>2.8161730279898216</v>
       </c>
       <c r="I261">
-        <v>2.8161730279898216</v>
+        <v>5992.2054385132506</v>
       </c>
       <c r="J261">
-        <v>5992.2054385132506</v>
+        <v>5998.8045309654162</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.3">
@@ -18811,13 +18631,13 @@
         <v>33.18</v>
       </c>
       <c r="H262">
-        <v>214359.40000000017</v>
+        <v>2.5444971464806603</v>
       </c>
       <c r="I262">
-        <v>2.5444971464806603</v>
+        <v>5992.2054385132506</v>
       </c>
       <c r="J262">
-        <v>5992.2054385132506</v>
+        <v>5998.8045309654162</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.3">
@@ -18844,13 +18664,13 @@
         <v>34.32</v>
       </c>
       <c r="H263">
-        <v>215841.40000000017</v>
+        <v>3.2670644753476616</v>
       </c>
       <c r="I263">
-        <v>3.2670644753476616</v>
+        <v>5992.2054385132506</v>
       </c>
       <c r="J263">
-        <v>5992.2054385132506</v>
+        <v>5998.8045309654162</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.3">
@@ -18877,13 +18697,13 @@
         <v>32.58</v>
       </c>
       <c r="H264">
-        <v>217401.40000000017</v>
+        <v>4.1637202268431004</v>
       </c>
       <c r="I264">
-        <v>4.1637202268431004</v>
+        <v>5992.2054385132506</v>
       </c>
       <c r="J264">
-        <v>5992.2054385132506</v>
+        <v>5998.8045309654162</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.3">
@@ -18910,13 +18730,13 @@
         <v>34.799999999999997</v>
       </c>
       <c r="H265">
-        <v>219176.40000000017</v>
+        <v>5.2361131363922064</v>
       </c>
       <c r="I265">
-        <v>5.2361131363922064</v>
+        <v>6093.9747731696662</v>
       </c>
       <c r="J265">
-        <v>6093.9747731696662</v>
+        <v>5998.8045309654162</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.3">
@@ -18943,13 +18763,13 @@
         <v>34.44</v>
       </c>
       <c r="H266">
-        <v>218787.09999999998</v>
+        <v>4.5285119196988708</v>
       </c>
       <c r="I266">
-        <v>4.5285119196988708</v>
+        <v>6093.9747731696662</v>
       </c>
       <c r="J266">
-        <v>6093.9747731696662</v>
+        <v>6185.0263470319996</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.3">
@@ -18976,13 +18796,13 @@
         <v>30.33</v>
       </c>
       <c r="H267">
-        <v>220302.8</v>
+        <v>3.0315441452723868</v>
       </c>
       <c r="I267">
-        <v>3.0315441452723868</v>
+        <v>6093.9747731696662</v>
       </c>
       <c r="J267">
-        <v>6093.9747731696662</v>
+        <v>6185.0263470319996</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.3">
@@ -19009,13 +18829,13 @@
         <v>28.65</v>
       </c>
       <c r="H268">
-        <v>220284.09999999998</v>
+        <v>2.5792941176470587</v>
       </c>
       <c r="I268">
-        <v>2.5792941176470587</v>
+        <v>6093.9747731696662</v>
       </c>
       <c r="J268">
-        <v>6093.9747731696662</v>
+        <v>6185.0263470319996</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.3">
@@ -19042,13 +18862,13 @@
         <v>26.9</v>
       </c>
       <c r="H269">
-        <v>221629.29999999996</v>
+        <v>2.768620387742339</v>
       </c>
       <c r="I269">
-        <v>2.768620387742339</v>
+        <v>6093.9747731696662</v>
       </c>
       <c r="J269">
-        <v>6093.9747731696662</v>
+        <v>6185.0263470319996</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
@@ -19075,13 +18895,13 @@
         <v>28.41</v>
       </c>
       <c r="H270">
-        <v>219633.9</v>
+        <v>3.055029393370857</v>
       </c>
       <c r="I270">
-        <v>3.055029393370857</v>
+        <v>6093.9747731696662</v>
       </c>
       <c r="J270">
-        <v>6093.9747731696662</v>
+        <v>6185.0263470319996</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.3">
@@ -19108,13 +18928,13 @@
         <v>26.1</v>
       </c>
       <c r="H271">
-        <v>217242.09999999998</v>
+        <v>2.9948564294631717</v>
       </c>
       <c r="I271">
-        <v>2.9948564294631717</v>
+        <v>6093.9747731696662</v>
       </c>
       <c r="J271">
-        <v>6093.9747731696662</v>
+        <v>6185.0263470319996</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.3">
@@ -19141,13 +18961,13 @@
         <v>26.69</v>
       </c>
       <c r="H272">
-        <v>218757.99999999997</v>
+        <v>2.9775261845386534</v>
       </c>
       <c r="I272">
-        <v>2.9775261845386534</v>
+        <v>6093.9747731696662</v>
       </c>
       <c r="J272">
-        <v>6093.9747731696662</v>
+        <v>6185.0263470319996</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
@@ -19174,13 +18994,13 @@
         <v>27.03</v>
       </c>
       <c r="H273">
-        <v>221470</v>
+        <v>3.3498606965174131</v>
       </c>
       <c r="I273">
-        <v>3.3498606965174131</v>
+        <v>6093.9747731696662</v>
       </c>
       <c r="J273">
-        <v>6093.9747731696662</v>
+        <v>6185.0263470319996</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
@@ -19207,13 +19027,13 @@
         <v>26.77</v>
       </c>
       <c r="H274">
-        <v>222810.2</v>
+        <v>3.8421042183622833</v>
       </c>
       <c r="I274">
-        <v>3.8421042183622833</v>
+        <v>6093.9747731696662</v>
       </c>
       <c r="J274">
-        <v>6093.9747731696662</v>
+        <v>6185.0263470319996</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
@@ -19240,13 +19060,13 @@
         <v>28.71</v>
       </c>
       <c r="H275">
-        <v>224340.49999999994</v>
+        <v>4.1050352941176476</v>
       </c>
       <c r="I275">
-        <v>4.1050352941176476</v>
+        <v>6093.9747731696662</v>
       </c>
       <c r="J275">
-        <v>6093.9747731696662</v>
+        <v>6185.0263470319996</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
@@ -19273,13 +19093,13 @@
         <v>27.2</v>
       </c>
       <c r="H276">
-        <v>223869.49999999994</v>
+        <v>4.0729845392702542</v>
       </c>
       <c r="I276">
-        <v>4.0729845392702542</v>
+        <v>6093.9747731696662</v>
       </c>
       <c r="J276">
-        <v>6093.9747731696662</v>
+        <v>6185.0263470319996</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -19306,13 +19126,13 @@
         <v>24.69</v>
       </c>
       <c r="H277">
-        <v>223523.19999999998</v>
+        <v>3.1404598269468482</v>
       </c>
       <c r="I277">
-        <v>3.1404598269468482</v>
+        <v>6162.5895042607508</v>
       </c>
       <c r="J277">
-        <v>6162.5895042607508</v>
+        <v>6185.0263470319996</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
@@ -19339,13 +19159,13 @@
         <v>22.49</v>
       </c>
       <c r="H278">
-        <v>227834.60000000027</v>
+        <v>2.8269629629629631</v>
       </c>
       <c r="I278">
-        <v>2.8269629629629631</v>
+        <v>6162.5895042607508</v>
       </c>
       <c r="J278">
-        <v>6162.5895042607508</v>
+        <v>6306.9079223744166</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
@@ -19372,13 +19192,13 @@
         <v>21.62</v>
       </c>
       <c r="H279">
-        <v>229067.60000000027</v>
+        <v>2.9885037037037043</v>
       </c>
       <c r="I279">
-        <v>2.9885037037037043</v>
+        <v>6162.5895042607508</v>
       </c>
       <c r="J279">
-        <v>6162.5895042607508</v>
+        <v>6306.9079223744166</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
@@ -19405,13 +19225,13 @@
         <v>20.22</v>
       </c>
       <c r="H280">
-        <v>228471.60000000027</v>
+        <v>3.0019654320987654</v>
       </c>
       <c r="I280">
-        <v>3.0019654320987654</v>
+        <v>6162.5895042607508</v>
       </c>
       <c r="J280">
-        <v>6162.5895042607508</v>
+        <v>6306.9079223744166</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
@@ -19438,13 +19258,13 @@
         <v>20.76</v>
       </c>
       <c r="H281">
-        <v>228120.30000000025</v>
+        <v>3.253721331689273</v>
       </c>
       <c r="I281">
-        <v>3.253721331689273</v>
+        <v>6162.5895042607508</v>
       </c>
       <c r="J281">
-        <v>6162.5895042607508</v>
+        <v>6306.9079223744166</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
@@ -19471,13 +19291,13 @@
         <v>19.93</v>
       </c>
       <c r="H282">
-        <v>226215.40000000023</v>
+        <v>2.870179581795818</v>
       </c>
       <c r="I282">
-        <v>2.870179581795818</v>
+        <v>6162.5895042607508</v>
       </c>
       <c r="J282">
-        <v>6162.5895042607508</v>
+        <v>6306.9079223744166</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
@@ -19504,13 +19324,13 @@
         <v>18.3</v>
       </c>
       <c r="H283">
-        <v>225317.30000000025</v>
+        <v>2.9068402948402947</v>
       </c>
       <c r="I283">
-        <v>2.9068402948402947</v>
+        <v>6162.5895042607508</v>
       </c>
       <c r="J283">
-        <v>6162.5895042607508</v>
+        <v>6306.9079223744166</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
@@ -19537,13 +19357,13 @@
         <v>18.809999999999999</v>
       </c>
       <c r="H284">
-        <v>223961.30000000022</v>
+        <v>2.8997156862745102</v>
       </c>
       <c r="I284">
-        <v>2.8997156862745102</v>
+        <v>6162.5895042607508</v>
       </c>
       <c r="J284">
-        <v>6162.5895042607508</v>
+        <v>6306.9079223744166</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
@@ -19570,13 +19390,13 @@
         <v>17.829999999999998</v>
       </c>
       <c r="H285">
-        <v>221755.0000000002</v>
+        <v>2.4690820073439412</v>
       </c>
       <c r="I285">
-        <v>2.4690820073439412</v>
+        <v>6162.5895042607508</v>
       </c>
       <c r="J285">
-        <v>6162.5895042607508</v>
+        <v>6306.9079223744166</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
@@ -19603,13 +19423,13 @@
         <v>19.940000000000001</v>
       </c>
       <c r="H286">
-        <v>221862.30000000022</v>
+        <v>2.680983486238532</v>
       </c>
       <c r="I286">
-        <v>2.680983486238532</v>
+        <v>6162.5895042607508</v>
       </c>
       <c r="J286">
-        <v>6162.5895042607508</v>
+        <v>6306.9079223744166</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
@@ -19636,13 +19456,13 @@
         <v>19.149999999999999</v>
       </c>
       <c r="H287">
-        <v>222381.30000000022</v>
+        <v>2.5147724222086638</v>
       </c>
       <c r="I287">
-        <v>2.5147724222086638</v>
+        <v>6162.5895042607508</v>
       </c>
       <c r="J287">
-        <v>6162.5895042607508</v>
+        <v>6306.9079223744166</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
@@ -19669,13 +19489,13 @@
         <v>17.079999999999998</v>
       </c>
       <c r="H288">
-        <v>225263.30000000025</v>
+        <v>2.7907861060329076</v>
       </c>
       <c r="I288">
-        <v>2.7907861060329076</v>
+        <v>6162.5895042607508</v>
       </c>
       <c r="J288">
-        <v>6162.5895042607508</v>
+        <v>6306.9079223744166</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
@@ -19702,13 +19522,13 @@
         <v>14.96</v>
       </c>
       <c r="H289">
-        <v>224358.60000000024</v>
+        <v>2.3081459854014601</v>
       </c>
       <c r="I289">
-        <v>2.3081459854014601</v>
+        <v>6300.3318861344169</v>
       </c>
       <c r="J289">
-        <v>6300.3318861344169</v>
+        <v>6306.9079223744166</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
@@ -19735,13 +19555,13 @@
         <v>16.510000000000002</v>
       </c>
       <c r="H290">
-        <v>225271.7999999999</v>
+        <v>2.4628342440801458</v>
       </c>
       <c r="I290">
-        <v>2.4628342440801458</v>
+        <v>6300.3318861344169</v>
       </c>
       <c r="J290">
-        <v>6300.3318861344169</v>
+        <v>6236.6724429223332</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
@@ -19768,13 +19588,13 @@
         <v>15.9</v>
       </c>
       <c r="H291">
-        <v>226593.89999999988</v>
+        <v>2.3436648451730422</v>
       </c>
       <c r="I291">
-        <v>2.3436648451730422</v>
+        <v>6300.3318861344169</v>
       </c>
       <c r="J291">
-        <v>6300.3318861344169</v>
+        <v>6236.6724429223332</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
@@ -19801,13 +19621,13 @@
         <v>19.399999999999999</v>
       </c>
       <c r="H292">
-        <v>225470.79999999993</v>
+        <v>2.3687087378640777</v>
       </c>
       <c r="I292">
-        <v>2.3687087378640777</v>
+        <v>6300.3318861344169</v>
       </c>
       <c r="J292">
-        <v>6300.3318861344169</v>
+        <v>6236.6724429223332</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
@@ -19834,13 +19654,13 @@
         <v>22.79</v>
       </c>
       <c r="H293">
-        <v>221116.79999999993</v>
+        <v>2.8262326702833032</v>
       </c>
       <c r="I293">
-        <v>2.8262326702833032</v>
+        <v>6300.3318861344169</v>
       </c>
       <c r="J293">
-        <v>6300.3318861344169</v>
+        <v>6236.6724429223332</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
@@ -19867,13 +19687,13 @@
         <v>23.32</v>
       </c>
       <c r="H294">
-        <v>220637.79999999993</v>
+        <v>2.9559036144578319</v>
       </c>
       <c r="I294">
-        <v>2.9559036144578319</v>
+        <v>6300.3318861344169</v>
       </c>
       <c r="J294">
-        <v>6300.3318861344169</v>
+        <v>6236.6724429223332</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
@@ -19900,13 +19720,13 @@
         <v>23.5</v>
       </c>
       <c r="H295">
-        <v>217414.39999999991</v>
+        <v>3.0215903614457833</v>
       </c>
       <c r="I295">
-        <v>3.0215903614457833</v>
+        <v>6300.3318861344169</v>
       </c>
       <c r="J295">
-        <v>6300.3318861344169</v>
+        <v>6236.6724429223332</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
@@ -19933,13 +19753,13 @@
         <v>26.26</v>
       </c>
       <c r="H296">
-        <v>222294.69999999992</v>
+        <v>3.0219844031193763</v>
       </c>
       <c r="I296">
-        <v>3.0219844031193763</v>
+        <v>6300.3318861344169</v>
       </c>
       <c r="J296">
-        <v>6300.3318861344169</v>
+        <v>6236.6724429223332</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
@@ -19966,13 +19786,13 @@
         <v>27.75</v>
       </c>
       <c r="H297">
-        <v>222037.69999999992</v>
+        <v>3.6411921005386003</v>
       </c>
       <c r="I297">
-        <v>3.6411921005386003</v>
+        <v>6300.3318861344169</v>
       </c>
       <c r="J297">
-        <v>6300.3318861344169</v>
+        <v>6236.6724429223332</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.3">
@@ -19999,13 +19819,13 @@
         <v>31.04</v>
       </c>
       <c r="H298">
-        <v>222350.89999999991</v>
+        <v>3.3010917759237186</v>
       </c>
       <c r="I298">
-        <v>3.3010917759237186</v>
+        <v>6300.3318861344169</v>
       </c>
       <c r="J298">
-        <v>6300.3318861344169</v>
+        <v>6236.6724429223332</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.3">
@@ -20032,13 +19852,13 @@
         <v>29.37</v>
       </c>
       <c r="H299">
-        <v>224104.89999999991</v>
+        <v>3.5287186198691258</v>
       </c>
       <c r="I299">
-        <v>3.5287186198691258</v>
+        <v>6300.3318861344169</v>
       </c>
       <c r="J299">
-        <v>6300.3318861344169</v>
+        <v>6236.6724429223332</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
@@ -20065,13 +19885,13 @@
         <v>32.340000000000003</v>
       </c>
       <c r="H300">
-        <v>224135.89999999991</v>
+        <v>3.056228028503563</v>
       </c>
       <c r="I300">
-        <v>3.056228028503563</v>
+        <v>6300.3318861344169</v>
       </c>
       <c r="J300">
-        <v>6300.3318861344169</v>
+        <v>6236.6724429223332</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.3">
@@ -20098,13 +19918,13 @@
         <v>33.69</v>
       </c>
       <c r="H301">
-        <v>222033.49999999991</v>
+        <v>3.0489857819905208</v>
       </c>
       <c r="I301">
-        <v>3.0489857819905208</v>
+        <v>6440.6864477303325</v>
       </c>
       <c r="J301">
-        <v>6440.6864477303325</v>
+        <v>6236.6724429223332</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
@@ -20131,13 +19951,13 @@
         <v>35.01</v>
       </c>
       <c r="H302">
-        <v>225223.56624006512</v>
+        <v>3.1172687536916719</v>
       </c>
       <c r="I302">
-        <v>3.1172687536916719</v>
+        <v>6440.6864477303325</v>
       </c>
       <c r="J302">
-        <v>6440.6864477303325</v>
+        <v>6477.4275847185008</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.3">
@@ -20164,13 +19984,13 @@
         <v>37.65</v>
       </c>
       <c r="H303">
-        <v>227008.17125818311</v>
+        <v>3.3994823529411762</v>
       </c>
       <c r="I303">
-        <v>3.3994823529411762</v>
+        <v>6440.6864477303325</v>
       </c>
       <c r="J303">
-        <v>6440.6864477303325</v>
+        <v>6477.4275847185008</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.3">
@@ -20197,13 +20017,13 @@
         <v>38.119999999999997</v>
       </c>
       <c r="H304">
-        <v>227074.64358421415</v>
+        <v>3.5581473684210532</v>
       </c>
       <c r="I304">
-        <v>3.5581473684210532</v>
+        <v>6440.6864477303325</v>
       </c>
       <c r="J304">
-        <v>6440.6864477303325</v>
+        <v>6477.4275847185008</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.3">
@@ -20230,13 +20050,13 @@
         <v>32.85</v>
       </c>
       <c r="H305">
-        <v>228984.6560073641</v>
+        <v>3.866485664131071</v>
       </c>
       <c r="I305">
-        <v>3.866485664131071</v>
+        <v>6440.6864477303325</v>
       </c>
       <c r="J305">
-        <v>6440.6864477303325</v>
+        <v>6477.4275847185008</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.3">
@@ -20263,13 +20083,13 @@
         <v>36.659999999999997</v>
       </c>
       <c r="H306">
-        <v>230598.37480925009</v>
+        <v>4.5603177570093463</v>
       </c>
       <c r="I306">
-        <v>4.5603177570093463</v>
+        <v>6440.6864477303325</v>
       </c>
       <c r="J306">
-        <v>6440.6864477303325</v>
+        <v>6477.4275847185008</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.3">
@@ -20296,13 +20116,13 @@
         <v>40.31</v>
       </c>
       <c r="H307">
-        <v>229817.92140695621</v>
+        <v>5.4203391405342636</v>
       </c>
       <c r="I307">
-        <v>5.4203391405342636</v>
+        <v>6440.6864477303325</v>
       </c>
       <c r="J307">
-        <v>6440.6864477303325</v>
+        <v>6477.4275847185008</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.3">
@@ -20329,13 +20149,13 @@
         <v>37.590000000000003</v>
       </c>
       <c r="H308">
-        <v>231551.21571153321</v>
+        <v>5.0005605095541403</v>
       </c>
       <c r="I308">
-        <v>5.0005605095541403</v>
+        <v>6440.6864477303325</v>
       </c>
       <c r="J308">
-        <v>6440.6864477303325</v>
+        <v>6477.4275847185008</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.3">
@@ -20362,13 +20182,13 @@
         <v>39.42</v>
       </c>
       <c r="H309">
-        <v>234224.86544953217</v>
+        <v>5.568806022003475</v>
       </c>
       <c r="I309">
-        <v>5.568806022003475</v>
+        <v>6440.6864477303325</v>
       </c>
       <c r="J309">
-        <v>6440.6864477303325</v>
+        <v>6477.4275847185008</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.3">
@@ -20395,13 +20215,13 @@
         <v>42.56</v>
       </c>
       <c r="H310">
-        <v>234748.28269838309</v>
+        <v>6.3564792626728117</v>
       </c>
       <c r="I310">
-        <v>6.3564792626728117</v>
+        <v>6440.6864477303325</v>
       </c>
       <c r="J310">
-        <v>6440.6864477303325</v>
+        <v>6477.4275847185008</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.3">
@@ -20428,13 +20248,13 @@
         <v>41.48</v>
       </c>
       <c r="H311">
-        <v>235905.5405193991</v>
+        <v>6.2953513513513508</v>
       </c>
       <c r="I311">
-        <v>6.2953513513513508</v>
+        <v>6440.6864477303325</v>
       </c>
       <c r="J311">
-        <v>6440.6864477303325</v>
+        <v>6477.4275847185008</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.3">
@@ -20461,13 +20281,13 @@
         <v>43.07</v>
       </c>
       <c r="H312">
-        <v>237902.98692443018</v>
+        <v>6.9480137772675095</v>
       </c>
       <c r="I312">
-        <v>6.9480137772675095</v>
+        <v>6440.6864477303325</v>
       </c>
       <c r="J312">
-        <v>6440.6864477303325</v>
+        <v>6477.4275847185008</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.3">
@@ -20494,13 +20314,13 @@
         <v>35.549999999999997</v>
       </c>
       <c r="H313">
-        <v>232997.80841205115</v>
+        <v>11.178785796105382</v>
       </c>
       <c r="I313">
-        <v>11.178785796105382</v>
+        <v>6508.4769006348333</v>
       </c>
       <c r="J313">
-        <v>6508.4769006348333</v>
+        <v>6477.4275847185008</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.3">
@@ -20527,13 +20347,13 @@
         <v>36.74</v>
       </c>
       <c r="H314">
-        <v>233137.68703005399</v>
+        <v>10.146432801822323</v>
       </c>
       <c r="I314">
-        <v>10.146432801822323</v>
+        <v>6508.4769006348333</v>
       </c>
       <c r="J314">
-        <v>6508.4769006348333</v>
+        <v>6472.7671688515838</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.3">
@@ -20560,13 +20380,13 @@
         <v>36.69</v>
       </c>
       <c r="H315">
-        <v>232767.27737706294</v>
+        <v>6.9760818181818189</v>
       </c>
       <c r="I315">
-        <v>6.9760818181818189</v>
+        <v>6508.4769006348333</v>
       </c>
       <c r="J315">
-        <v>6508.4769006348333</v>
+        <v>6472.7671688515838</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.3">
@@ -20593,13 +20413,13 @@
         <v>33.729999999999997</v>
       </c>
       <c r="H316">
-        <v>235035.66088041294</v>
+        <v>6.3900783645655883</v>
       </c>
       <c r="I316">
-        <v>6.3900783645655883</v>
+        <v>6508.4769006348333</v>
       </c>
       <c r="J316">
-        <v>6508.4769006348333</v>
+        <v>6472.7671688515838</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.3">
@@ -20626,13 +20446,13 @@
         <v>33.89</v>
       </c>
       <c r="H317">
-        <v>231940.68184314706</v>
+        <v>6.3915736961451239</v>
       </c>
       <c r="I317">
-        <v>6.3915736961451239</v>
+        <v>6508.4769006348333</v>
       </c>
       <c r="J317">
-        <v>6508.4769006348333</v>
+        <v>6472.7671688515838</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.3">
@@ -20659,13 +20479,13 @@
         <v>35.229999999999997</v>
       </c>
       <c r="H318">
-        <v>230059.445662388</v>
+        <v>5.178323745064862</v>
       </c>
       <c r="I318">
-        <v>5.178323745064862</v>
+        <v>6508.4769006348333</v>
       </c>
       <c r="J318">
-        <v>6508.4769006348333</v>
+        <v>6472.7671688515838</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.3">
@@ -20692,13 +20512,13 @@
         <v>33.869999999999997</v>
       </c>
       <c r="H319">
-        <v>225375.71650684896</v>
+        <v>4.5530489589195273</v>
       </c>
       <c r="I319">
-        <v>4.5530489589195273</v>
+        <v>6508.4769006348333</v>
       </c>
       <c r="J319">
-        <v>6508.4769006348333</v>
+        <v>6472.7671688515838</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.3">
@@ -20725,13 +20545,13 @@
         <v>32.520000000000003</v>
       </c>
       <c r="H320">
-        <v>231313.71149320898</v>
+        <v>3.8108680947012399</v>
       </c>
       <c r="I320">
-        <v>3.8108680947012399</v>
+        <v>6508.4769006348333</v>
       </c>
       <c r="J320">
-        <v>6508.4769006348333</v>
+        <v>6472.7671688515838</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.3">
@@ -20758,13 +20578,13 @@
         <v>33.770000000000003</v>
       </c>
       <c r="H321">
-        <v>231837.55327545304</v>
+        <v>3.6264712514092445</v>
       </c>
       <c r="I321">
-        <v>3.6264712514092445</v>
+        <v>6508.4769006348333</v>
       </c>
       <c r="J321">
-        <v>6508.4769006348333</v>
+        <v>6472.7671688515838</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.3">
@@ -20791,13 +20611,13 @@
         <v>31.69</v>
       </c>
       <c r="H322">
-        <v>230517.05766463699</v>
+        <v>2.6326333520494107</v>
       </c>
       <c r="I322">
-        <v>2.6326333520494107</v>
+        <v>6508.4769006348333</v>
       </c>
       <c r="J322">
-        <v>6508.4769006348333</v>
+        <v>6472.7671688515838</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.3">
@@ -20824,13 +20644,13 @@
         <v>27.27</v>
       </c>
       <c r="H323">
-        <v>230429.01114307405</v>
+        <v>3.0084234234234239</v>
       </c>
       <c r="I323">
-        <v>3.0084234234234239</v>
+        <v>6508.4769006348333</v>
       </c>
       <c r="J323">
-        <v>6508.4769006348333</v>
+        <v>6472.7671688515838</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.3">
@@ -20857,13 +20677,13 @@
         <v>24.17</v>
       </c>
       <c r="H324">
-        <v>231950.21603823695</v>
+        <v>2.8995425352112676</v>
       </c>
       <c r="I324">
-        <v>2.8995425352112676</v>
+        <v>6508.4769006348333</v>
       </c>
       <c r="J324">
-        <v>6508.4769006348333</v>
+        <v>6472.7671688515838</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.3">
@@ -20890,13 +20710,13 @@
         <v>23.76</v>
       </c>
       <c r="H325">
-        <v>229803.48046494692</v>
+        <v>2.9626426155580607</v>
       </c>
       <c r="I325">
-        <v>2.9626426155580607</v>
+        <v>6569.9617535177495</v>
       </c>
       <c r="J325">
-        <v>6569.9617535177495</v>
+        <v>6472.7671688515838</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.3">
@@ -20923,13 +20743,13 @@
         <v>24.14</v>
       </c>
       <c r="H326">
-        <v>228186.7518473299</v>
+        <v>2.761283061339336</v>
       </c>
       <c r="I326">
-        <v>2.761283061339336</v>
+        <v>6569.9617535177495</v>
       </c>
       <c r="J326">
-        <v>6569.9617535177495</v>
+        <v>6425.3059677438332</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.3">
@@ -20956,13 +20776,13 @@
         <v>25.41</v>
       </c>
       <c r="H327">
-        <v>228555.65345958585</v>
+        <v>2.8301393258426968</v>
       </c>
       <c r="I327">
-        <v>2.8301393258426968</v>
+        <v>6569.9617535177495</v>
       </c>
       <c r="J327">
-        <v>6569.9617535177495</v>
+        <v>6425.3059677438332</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.3">
@@ -20989,13 +20809,13 @@
         <v>29.83</v>
       </c>
       <c r="H328">
-        <v>227922.82771628688</v>
+        <v>3.7018621848739492</v>
       </c>
       <c r="I328">
-        <v>3.7018621848739492</v>
+        <v>6569.9617535177495</v>
       </c>
       <c r="J328">
-        <v>6569.9617535177495</v>
+        <v>6425.3059677438332</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.3">
@@ -21022,13 +20842,13 @@
         <v>31.95</v>
       </c>
       <c r="H329">
-        <v>226480.7684837179</v>
+        <v>4.1596965978806475</v>
       </c>
       <c r="I329">
-        <v>4.1596965978806475</v>
+        <v>6569.9617535177495</v>
       </c>
       <c r="J329">
-        <v>6569.9617535177495</v>
+        <v>6425.3059677438332</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.3">
@@ -21055,13 +20875,13 @@
         <v>32.83</v>
       </c>
       <c r="H330">
-        <v>228396.2897790499</v>
+        <v>4.2401069637883015</v>
       </c>
       <c r="I330">
-        <v>4.2401069637883015</v>
+        <v>6569.9617535177495</v>
       </c>
       <c r="J330">
-        <v>6569.9617535177495</v>
+        <v>6425.3059677438332</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.3">
@@ -21088,13 +20908,13 @@
         <v>30.99</v>
       </c>
       <c r="H331">
-        <v>227470.57431744187</v>
+        <v>3.9098975501113586</v>
       </c>
       <c r="I331">
-        <v>3.9098975501113586</v>
+        <v>6569.9617535177495</v>
       </c>
       <c r="J331">
-        <v>6569.9617535177495</v>
+        <v>6425.3059677438332</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.3">
@@ -21121,13 +20941,13 @@
         <v>32.64</v>
       </c>
       <c r="H332">
-        <v>228776.50385686394</v>
+        <v>3.6104355555555561</v>
       </c>
       <c r="I332">
-        <v>3.6104355555555561</v>
+        <v>6569.9617535177495</v>
       </c>
       <c r="J332">
-        <v>6569.9617535177495</v>
+        <v>6425.3059677438332</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.3">
@@ -21154,13 +20974,13 @@
         <v>34.29</v>
       </c>
       <c r="H333">
-        <v>228267.48716880786</v>
+        <v>3.7333362880886427</v>
       </c>
       <c r="I333">
-        <v>3.7333362880886427</v>
+        <v>6569.9617535177495</v>
       </c>
       <c r="J333">
-        <v>6569.9617535177495</v>
+        <v>6425.3059677438332</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.3">
@@ -21187,13 +21007,13 @@
         <v>35.79</v>
       </c>
       <c r="H334">
-        <v>229963.81050251392</v>
+        <v>4.3061150442477878</v>
       </c>
       <c r="I334">
-        <v>4.3061150442477878</v>
+        <v>6569.9617535177495</v>
       </c>
       <c r="J334">
-        <v>6569.9617535177495</v>
+        <v>6425.3059677438332</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.3">
@@ -21220,13 +21040,13 @@
         <v>34.72</v>
       </c>
       <c r="H335">
-        <v>234348.92012756993</v>
+        <v>4.9585518763796923</v>
       </c>
       <c r="I335">
-        <v>4.9585518763796923</v>
+        <v>6569.9617535177495</v>
       </c>
       <c r="J335">
-        <v>6569.9617535177495</v>
+        <v>6425.3059677438332</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.3">
@@ -21253,13 +21073,13 @@
         <v>31.56</v>
       </c>
       <c r="H336">
-        <v>235145.28365765588</v>
+        <v>4.8542325068870529</v>
       </c>
       <c r="I336">
-        <v>4.8542325068870529</v>
+        <v>6569.9617535177495</v>
       </c>
       <c r="J336">
-        <v>6569.9617535177495</v>
+        <v>6425.3059677438332</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.3">
@@ -21286,13 +21106,13 @@
         <v>35.29</v>
       </c>
       <c r="H337">
-        <v>229276.4052244479</v>
+        <v>5.6859141914191422</v>
       </c>
       <c r="I337">
-        <v>5.6859141914191422</v>
+        <v>6706.2163981338335</v>
       </c>
       <c r="J337">
-        <v>6706.2163981338335</v>
+        <v>6425.3059677438332</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.3">
@@ -21319,13 +21139,13 @@
         <v>39.340000000000003</v>
       </c>
       <c r="H338">
-        <v>230655.4511234141</v>
+        <v>6.4611872946330777</v>
       </c>
       <c r="I338">
-        <v>6.4611872946330777</v>
+        <v>6706.2163981338335</v>
       </c>
       <c r="J338">
-        <v>6706.2163981338335</v>
+        <v>6635.2824495295836</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.3">
@@ -21352,13 +21172,13 @@
         <v>42.61</v>
       </c>
       <c r="H339">
-        <v>236053.03477829415</v>
+        <v>9.2292026143790853</v>
       </c>
       <c r="I339">
-        <v>9.2292026143790853</v>
+        <v>6706.2163981338335</v>
       </c>
       <c r="J339">
-        <v>6706.2163981338335</v>
+        <v>6635.2824495295836</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.3">
@@ -21385,13 +21205,13 @@
         <v>39.79</v>
       </c>
       <c r="H340">
-        <v>237432.73976397613</v>
+        <v>7.0558781946710178</v>
       </c>
       <c r="I340">
-        <v>7.0558781946710178</v>
+        <v>6706.2163981338335</v>
       </c>
       <c r="J340">
-        <v>6706.2163981338335</v>
+        <v>6635.2824495295836</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.3">
@@ -21418,13 +21238,13 @@
         <v>33.630000000000003</v>
       </c>
       <c r="H341">
-        <v>234041.75301525413</v>
+        <v>6.2971790393013105</v>
       </c>
       <c r="I341">
-        <v>6.2971790393013105</v>
+        <v>6706.2163981338335</v>
       </c>
       <c r="J341">
-        <v>6706.2163981338335</v>
+        <v>6635.2824495295836</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.3">
@@ -21451,13 +21271,13 @@
         <v>33.549999999999997</v>
       </c>
       <c r="H342">
-        <v>233874.47249789213</v>
+        <v>6.9632979770366319</v>
       </c>
       <c r="I342">
-        <v>6.9632979770366319</v>
+        <v>6706.2163981338335</v>
       </c>
       <c r="J342">
-        <v>6706.2163981338335</v>
+        <v>6635.2824495295836</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.3">
@@ -21484,13 +21304,13 @@
         <v>36.590000000000003</v>
       </c>
       <c r="H343">
-        <v>231729.63243569009</v>
+        <v>6.872318951392681</v>
       </c>
       <c r="I343">
-        <v>6.872318951392681</v>
+        <v>6706.2163981338335</v>
       </c>
       <c r="J343">
-        <v>6706.2163981338335</v>
+        <v>6635.2824495295836</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.3">
@@ -21517,13 +21337,13 @@
         <v>36.520000000000003</v>
       </c>
       <c r="H344">
-        <v>234274.02018784103</v>
+        <v>5.9476363636363647</v>
       </c>
       <c r="I344">
-        <v>5.9476363636363647</v>
+        <v>6706.2163981338335</v>
       </c>
       <c r="J344">
-        <v>6706.2163981338335</v>
+        <v>6635.2824495295836</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.3">
@@ -21550,13 +21370,13 @@
         <v>37.340000000000003</v>
       </c>
       <c r="H345">
-        <v>235877.03279446909</v>
+        <v>5.8745669376693765</v>
       </c>
       <c r="I345">
-        <v>5.8745669376693765</v>
+        <v>6706.2163981338335</v>
       </c>
       <c r="J345">
-        <v>6706.2163981338335</v>
+        <v>6635.2824495295836</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.3">
@@ -21583,13 +21403,13 @@
         <v>33.33</v>
       </c>
       <c r="H346">
-        <v>238229.70374928915</v>
+        <v>5.4313819556996235</v>
       </c>
       <c r="I346">
-        <v>5.4313819556996235</v>
+        <v>6706.2163981338335</v>
       </c>
       <c r="J346">
-        <v>6706.2163981338335</v>
+        <v>6635.2824495295836</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.3">
@@ -21616,13 +21436,13 @@
         <v>35.770000000000003</v>
       </c>
       <c r="H347">
-        <v>241455.64130072299</v>
+        <v>5.4726403461330442</v>
       </c>
       <c r="I347">
-        <v>5.4726403461330442</v>
+        <v>6706.2163981338335</v>
       </c>
       <c r="J347">
-        <v>6706.2163981338335</v>
+        <v>6635.2824495295836</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.3">
@@ -21649,13 +21469,13 @@
         <v>36.65</v>
       </c>
       <c r="H348">
-        <v>242482.03105727502</v>
+        <v>5.3400129729729731</v>
       </c>
       <c r="I348">
-        <v>5.3400129729729731</v>
+        <v>6706.2163981338335</v>
       </c>
       <c r="J348">
-        <v>6706.2163981338335</v>
+        <v>6635.2824495295836</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.3">
@@ -21682,13 +21502,13 @@
         <v>37.799999999999997</v>
       </c>
       <c r="H349">
-        <v>246384.58932451901</v>
+        <v>7.2066328840970364</v>
       </c>
       <c r="I349">
-        <v>7.2066328840970364</v>
+        <v>6968.496815135416</v>
       </c>
       <c r="J349">
-        <v>6968.496815135416</v>
+        <v>6635.2824495295836</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.3">
@@ -21715,13 +21535,13 @@
         <v>40.119999999999997</v>
       </c>
       <c r="H350">
-        <v>246013.01283367304</v>
+        <v>7.1288631239935585</v>
       </c>
       <c r="I350">
-        <v>7.1288631239935585</v>
+        <v>6968.496815135416</v>
       </c>
       <c r="J350">
-        <v>6968.496815135416</v>
+        <v>6954.1729199940828</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.3">
@@ -21748,13 +21568,13 @@
         <v>40.58</v>
       </c>
       <c r="H351">
-        <v>246035.53159185813</v>
+        <v>6.2842549544724164</v>
       </c>
       <c r="I351">
-        <v>6.2842549544724164</v>
+        <v>6968.496815135416</v>
       </c>
       <c r="J351">
-        <v>6968.496815135416</v>
+        <v>6954.1729199940828</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.3">
@@ -21781,13 +21601,13 @@
         <v>42.85</v>
       </c>
       <c r="H352">
-        <v>245765.54962184309</v>
+        <v>6.2941314804917168</v>
       </c>
       <c r="I352">
-        <v>6.2941314804917168</v>
+        <v>6968.496815135416</v>
       </c>
       <c r="J352">
-        <v>6968.496815135416</v>
+        <v>6954.1729199940828</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.3">
@@ -21814,13 +21634,13 @@
         <v>42.7</v>
       </c>
       <c r="H353">
-        <v>245367.04913347311</v>
+        <v>6.6564439701173956</v>
       </c>
       <c r="I353">
-        <v>6.6564439701173956</v>
+        <v>6968.496815135416</v>
       </c>
       <c r="J353">
-        <v>6968.496815135416</v>
+        <v>6954.1729199940828</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.3">
@@ -21847,13 +21667,13 @@
         <v>46.68</v>
       </c>
       <c r="H354">
-        <v>244097.18719584911</v>
+        <v>7.3465844845908626</v>
       </c>
       <c r="I354">
-        <v>7.3465844845908626</v>
+        <v>6968.496815135416</v>
       </c>
       <c r="J354">
-        <v>6968.496815135416</v>
+        <v>6954.1729199940828</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.3">
@@ -21880,13 +21700,13 @@
         <v>43.89</v>
       </c>
       <c r="H355">
-        <v>249082.82875288909</v>
+        <v>7.2385473795659081</v>
       </c>
       <c r="I355">
-        <v>7.2385473795659081</v>
+        <v>6968.496815135416</v>
       </c>
       <c r="J355">
-        <v>6968.496815135416</v>
+        <v>6954.1729199940828</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.3">
@@ -21913,13 +21733,13 @@
         <v>46.93</v>
       </c>
       <c r="H356">
-        <v>250922.35776357894</v>
+        <v>6.8387858276044433</v>
       </c>
       <c r="I356">
-        <v>6.8387858276044433</v>
+        <v>6968.496815135416</v>
       </c>
       <c r="J356">
-        <v>6968.496815135416</v>
+        <v>6954.1729199940828</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.3">
@@ -21946,13 +21766,13 @@
         <v>51.8</v>
       </c>
       <c r="H357">
-        <v>247692.5999853691</v>
+        <v>6.2242706131078238</v>
       </c>
       <c r="I357">
-        <v>6.2242706131078238</v>
+        <v>6968.496815135416</v>
       </c>
       <c r="J357">
-        <v>6968.496815135416</v>
+        <v>6954.1729199940828</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.3">
@@ -21979,13 +21799,13 @@
         <v>52.8</v>
       </c>
       <c r="H358">
-        <v>249442.45742728506</v>
+        <v>5.9058545837723919</v>
       </c>
       <c r="I358">
-        <v>5.9058545837723919</v>
+        <v>6968.496815135416</v>
       </c>
       <c r="J358">
-        <v>6968.496815135416</v>
+        <v>6954.1729199940828</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.3">
@@ -22012,13 +21832,13 @@
         <v>60.73</v>
       </c>
       <c r="H359">
-        <v>252060.03566737511</v>
+        <v>7.3264821802935005</v>
       </c>
       <c r="I359">
-        <v>7.3264821802935005</v>
+        <v>6968.496815135416</v>
       </c>
       <c r="J359">
-        <v>6968.496815135416</v>
+        <v>6954.1729199940828</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.3">
@@ -22045,13 +21865,13 @@
         <v>55.13</v>
       </c>
       <c r="H360">
-        <v>251506.66560632514</v>
+        <v>6.9280500782472618</v>
       </c>
       <c r="I360">
-        <v>6.9280500782472618</v>
+        <v>6968.496815135416</v>
       </c>
       <c r="J360">
-        <v>6968.496815135416</v>
+        <v>6954.1729199940828</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.3">
@@ -22078,13 +21898,13 @@
         <v>49.29</v>
       </c>
       <c r="H361">
-        <v>250492.67275782611</v>
+        <v>7.4854793948878457</v>
       </c>
       <c r="I361">
-        <v>7.4854793948878457</v>
+        <v>7076.6346961399167</v>
       </c>
       <c r="J361">
-        <v>7076.6346961399167</v>
+        <v>6954.1729199940828</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.3">
@@ -22111,13 +21931,13 @@
         <v>53.31</v>
       </c>
       <c r="H362">
-        <v>251644.45999999996</v>
+        <v>6.9999582463465559</v>
       </c>
       <c r="I362">
-        <v>6.9999582463465559</v>
+        <v>7076.6346961399167</v>
       </c>
       <c r="J362">
-        <v>7076.6346961399167</v>
+        <v>7093.1839550228333</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.3">
@@ -22144,13 +21964,13 @@
         <v>54.37</v>
       </c>
       <c r="H363">
-        <v>252807.96300000016</v>
+        <v>6.9595176715176708</v>
       </c>
       <c r="I363">
-        <v>6.9595176715176708</v>
+        <v>7076.6346961399167</v>
       </c>
       <c r="J363">
-        <v>7076.6346961399167</v>
+        <v>7093.1839550228333</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.3">
@@ -22177,13 +21997,13 @@
         <v>61.34</v>
       </c>
       <c r="H364">
-        <v>253257.48800000016</v>
+        <v>7.871660279647851</v>
       </c>
       <c r="I364">
-        <v>7.871660279647851</v>
+        <v>7076.6346961399167</v>
       </c>
       <c r="J364">
-        <v>7076.6346961399167</v>
+        <v>7093.1839550228333</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.3">
@@ -22210,13 +22030,13 @@
         <v>59.72</v>
       </c>
       <c r="H365">
-        <v>254515.81600000022</v>
+        <v>8.0499328859060419</v>
       </c>
       <c r="I365">
-        <v>8.0499328859060419</v>
+        <v>7076.6346961399167</v>
       </c>
       <c r="J365">
-        <v>7076.6346961399167</v>
+        <v>7093.1839550228333</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.3">
@@ -22243,13 +22063,13 @@
         <v>56.13</v>
       </c>
       <c r="H366">
-        <v>255410.41700000007</v>
+        <v>7.2881074380165298</v>
       </c>
       <c r="I366">
-        <v>7.2881074380165298</v>
+        <v>7076.6346961399167</v>
       </c>
       <c r="J366">
-        <v>7076.6346961399167</v>
+        <v>7093.1839550228333</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.3">
@@ -22276,13 +22096,13 @@
         <v>63.34</v>
       </c>
       <c r="H367">
-        <v>253969.64700000008</v>
+        <v>8.094967475477544</v>
       </c>
       <c r="I367">
-        <v>8.094967475477544</v>
+        <v>7076.6346961399167</v>
       </c>
       <c r="J367">
-        <v>7076.6346961399167</v>
+        <v>7093.1839550228333</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.3">
@@ -22309,13 +22129,13 @@
         <v>65.680000000000007</v>
       </c>
       <c r="H368">
-        <v>253052.16600000003</v>
+        <v>8.5374571575166751</v>
       </c>
       <c r="I368">
-        <v>8.5374571575166751</v>
+        <v>7076.6346961399167</v>
       </c>
       <c r="J368">
-        <v>7076.6346961399167</v>
+        <v>7093.1839550228333</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.3">
@@ -22342,13 +22162,13 @@
         <v>72.25</v>
       </c>
       <c r="H369">
-        <v>253743.11000000004</v>
+        <v>10.709385007649161</v>
       </c>
       <c r="I369">
-        <v>10.709385007649161</v>
+        <v>7076.6346961399167</v>
       </c>
       <c r="J369">
-        <v>7076.6346961399167</v>
+        <v>7093.1839550228333</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.3">
@@ -22375,13 +22195,13 @@
         <v>71.930000000000007</v>
       </c>
       <c r="H370">
-        <v>251696.93500000014</v>
+        <v>14.129126760563381</v>
       </c>
       <c r="I370">
-        <v>14.129126760563381</v>
+        <v>7076.6346961399167</v>
       </c>
       <c r="J370">
-        <v>7076.6346961399167</v>
+        <v>7093.1839550228333</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.3">
@@ -22408,13 +22228,13 @@
         <v>68.319999999999993</v>
       </c>
       <c r="H371">
-        <v>251641.43200000006</v>
+        <v>14.808847815168257</v>
       </c>
       <c r="I371">
-        <v>14.808847815168257</v>
+        <v>7076.6346961399167</v>
       </c>
       <c r="J371">
-        <v>7076.6346961399167</v>
+        <v>7093.1839550228333</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.3">
@@ -22441,13 +22261,13 @@
         <v>64.180000000000007</v>
       </c>
       <c r="H372">
-        <v>254021.52400000003</v>
+        <v>11.481950530035336</v>
       </c>
       <c r="I372">
-        <v>11.481950530035336</v>
+        <v>7076.6346961399167</v>
       </c>
       <c r="J372">
-        <v>7076.6346961399167</v>
+        <v>7093.1839550228333</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.3">
@@ -22474,13 +22294,13 @@
         <v>65.42</v>
       </c>
       <c r="H373">
-        <v>253142.79499999998</v>
+        <v>14.124010095911158</v>
       </c>
       <c r="I373">
-        <v>14.124010095911158</v>
+        <v>7177.2938619074166</v>
       </c>
       <c r="J373">
-        <v>7177.2938619074166</v>
+        <v>7093.1839550228333</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.3">
@@ -22507,13 +22327,13 @@
         <v>71.680000000000007</v>
       </c>
       <c r="H374">
-        <v>253010.58199999985</v>
+        <v>9.4760301053687908</v>
       </c>
       <c r="I374">
-        <v>9.4760301053687908</v>
+        <v>7177.2938619074166</v>
       </c>
       <c r="J374">
-        <v>7177.2938619074166</v>
+        <v>7103.5472029679995</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.3">
@@ -22540,13 +22360,13 @@
         <v>67.400000000000006</v>
       </c>
       <c r="H375">
-        <v>253162.26899999988</v>
+        <v>8.1916710130391177</v>
       </c>
       <c r="I375">
-        <v>8.1916710130391177</v>
+        <v>7177.2938619074166</v>
       </c>
       <c r="J375">
-        <v>7177.2938619074166</v>
+        <v>7103.5472029679995</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.3">
@@ -22573,13 +22393,13 @@
         <v>68.69</v>
       </c>
       <c r="H376">
-        <v>252072.64299999978</v>
+        <v>7.5350625938908369</v>
       </c>
       <c r="I376">
-        <v>7.5350625938908369</v>
+        <v>7177.2938619074166</v>
       </c>
       <c r="J376">
-        <v>7177.2938619074166</v>
+        <v>7103.5472029679995</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.3">
@@ -22606,13 +22426,13 @@
         <v>75.72</v>
       </c>
       <c r="H377">
-        <v>252987.36999999968</v>
+        <v>7.7039720976581973</v>
       </c>
       <c r="I377">
-        <v>7.7039720976581973</v>
+        <v>7177.2938619074166</v>
       </c>
       <c r="J377">
-        <v>7177.2938619074166</v>
+        <v>7103.5472029679995</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.3">
@@ -22639,13 +22459,13 @@
         <v>76.849999999999994</v>
       </c>
       <c r="H378">
-        <v>252335.55799999976</v>
+        <v>6.7168206656731249</v>
       </c>
       <c r="I378">
-        <v>6.7168206656731249</v>
+        <v>7177.2938619074166</v>
       </c>
       <c r="J378">
-        <v>7177.2938619074166</v>
+        <v>7103.5472029679995</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.3">
@@ -22672,13 +22492,13 @@
         <v>76.680000000000007</v>
       </c>
       <c r="H379">
-        <v>252296.90199999977</v>
+        <v>6.6893716551040647</v>
       </c>
       <c r="I379">
-        <v>6.6893716551040647</v>
+        <v>7177.2938619074166</v>
       </c>
       <c r="J379">
-        <v>7177.2938619074166</v>
+        <v>7103.5472029679995</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.3">
@@ -22705,13 +22525,13 @@
         <v>79.98</v>
       </c>
       <c r="H380">
-        <v>256282.52899999983</v>
+        <v>6.7175948743223257</v>
       </c>
       <c r="I380">
-        <v>6.7175948743223257</v>
+        <v>7177.2938619074166</v>
       </c>
       <c r="J380">
-        <v>7177.2938619074166</v>
+        <v>7103.5472029679995</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.3">
@@ -22738,13 +22558,13 @@
         <v>78.17</v>
       </c>
       <c r="H381">
-        <v>255642.3219999999</v>
+        <v>7.4904808635917561</v>
       </c>
       <c r="I381">
-        <v>7.4904808635917561</v>
+        <v>7177.2938619074166</v>
       </c>
       <c r="J381">
-        <v>7177.2938619074166</v>
+        <v>7103.5472029679995</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.3">
@@ -22771,13 +22591,13 @@
         <v>68.680000000000007</v>
       </c>
       <c r="H382">
-        <v>254137.16499999972</v>
+        <v>5.2261775147928997</v>
       </c>
       <c r="I382">
-        <v>5.2261775147928997</v>
+        <v>7177.2938619074166</v>
       </c>
       <c r="J382">
-        <v>7177.2938619074166</v>
+        <v>7103.5472029679995</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.3">
@@ -22804,13 +22624,13 @@
         <v>63.6</v>
       </c>
       <c r="H383">
-        <v>254936.46099999978</v>
+        <v>6.4376265477959382</v>
       </c>
       <c r="I383">
-        <v>6.4376265477959382</v>
+        <v>7177.2938619074166</v>
       </c>
       <c r="J383">
-        <v>7177.2938619074166</v>
+        <v>7103.5472029679995</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.3">
@@ -22837,13 +22657,13 @@
         <v>64.099999999999994</v>
       </c>
       <c r="H384">
-        <v>253378.2279999998</v>
+        <v>8.0430495049504955</v>
       </c>
       <c r="I384">
-        <v>8.0430495049504955</v>
+        <v>7177.2938619074166</v>
       </c>
       <c r="J384">
-        <v>7177.2938619074166</v>
+        <v>7103.5472029679995</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.3">
@@ -22870,13 +22690,13 @@
         <v>66.61</v>
       </c>
       <c r="H385">
-        <v>252543.87299999988</v>
+        <v>7.0653195470211729</v>
       </c>
       <c r="I385">
-        <v>7.0653195470211729</v>
+        <v>7295.8131212756671</v>
       </c>
       <c r="J385">
-        <v>7295.8131212756671</v>
+        <v>7103.5472029679995</v>
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.3">
@@ -22903,13 +22723,13 @@
         <v>58.5</v>
       </c>
       <c r="H386">
-        <v>251945.11799999996</v>
+        <v>7.0536156156451382</v>
       </c>
       <c r="I386">
-        <v>7.0536156156451382</v>
+        <v>7295.8131212756671</v>
       </c>
       <c r="J386">
-        <v>7295.8131212756671</v>
+        <v>7109.255239269417</v>
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.3">
@@ -22936,13 +22756,13 @@
         <v>63.28</v>
       </c>
       <c r="H387">
-        <v>252833.723</v>
+        <v>8.5106578006718046</v>
       </c>
       <c r="I387">
-        <v>8.5106578006718046</v>
+        <v>7295.8131212756671</v>
       </c>
       <c r="J387">
-        <v>7295.8131212756671</v>
+        <v>7109.255239269417</v>
       </c>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.3">
@@ -22969,13 +22789,13 @@
         <v>64.33</v>
       </c>
       <c r="H388">
-        <v>252475.67499999996</v>
+        <v>7.5636647051946539</v>
       </c>
       <c r="I388">
-        <v>7.5636647051946539</v>
+        <v>7295.8131212756671</v>
       </c>
       <c r="J388">
-        <v>7295.8131212756671</v>
+        <v>7109.255239269417</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.3">
@@ -23002,13 +22822,13 @@
         <v>67.75</v>
       </c>
       <c r="H389">
-        <v>253734.75399999996</v>
+        <v>8.038829745901003</v>
       </c>
       <c r="I389">
-        <v>8.038829745901003</v>
+        <v>7295.8131212756671</v>
       </c>
       <c r="J389">
-        <v>7295.8131212756671</v>
+        <v>7109.255239269417</v>
       </c>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.3">
@@ -23035,13 +22855,13 @@
         <v>66.94</v>
       </c>
       <c r="H390">
-        <v>252705.10499999989</v>
+        <v>8.0268375613649017</v>
       </c>
       <c r="I390">
-        <v>8.0268375613649017</v>
+        <v>7295.8131212756671</v>
       </c>
       <c r="J390">
-        <v>7295.8131212756671</v>
+        <v>7109.255239269417</v>
       </c>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.3">
@@ -23068,13 +22888,13 @@
         <v>71.010000000000005</v>
       </c>
       <c r="H391">
-        <v>252607.10199999993</v>
+        <v>7.6820598936467954</v>
       </c>
       <c r="I391">
-        <v>7.6820598936467954</v>
+        <v>7295.8131212756671</v>
       </c>
       <c r="J391">
-        <v>7295.8131212756671</v>
+        <v>7109.255239269417</v>
       </c>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.3">
@@ -23101,13 +22921,13 @@
         <v>77.92</v>
       </c>
       <c r="H392">
-        <v>254023.47000000003</v>
+        <v>6.5339017258902805</v>
       </c>
       <c r="I392">
-        <v>6.5339017258902805</v>
+        <v>7295.8131212756671</v>
       </c>
       <c r="J392">
-        <v>7295.8131212756671</v>
+        <v>7109.255239269417</v>
       </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.3">
@@ -23134,13 +22954,13 @@
         <v>76.02</v>
       </c>
       <c r="H393">
-        <v>251607.16200000013</v>
+        <v>6.5108852152725287</v>
       </c>
       <c r="I393">
-        <v>6.5108852152725287</v>
+        <v>7295.8131212756671</v>
       </c>
       <c r="J393">
-        <v>7295.8131212756671</v>
+        <v>7109.255239269417</v>
       </c>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.3">
@@ -23167,13 +22987,13 @@
         <v>83.58</v>
       </c>
       <c r="H394">
-        <v>254140.75300000006</v>
+        <v>6.3788402614278787</v>
       </c>
       <c r="I394">
-        <v>6.3788402614278787</v>
+        <v>7295.8131212756671</v>
       </c>
       <c r="J394">
-        <v>7295.8131212756671</v>
+        <v>7109.255239269417</v>
       </c>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.3">
@@ -23200,13 +23020,13 @@
         <v>89.86</v>
       </c>
       <c r="H395">
-        <v>256396.45900000003</v>
+        <v>7.0889813088579761</v>
       </c>
       <c r="I395">
-        <v>7.0889813088579761</v>
+        <v>7295.8131212756671</v>
       </c>
       <c r="J395">
-        <v>7295.8131212756671</v>
+        <v>7109.255239269417</v>
       </c>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.3">
@@ -23233,13 +23053,13 @@
         <v>97.87</v>
       </c>
       <c r="H396">
-        <v>255667.25899999993</v>
+        <v>7.385389453313981</v>
       </c>
       <c r="I396">
-        <v>7.385389453313981</v>
+        <v>7295.8131212756671</v>
       </c>
       <c r="J396">
-        <v>7295.8131212756671</v>
+        <v>7109.255239269417</v>
       </c>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.3">
@@ -23266,13 +23086,13 @@
         <v>94.61</v>
       </c>
       <c r="H397">
-        <v>257167.40500000009</v>
+        <v>7.3743621272671387</v>
       </c>
       <c r="I397">
-        <v>7.3743621272671387</v>
+        <v>7253.3446709098325</v>
       </c>
       <c r="J397">
-        <v>7253.3446709098325</v>
+        <v>7109.255239269417</v>
       </c>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.3">
@@ -23299,13 +23119,13 @@
         <v>95.54</v>
       </c>
       <c r="H398">
-        <v>257231.59900000002</v>
+        <v>8.2226851546372313</v>
       </c>
       <c r="I398">
-        <v>8.2226851546372313</v>
+        <v>7253.3446709098325</v>
       </c>
       <c r="J398">
-        <v>7253.3446709098325</v>
+        <v>7222.2654166666662</v>
       </c>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.3">
@@ -23332,13 +23152,13 @@
         <v>97.77</v>
       </c>
       <c r="H399">
-        <v>257570.51899999997</v>
+        <v>8.7667981587967301</v>
       </c>
       <c r="I399">
-        <v>8.7667981587967301</v>
+        <v>7253.3446709098325</v>
       </c>
       <c r="J399">
-        <v>7253.3446709098325</v>
+        <v>7222.2654166666662</v>
       </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.3">
@@ -23365,13 +23185,13 @@
         <v>107.85</v>
       </c>
       <c r="H400">
-        <v>258275.59400000013</v>
+        <v>9.6039878565271177</v>
       </c>
       <c r="I400">
-        <v>9.6039878565271177</v>
+        <v>7253.3446709098325</v>
       </c>
       <c r="J400">
-        <v>7253.3446709098325</v>
+        <v>7222.2654166666662</v>
       </c>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.3">
@@ -23398,13 +23218,13 @@
         <v>114.75</v>
       </c>
       <c r="H401">
-        <v>256841.33899999992</v>
+        <v>10.325931327182134</v>
       </c>
       <c r="I401">
-        <v>10.325931327182134</v>
+        <v>7253.3446709098325</v>
       </c>
       <c r="J401">
-        <v>7253.3446709098325</v>
+        <v>7222.2654166666662</v>
       </c>
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.3">
@@ -23431,13 +23251,13 @@
         <v>127.06</v>
       </c>
       <c r="H402">
-        <v>258924.41199999992</v>
+        <v>11.379866919445375</v>
       </c>
       <c r="I402">
-        <v>11.379866919445375</v>
+        <v>7253.3446709098325</v>
       </c>
       <c r="J402">
-        <v>7253.3446709098325</v>
+        <v>7222.2654166666662</v>
       </c>
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.3">
@@ -23464,13 +23284,13 @@
         <v>134.31</v>
       </c>
       <c r="H403">
-        <v>258841.19900000002</v>
+        <v>12.715976510946689</v>
       </c>
       <c r="I403">
-        <v>12.715976510946689</v>
+        <v>7253.3446709098325</v>
       </c>
       <c r="J403">
-        <v>7253.3446709098325</v>
+        <v>7222.2654166666662</v>
       </c>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.3">
@@ -23497,13 +23317,13 @@
         <v>132.87</v>
       </c>
       <c r="H404">
-        <v>261792.97800000009</v>
+        <v>11.102348686853931</v>
       </c>
       <c r="I404">
-        <v>11.102348686853931</v>
+        <v>7253.3446709098325</v>
       </c>
       <c r="J404">
-        <v>7253.3446709098325</v>
+        <v>7222.2654166666662</v>
       </c>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.3">
@@ -23530,13 +23350,13 @@
         <v>116.28</v>
       </c>
       <c r="H405">
-        <v>258970.10799999986</v>
+        <v>8.2269879738442544</v>
       </c>
       <c r="I405">
-        <v>8.2269879738442544</v>
+        <v>7253.3446709098325</v>
       </c>
       <c r="J405">
-        <v>7253.3446709098325</v>
+        <v>7222.2654166666662</v>
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.3">
@@ -23563,13 +23383,13 @@
         <v>103.52</v>
       </c>
       <c r="H406">
-        <v>254213.29099999985</v>
+        <v>7.66199829127775</v>
       </c>
       <c r="I406">
-        <v>7.66199829127775</v>
+        <v>7253.3446709098325</v>
       </c>
       <c r="J406">
-        <v>7253.3446709098325</v>
+        <v>7222.2654166666662</v>
       </c>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.3">
@@ -23596,13 +23416,13 @@
         <v>77.03</v>
       </c>
       <c r="H407">
-        <v>258829.71500000011</v>
+        <v>6.7636507753634882</v>
       </c>
       <c r="I407">
-        <v>6.7636507753634882</v>
+        <v>7253.3446709098325</v>
       </c>
       <c r="J407">
-        <v>7253.3446709098325</v>
+        <v>7222.2654166666662</v>
       </c>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.3">
@@ -23629,13 +23449,13 @@
         <v>58.77</v>
       </c>
       <c r="H408">
-        <v>258066.49</v>
+        <v>6.8241760613268418</v>
       </c>
       <c r="I408">
-        <v>6.8241760613268418</v>
+        <v>7253.3446709098325</v>
       </c>
       <c r="J408">
-        <v>7253.3446709098325</v>
+        <v>7222.2654166666662</v>
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.3">
@@ -23662,13 +23482,13 @@
         <v>42.32</v>
       </c>
       <c r="H409">
-        <v>254218.30399999997</v>
+        <v>5.9730139357988259</v>
       </c>
       <c r="I409">
-        <v>5.9730139357988259</v>
+        <v>7172.5757773082505</v>
       </c>
       <c r="J409">
-        <v>7172.5757773082505</v>
+        <v>7222.2654166666662</v>
       </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.3">
@@ -23695,13 +23515,13 @@
         <v>42.95</v>
       </c>
       <c r="H410">
-        <v>250975.04600000015</v>
+        <v>5.3919833154817809</v>
       </c>
       <c r="I410">
-        <v>5.3919833154817809</v>
+        <v>7172.5757773082505</v>
       </c>
       <c r="J410">
-        <v>7172.5757773082505</v>
+        <v>7155.8168136986669</v>
       </c>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.3">
@@ -23728,13 +23548,13 @@
         <v>40.15</v>
       </c>
       <c r="H411">
-        <v>252987.698</v>
+        <v>4.6342192238076203</v>
       </c>
       <c r="I411">
-        <v>4.6342192238076203</v>
+        <v>7172.5757773082505</v>
       </c>
       <c r="J411">
-        <v>7172.5757773082505</v>
+        <v>7155.8168136986669</v>
       </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.3">
@@ -23761,13 +23581,13 @@
         <v>49.24</v>
       </c>
       <c r="H412">
-        <v>252705.19400000019</v>
+        <v>4.0538177368879271</v>
       </c>
       <c r="I412">
-        <v>4.0538177368879271</v>
+        <v>7172.5757773082505</v>
       </c>
       <c r="J412">
-        <v>7172.5757773082505</v>
+        <v>7155.8168136986669</v>
       </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.3">
@@ -23794,13 +23614,13 @@
         <v>51.05</v>
       </c>
       <c r="H413">
-        <v>253819.14000000016</v>
+        <v>3.5883766084180735</v>
       </c>
       <c r="I413">
-        <v>3.5883766084180735</v>
+        <v>7172.5757773082505</v>
       </c>
       <c r="J413">
-        <v>7172.5757773082505</v>
+        <v>7155.8168136986669</v>
       </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.3">
@@ -23827,13 +23647,13 @@
         <v>60.56</v>
       </c>
       <c r="H414">
-        <v>253667.86000000034</v>
+        <v>3.9004647407310049</v>
       </c>
       <c r="I414">
-        <v>3.9004647407310049</v>
+        <v>7172.5757773082505</v>
       </c>
       <c r="J414">
-        <v>7172.5757773082505</v>
+        <v>7155.8168136986669</v>
       </c>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.3">
@@ -23860,13 +23680,13 @@
         <v>70.75</v>
       </c>
       <c r="H415">
-        <v>254493.26100000012</v>
+        <v>3.8582056892778991</v>
       </c>
       <c r="I415">
-        <v>3.8582056892778991</v>
+        <v>7172.5757773082505</v>
       </c>
       <c r="J415">
-        <v>7172.5757773082505</v>
+        <v>7155.8168136986669</v>
       </c>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.3">
@@ -23893,13 +23713,13 @@
         <v>65.09</v>
       </c>
       <c r="H416">
-        <v>257001.429</v>
+        <v>3.4429514823542564</v>
       </c>
       <c r="I416">
-        <v>3.4429514823542564</v>
+        <v>7172.5757773082505</v>
       </c>
       <c r="J416">
-        <v>7172.5757773082505</v>
+        <v>7155.8168136986669</v>
       </c>
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.3">
@@ -23926,13 +23746,13 @@
         <v>71.930000000000007</v>
       </c>
       <c r="H417">
-        <v>255965.8790000001</v>
+        <v>3.1885260739399848</v>
       </c>
       <c r="I417">
-        <v>3.1885260739399848</v>
+        <v>7172.5757773082505</v>
       </c>
       <c r="J417">
-        <v>7172.5757773082505</v>
+        <v>7155.8168136986669</v>
       </c>
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.3">
@@ -23959,13 +23779,13 @@
         <v>70.17</v>
       </c>
       <c r="H418">
-        <v>257195.16100000023</v>
+        <v>2.9904280995640713</v>
       </c>
       <c r="I418">
-        <v>2.9904280995640713</v>
+        <v>7172.5757773082505</v>
       </c>
       <c r="J418">
-        <v>7172.5757773082505</v>
+        <v>7155.8168136986669</v>
       </c>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.3">
@@ -23992,13 +23812,13 @@
         <v>76.37</v>
       </c>
       <c r="H419">
-        <v>258607.98200000011</v>
+        <v>4.049169318596455</v>
       </c>
       <c r="I419">
-        <v>4.049169318596455</v>
+        <v>7172.5757773082505</v>
       </c>
       <c r="J419">
-        <v>7172.5757773082505</v>
+        <v>7155.8168136986669</v>
       </c>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.3">
@@ -24025,13 +23845,13 @@
         <v>78.38</v>
       </c>
       <c r="H420">
-        <v>259041.85200000019</v>
+        <v>3.7043704024231938</v>
       </c>
       <c r="I420">
-        <v>3.7043704024231938</v>
+        <v>7172.5757773082505</v>
       </c>
       <c r="J420">
-        <v>7172.5757773082505</v>
+        <v>7155.8168136986669</v>
       </c>
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.3">
@@ -24058,13 +23878,13 @@
         <v>74.55</v>
       </c>
       <c r="H421">
-        <v>257534.74800000011</v>
+        <v>5.3881102568703501</v>
       </c>
       <c r="I421">
-        <v>5.3881102568703501</v>
+        <v>7404.2210640281664</v>
       </c>
       <c r="J421">
-        <v>7404.2210640281664</v>
+        <v>7155.8168136986669</v>
       </c>
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.3">
@@ -24091,13 +23911,13 @@
         <v>78.430000000000007</v>
       </c>
       <c r="H422">
-        <v>258645.46300000025</v>
+        <v>5.8258147575958219</v>
       </c>
       <c r="I422">
-        <v>5.8258147575958219</v>
+        <v>7404.2210640281664</v>
       </c>
       <c r="J422">
-        <v>7404.2210640281664</v>
+        <v>7380.8865198630001</v>
       </c>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.3">
@@ -24124,13 +23944,13 @@
         <v>76.7</v>
       </c>
       <c r="H423">
-        <v>260379.49800000028</v>
+        <v>5.3596365996106421</v>
       </c>
       <c r="I423">
-        <v>5.3596365996106421</v>
+        <v>7404.2210640281664</v>
       </c>
       <c r="J423">
-        <v>7404.2210640281664</v>
+        <v>7380.8865198630001</v>
       </c>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.3">
@@ -24157,13 +23977,13 @@
         <v>81.510000000000005</v>
       </c>
       <c r="H424">
-        <v>261508.05900000021</v>
+        <v>4.3043491463195815</v>
       </c>
       <c r="I424">
-        <v>4.3043491463195815</v>
+        <v>7404.2210640281664</v>
       </c>
       <c r="J424">
-        <v>7404.2210640281664</v>
+        <v>7380.8865198630001</v>
       </c>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.3">
@@ -24190,13 +24010,13 @@
         <v>84.74</v>
       </c>
       <c r="H425">
-        <v>262426.19900000031</v>
+        <v>4.0224872701848637</v>
       </c>
       <c r="I425">
-        <v>4.0224872701848637</v>
+        <v>7404.2210640281664</v>
       </c>
       <c r="J425">
-        <v>7404.2210640281664</v>
+        <v>7380.8865198630001</v>
       </c>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.3">
@@ -24223,13 +24043,13 @@
         <v>74.11</v>
       </c>
       <c r="H426">
-        <v>263637.08799999999</v>
+        <v>4.1751244880114138</v>
       </c>
       <c r="I426">
-        <v>4.1751244880114138</v>
+        <v>7404.2210640281664</v>
       </c>
       <c r="J426">
-        <v>7404.2210640281664</v>
+        <v>7380.8865198630001</v>
       </c>
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.3">
@@ -24256,13 +24076,13 @@
         <v>75.66</v>
       </c>
       <c r="H427">
-        <v>263969.41900000005</v>
+        <v>4.8094291410181453</v>
       </c>
       <c r="I427">
-        <v>4.8094291410181453</v>
+        <v>7404.2210640281664</v>
       </c>
       <c r="J427">
-        <v>7404.2210640281664</v>
+        <v>7380.8865198630001</v>
       </c>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.3">
@@ -24289,13 +24109,13 @@
         <v>76.540000000000006</v>
       </c>
       <c r="H428">
-        <v>264724.06299999991</v>
+        <v>4.6401066151972614</v>
       </c>
       <c r="I428">
-        <v>4.6401066151972614</v>
+        <v>7404.2210640281664</v>
       </c>
       <c r="J428">
-        <v>7404.2210640281664</v>
+        <v>7380.8865198630001</v>
       </c>
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.3">
@@ -24322,13 +24142,13 @@
         <v>76.88</v>
       </c>
       <c r="H429">
-        <v>264452.12099999993</v>
+        <v>4.3131050875768047</v>
       </c>
       <c r="I429">
-        <v>4.3131050875768047</v>
+        <v>7404.2210640281664</v>
       </c>
       <c r="J429">
-        <v>7404.2210640281664</v>
+        <v>7380.8865198630001</v>
       </c>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.3">
@@ -24355,13 +24175,13 @@
         <v>75.239999999999995</v>
       </c>
       <c r="H430">
-        <v>265001.11899999989</v>
+        <v>3.8965158630168366</v>
       </c>
       <c r="I430">
-        <v>3.8965158630168366</v>
+        <v>7404.2210640281664</v>
       </c>
       <c r="J430">
-        <v>7404.2210640281664</v>
+        <v>7380.8865198630001</v>
       </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.3">
@@ -24388,13 +24208,13 @@
         <v>81.540000000000006</v>
       </c>
       <c r="H431">
-        <v>264403.70899999997</v>
+        <v>3.4150450841189768</v>
       </c>
       <c r="I431">
-        <v>3.4150450841189768</v>
+        <v>7404.2210640281664</v>
       </c>
       <c r="J431">
-        <v>7404.2210640281664</v>
+        <v>7380.8865198630001</v>
       </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.3">
@@ -24421,13 +24241,13 @@
         <v>83.56</v>
       </c>
       <c r="H432">
-        <v>265766.28599999985</v>
+        <v>3.704350835648254</v>
       </c>
       <c r="I432">
-        <v>3.704350835648254</v>
+        <v>7404.2210640281664</v>
       </c>
       <c r="J432">
-        <v>7404.2210640281664</v>
+        <v>7380.8865198630001</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.3">
@@ -24454,13 +24274,13 @@
         <v>88.07</v>
       </c>
       <c r="H433">
-        <v>265209.66399999987</v>
+        <v>4.1939983308538045</v>
       </c>
       <c r="I433">
-        <v>4.1939983308538045</v>
+        <v>7470.8507910100825</v>
       </c>
       <c r="J433">
-        <v>7470.8507910100825</v>
+        <v>7380.8865198630001</v>
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.3">
@@ -24487,13 +24307,13 @@
         <v>88.16</v>
       </c>
       <c r="H434">
-        <v>267452.67000000016</v>
+        <v>4.4269292499107094</v>
       </c>
       <c r="I434">
-        <v>4.4269292499107094</v>
+        <v>7470.8507910100825</v>
       </c>
       <c r="J434">
-        <v>7470.8507910100825</v>
+        <v>7419.8428742009164</v>
       </c>
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.3">
@@ -24520,13 +24340,13 @@
         <v>88.04</v>
       </c>
       <c r="H435">
-        <v>264061.17500000005</v>
+        <v>3.9999711579194051</v>
       </c>
       <c r="I435">
-        <v>3.9999711579194051</v>
+        <v>7470.8507910100825</v>
       </c>
       <c r="J435">
-        <v>7470.8507910100825</v>
+        <v>7419.8428742009164</v>
       </c>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.3">
@@ -24553,13 +24373,13 @@
         <v>100.65</v>
       </c>
       <c r="H436">
-        <v>261344.43300000008</v>
+        <v>3.8816100714650794</v>
       </c>
       <c r="I436">
-        <v>3.8816100714650794</v>
+        <v>7470.8507910100825</v>
       </c>
       <c r="J436">
-        <v>7470.8507910100825</v>
+        <v>7419.8428742009164</v>
       </c>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.3">
@@ -24586,13 +24406,13 @@
         <v>107.09</v>
       </c>
       <c r="H437">
-        <v>261170.67800000001</v>
+        <v>4.1262297349761043</v>
       </c>
       <c r="I437">
-        <v>4.1262297349761043</v>
+        <v>7470.8507910100825</v>
       </c>
       <c r="J437">
-        <v>7470.8507910100825</v>
+        <v>7419.8428742009164</v>
       </c>
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.3">
@@ -24619,13 +24439,13 @@
         <v>98.3</v>
       </c>
       <c r="H438">
-        <v>260615.92600000004</v>
+        <v>4.1810485485262845</v>
       </c>
       <c r="I438">
-        <v>4.1810485485262845</v>
+        <v>7470.8507910100825</v>
       </c>
       <c r="J438">
-        <v>7470.8507910100825</v>
+        <v>7419.8428742009164</v>
       </c>
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.3">
@@ -24652,13 +24472,13 @@
         <v>93.41</v>
       </c>
       <c r="H439">
-        <v>263343.55699999986</v>
+        <v>4.4138679572609272</v>
       </c>
       <c r="I439">
-        <v>4.4138679572609272</v>
+        <v>7470.8507910100825</v>
       </c>
       <c r="J439">
-        <v>7470.8507910100825</v>
+        <v>7419.8428742009164</v>
       </c>
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.3">
@@ -24685,13 +24505,13 @@
         <v>94.04</v>
       </c>
       <c r="H440">
-        <v>264752.9470000001</v>
+        <v>4.2668772599214719</v>
       </c>
       <c r="I440">
-        <v>4.2668772599214719</v>
+        <v>7470.8507910100825</v>
       </c>
       <c r="J440">
-        <v>7470.8507910100825</v>
+        <v>7419.8428742009164</v>
       </c>
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.3">
@@ -24718,13 +24538,13 @@
         <v>83.27</v>
       </c>
       <c r="H441">
-        <v>266250.33600000018</v>
+        <v>3.9062386668199873</v>
       </c>
       <c r="I441">
-        <v>3.9062386668199873</v>
+        <v>7470.8507910100825</v>
       </c>
       <c r="J441">
-        <v>7470.8507910100825</v>
+        <v>7419.8428742009164</v>
       </c>
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.3">
@@ -24751,13 +24571,13 @@
         <v>82.39</v>
       </c>
       <c r="H442">
-        <v>264093.5199999999</v>
+        <v>3.7534124458841025</v>
       </c>
       <c r="I442">
-        <v>3.7534124458841025</v>
+        <v>7470.8507910100825</v>
       </c>
       <c r="J442">
-        <v>7470.8507910100825</v>
+        <v>7419.8428742009164</v>
       </c>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.3">
@@ -24784,13 +24604,13 @@
         <v>83.11</v>
       </c>
       <c r="H443">
-        <v>265439.38800000004</v>
+        <v>3.433497684674752</v>
       </c>
       <c r="I443">
-        <v>3.433497684674752</v>
+        <v>7470.8507910100825</v>
       </c>
       <c r="J443">
-        <v>7470.8507910100825</v>
+        <v>7419.8428742009164</v>
       </c>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.3">
@@ -24817,13 +24637,13 @@
         <v>93.32</v>
       </c>
       <c r="H444">
-        <v>268440.99000000011</v>
+        <v>3.1103680519789232</v>
       </c>
       <c r="I444">
-        <v>3.1103680519789232</v>
+        <v>7470.8507910100825</v>
       </c>
       <c r="J444">
-        <v>7470.8507910100825</v>
+        <v>7419.8428742009164</v>
       </c>
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.3">
@@ -24850,13 +24670,13 @@
         <v>94.6</v>
       </c>
       <c r="H445">
-        <v>269371.4850000001</v>
+        <v>3.0328479071220786</v>
       </c>
       <c r="I445">
-        <v>3.0328479071220786</v>
+        <v>7583.8597079364999</v>
       </c>
       <c r="J445">
-        <v>7583.8597079364999</v>
+        <v>7419.8428742009164</v>
       </c>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.3">
@@ -24883,13 +24703,13 @@
         <v>95.95</v>
       </c>
       <c r="H446">
-        <v>269775.37600000063</v>
+        <v>2.5651741118845517</v>
       </c>
       <c r="I446">
-        <v>2.5651741118845517</v>
+        <v>7583.8597079364999</v>
       </c>
       <c r="J446">
-        <v>7583.8597079364999</v>
+        <v>7591.0217035519163</v>
       </c>
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.3">
@@ -24916,13 +24736,13 @@
         <v>97.66</v>
       </c>
       <c r="H447">
-        <v>271319.09700000071</v>
+        <v>2.4068848021933262</v>
       </c>
       <c r="I447">
-        <v>2.4068848021933262</v>
+        <v>7583.8597079364999</v>
       </c>
       <c r="J447">
-        <v>7583.8597079364999</v>
+        <v>7591.0217035519163</v>
       </c>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.3">
@@ -24949,13 +24769,13 @@
         <v>101.21</v>
       </c>
       <c r="H448">
-        <v>270345.79300000065</v>
+        <v>2.0682653939783311</v>
       </c>
       <c r="I448">
-        <v>2.0682653939783311</v>
+        <v>7583.8597079364999</v>
       </c>
       <c r="J448">
-        <v>7583.8597079364999</v>
+        <v>7591.0217035519163</v>
       </c>
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.3">
@@ -24982,13 +24802,13 @@
         <v>98.32</v>
       </c>
       <c r="H449">
-        <v>271572.96600000054</v>
+        <v>1.855497912185246</v>
       </c>
       <c r="I449">
-        <v>1.855497912185246</v>
+        <v>7583.8597079364999</v>
       </c>
       <c r="J449">
-        <v>7583.8597079364999</v>
+        <v>7591.0217035519163</v>
       </c>
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.3">
@@ -25015,13 +24835,13 @@
         <v>90.3</v>
       </c>
       <c r="H450">
-        <v>270317.29500000062</v>
+        <v>2.326562985051134</v>
       </c>
       <c r="I450">
-        <v>2.326562985051134</v>
+        <v>7583.8597079364999</v>
       </c>
       <c r="J450">
-        <v>7583.8597079364999</v>
+        <v>7591.0217035519163</v>
       </c>
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.3">
@@ -25048,13 +24868,13 @@
         <v>78.64</v>
       </c>
       <c r="H451">
-        <v>269508.52400000056</v>
+        <v>2.3475731214226951</v>
       </c>
       <c r="I451">
-        <v>2.3475731214226951</v>
+        <v>7583.8597079364999</v>
       </c>
       <c r="J451">
-        <v>7583.8597079364999</v>
+        <v>7591.0217035519163</v>
       </c>
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.3">
@@ -25081,13 +24901,13 @@
         <v>83.89</v>
       </c>
       <c r="H452">
-        <v>270836.79800000053</v>
+        <v>2.8143663327354655</v>
       </c>
       <c r="I452">
-        <v>2.8143663327354655</v>
+        <v>7583.8597079364999</v>
       </c>
       <c r="J452">
-        <v>7583.8597079364999</v>
+        <v>7591.0217035519163</v>
       </c>
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.3">
@@ -25114,13 +24934,13 @@
         <v>89.31</v>
       </c>
       <c r="H453">
-        <v>271115.44500000071</v>
+        <v>2.6937743021425029</v>
       </c>
       <c r="I453">
-        <v>2.6937743021425029</v>
+        <v>7583.8597079364999</v>
       </c>
       <c r="J453">
-        <v>7583.8597079364999</v>
+        <v>7591.0217035519163</v>
       </c>
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.3">
@@ -25147,13 +24967,13 @@
         <v>89.42</v>
       </c>
       <c r="H454">
-        <v>269054.10600000049</v>
+        <v>2.6809826201761791</v>
       </c>
       <c r="I454">
-        <v>2.6809826201761791</v>
+        <v>7583.8597079364999</v>
       </c>
       <c r="J454">
-        <v>7583.8597079364999</v>
+        <v>7591.0217035519163</v>
       </c>
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.3">
@@ -25180,13 +25000,13 @@
         <v>84.33</v>
       </c>
       <c r="H455">
-        <v>271206.03600000037</v>
+        <v>3.1256771341489737</v>
       </c>
       <c r="I455">
-        <v>3.1256771341489737</v>
+        <v>7583.8597079364999</v>
       </c>
       <c r="J455">
-        <v>7583.8597079364999</v>
+        <v>7591.0217035519163</v>
       </c>
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.3">
@@ -25213,13 +25033,13 @@
         <v>81.72</v>
       </c>
       <c r="H456">
-        <v>272651.3720000005</v>
+        <v>3.3384066525693088</v>
       </c>
       <c r="I456">
-        <v>3.3384066525693088</v>
+        <v>7583.8597079364999</v>
       </c>
       <c r="J456">
-        <v>7583.8597079364999</v>
+        <v>7591.0217035519163</v>
       </c>
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.3">
@@ -25246,13 +25066,13 @@
         <v>83.23</v>
       </c>
       <c r="H457">
-        <v>271611.40100000059</v>
+        <v>3.15017753577746</v>
       </c>
       <c r="I457">
-        <v>3.15017753577746</v>
+        <v>7700.5722596863334</v>
       </c>
       <c r="J457">
-        <v>7700.5722596863334</v>
+        <v>7591.0217035519163</v>
       </c>
     </row>
     <row r="458" spans="1:10" x14ac:dyDescent="0.3">
@@ -25279,13 +25099,13 @@
         <v>89.13</v>
       </c>
       <c r="H458">
-        <v>269284.1190000003</v>
+        <v>3.1345370102598857</v>
       </c>
       <c r="I458">
-        <v>3.1345370102598857</v>
+        <v>7700.5722596863334</v>
       </c>
       <c r="J458">
-        <v>7700.5722596863334</v>
+        <v>7641.2225057077494</v>
       </c>
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.3">
@@ -25312,13 +25132,13 @@
         <v>89.24</v>
       </c>
       <c r="H459">
-        <v>268700.31500000018</v>
+        <v>3.1176086237909821</v>
       </c>
       <c r="I459">
-        <v>3.1176086237909821</v>
+        <v>7700.5722596863334</v>
       </c>
       <c r="J459">
-        <v>7700.5722596863334</v>
+        <v>7641.2225057077494</v>
       </c>
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.3">
@@ -25345,13 +25165,13 @@
         <v>87.36</v>
       </c>
       <c r="H460">
-        <v>269371.16800000018</v>
+        <v>3.5770520315823009</v>
       </c>
       <c r="I460">
-        <v>3.5770520315823009</v>
+        <v>7700.5722596863334</v>
       </c>
       <c r="J460">
-        <v>7700.5722596863334</v>
+        <v>7641.2225057077494</v>
       </c>
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.3">
@@ -25378,13 +25198,13 @@
         <v>86.62</v>
       </c>
       <c r="H461">
-        <v>271931.07300000027</v>
+        <v>3.9232328287251348</v>
       </c>
       <c r="I461">
-        <v>3.9232328287251348</v>
+        <v>7700.5722596863334</v>
       </c>
       <c r="J461">
-        <v>7700.5722596863334</v>
+        <v>7641.2225057077494</v>
       </c>
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.3">
@@ -25411,13 +25231,13 @@
         <v>89.15</v>
       </c>
       <c r="H462">
-        <v>272223.63100000023</v>
+        <v>3.7993522874774146</v>
       </c>
       <c r="I462">
-        <v>3.7993522874774146</v>
+        <v>7700.5722596863334</v>
       </c>
       <c r="J462">
-        <v>7700.5722596863334</v>
+        <v>7641.2225057077494</v>
       </c>
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.3">
@@ -25444,13 +25264,13 @@
         <v>89.88</v>
       </c>
       <c r="H463">
-        <v>272176.05400000029</v>
+        <v>3.5933076641786235</v>
       </c>
       <c r="I463">
-        <v>3.5933076641786235</v>
+        <v>7700.5722596863334</v>
       </c>
       <c r="J463">
-        <v>7700.5722596863334</v>
+        <v>7641.2225057077494</v>
       </c>
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.3">
@@ -25477,13 +25297,13 @@
         <v>98.01</v>
       </c>
       <c r="H464">
-        <v>274724.71500000037</v>
+        <v>3.3896504937741523</v>
       </c>
       <c r="I464">
-        <v>3.3896504937741523</v>
+        <v>7700.5722596863334</v>
       </c>
       <c r="J464">
-        <v>7700.5722596863334</v>
+        <v>7641.2225057077494</v>
       </c>
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.3">
@@ -25510,13 +25330,13 @@
         <v>99.55</v>
       </c>
       <c r="H465">
-        <v>274335.5190000002</v>
+        <v>3.2040915632924412</v>
       </c>
       <c r="I465">
-        <v>3.2040915632924412</v>
+        <v>7700.5722596863334</v>
       </c>
       <c r="J465">
-        <v>7700.5722596863334</v>
+        <v>7641.2225057077494</v>
       </c>
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.3">
@@ -25543,13 +25363,13 @@
         <v>99.25</v>
       </c>
       <c r="H466">
-        <v>272350.4120000003</v>
+        <v>3.3803034974137636</v>
       </c>
       <c r="I466">
-        <v>3.3803034974137636</v>
+        <v>7700.5722596863334</v>
       </c>
       <c r="J466">
-        <v>7700.5722596863334</v>
+        <v>7641.2225057077494</v>
       </c>
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.3">
@@ -25576,13 +25396,13 @@
         <v>93.83</v>
       </c>
       <c r="H467">
-        <v>273115.18500000023</v>
+        <v>3.4251595205183398</v>
       </c>
       <c r="I467">
-        <v>3.4251595205183398</v>
+        <v>7700.5722596863334</v>
       </c>
       <c r="J467">
-        <v>7700.5722596863334</v>
+        <v>7641.2225057077494</v>
       </c>
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.3">
@@ -25609,13 +25429,13 @@
         <v>87.44</v>
       </c>
       <c r="H468">
-        <v>273950.31800000032</v>
+        <v>3.3722750961127725</v>
       </c>
       <c r="I468">
-        <v>3.3722750961127725</v>
+        <v>7700.5722596863334</v>
       </c>
       <c r="J468">
-        <v>7700.5722596863334</v>
+        <v>7641.2225057077494</v>
       </c>
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.3">
@@ -25642,13 +25462,13 @@
         <v>90.71</v>
       </c>
       <c r="H469">
-        <v>274238.33900000027</v>
+        <v>3.9394305531294869</v>
       </c>
       <c r="I469">
-        <v>3.9394305531294869</v>
+        <v>7836.6400631055003</v>
       </c>
       <c r="J469">
-        <v>7836.6400631055003</v>
+        <v>7641.2225057077494</v>
       </c>
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.3">
@@ -25675,13 +25495,13 @@
         <v>87.7</v>
       </c>
       <c r="H470">
-        <v>274616.22000000009</v>
+        <v>4.3562612627928328</v>
       </c>
       <c r="I470">
-        <v>4.3562612627928328</v>
+        <v>7836.6400631055003</v>
       </c>
       <c r="J470">
-        <v>7836.6400631055003</v>
+        <v>7856.4242559360828</v>
       </c>
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.3">
@@ -25708,13 +25528,13 @@
         <v>93.34</v>
       </c>
       <c r="H471">
-        <v>276229.41900000017</v>
+        <v>5.5272943404076473</v>
       </c>
       <c r="I471">
-        <v>5.5272943404076473</v>
+        <v>7836.6400631055003</v>
       </c>
       <c r="J471">
-        <v>7836.6400631055003</v>
+        <v>7856.4242559360828</v>
       </c>
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.3">
@@ -25741,13 +25561,13 @@
         <v>93.13</v>
       </c>
       <c r="H472">
-        <v>274747.45199999999</v>
+        <v>4.5089158913349268</v>
       </c>
       <c r="I472">
-        <v>4.5089158913349268</v>
+        <v>7836.6400631055003</v>
       </c>
       <c r="J472">
-        <v>7836.6400631055003</v>
+        <v>7856.4242559360828</v>
       </c>
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.3">
@@ -25774,13 +25594,13 @@
         <v>94.13</v>
       </c>
       <c r="H473">
-        <v>275404.5790000002</v>
+        <v>4.2699663379400175</v>
       </c>
       <c r="I473">
-        <v>4.2699663379400175</v>
+        <v>7836.6400631055003</v>
       </c>
       <c r="J473">
-        <v>7836.6400631055003</v>
+        <v>7856.4242559360828</v>
       </c>
     </row>
     <row r="474" spans="1:10" x14ac:dyDescent="0.3">
@@ -25807,13 +25627,13 @@
         <v>94.06</v>
       </c>
       <c r="H474">
-        <v>276738.28000000014</v>
+        <v>4.1974218928067932</v>
       </c>
       <c r="I474">
-        <v>4.1974218928067932</v>
+        <v>7836.6400631055003</v>
       </c>
       <c r="J474">
-        <v>7836.6400631055003</v>
+        <v>7856.4242559360828</v>
       </c>
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.3">
@@ -25840,13 +25660,13 @@
         <v>97.25</v>
       </c>
       <c r="H475">
-        <v>279152.92600000021</v>
+        <v>4.2010765877983909</v>
       </c>
       <c r="I475">
-        <v>4.2010765877983909</v>
+        <v>7836.6400631055003</v>
       </c>
       <c r="J475">
-        <v>7836.6400631055003</v>
+        <v>7856.4242559360828</v>
       </c>
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.3">
@@ -25873,13 +25693,13 @@
         <v>95.12</v>
       </c>
       <c r="H476">
-        <v>279735.9690000001</v>
+        <v>3.6821396390706447</v>
       </c>
       <c r="I476">
-        <v>3.6821396390706447</v>
+        <v>7836.6400631055003</v>
       </c>
       <c r="J476">
-        <v>7836.6400631055003</v>
+        <v>7856.4242559360828</v>
       </c>
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.3">
@@ -25906,13 +25726,13 @@
         <v>88.66</v>
       </c>
       <c r="H477">
-        <v>280945.23500000034</v>
+        <v>3.5633386675650636</v>
       </c>
       <c r="I477">
-        <v>3.5633386675650636</v>
+        <v>7836.6400631055003</v>
       </c>
       <c r="J477">
-        <v>7836.6400631055003</v>
+        <v>7856.4242559360828</v>
       </c>
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.3">
@@ -25939,13 +25759,13 @@
         <v>85.6</v>
       </c>
       <c r="H478">
-        <v>282668.12100000028</v>
+        <v>3.599816403272738</v>
       </c>
       <c r="I478">
-        <v>3.599816403272738</v>
+        <v>7836.6400631055003</v>
       </c>
       <c r="J478">
-        <v>7836.6400631055003</v>
+        <v>7856.4242559360828</v>
       </c>
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.3">
@@ -25972,13 +25792,13 @@
         <v>77.52</v>
       </c>
       <c r="H479">
-        <v>286208.9910000001</v>
+        <v>3.4627536537084613</v>
       </c>
       <c r="I479">
-        <v>3.4627536537084613</v>
+        <v>7836.6400631055003</v>
       </c>
       <c r="J479">
-        <v>7836.6400631055003</v>
+        <v>7856.4242559360828</v>
       </c>
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.3">
@@ -26005,13 +25825,13 @@
         <v>69.739999999999995</v>
       </c>
       <c r="H480">
-        <v>284521.3620000002</v>
+        <v>3.7729626175717246</v>
       </c>
       <c r="I480">
-        <v>3.7729626175717246</v>
+        <v>7836.6400631055003</v>
       </c>
       <c r="J480">
-        <v>7836.6400631055003</v>
+        <v>7856.4242559360828</v>
       </c>
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.3">
@@ -26038,13 +25858,13 @@
         <v>54.73</v>
       </c>
       <c r="H481">
-        <v>286782.77100000036</v>
+        <v>3.1661717149484452</v>
       </c>
       <c r="I481">
-        <v>3.1661717149484452</v>
+        <v>8005.1027153496661</v>
       </c>
       <c r="J481">
-        <v>8005.1027153496661</v>
+        <v>7856.4242559360828</v>
       </c>
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.3">
@@ -26071,13 +25891,13 @@
         <v>43.87</v>
       </c>
       <c r="H482">
-        <v>283394.16000000015</v>
+        <v>2.7594713656387668</v>
       </c>
       <c r="I482">
-        <v>2.7594713656387668</v>
+        <v>8005.1027153496661</v>
       </c>
       <c r="J482">
-        <v>8005.1027153496661</v>
+        <v>8092.0908968036665</v>
       </c>
     </row>
     <row r="483" spans="1:10" x14ac:dyDescent="0.3">
@@ -26104,13 +25924,13 @@
         <v>46.89</v>
       </c>
       <c r="H483">
-        <v>283112.19</v>
+        <v>2.6421466102127229</v>
       </c>
       <c r="I483">
-        <v>2.6421466102127229</v>
+        <v>8005.1027153496661</v>
       </c>
       <c r="J483">
-        <v>8005.1027153496661</v>
+        <v>8092.0908968036665</v>
       </c>
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.3">
@@ -26137,13 +25957,13 @@
         <v>44.19</v>
       </c>
       <c r="H484">
-        <v>286303.74600000004</v>
+        <v>2.5873350140886848</v>
       </c>
       <c r="I484">
-        <v>2.5873350140886848</v>
+        <v>8005.1027153496661</v>
       </c>
       <c r="J484">
-        <v>8005.1027153496661</v>
+        <v>8092.0908968036665</v>
       </c>
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.3">
@@ -26170,13 +25990,13 @@
         <v>50.28</v>
       </c>
       <c r="H485">
-        <v>286483.84499999997</v>
+        <v>2.3825200291332851</v>
       </c>
       <c r="I485">
-        <v>2.3825200291332851</v>
+        <v>8005.1027153496661</v>
       </c>
       <c r="J485">
-        <v>8005.1027153496661</v>
+        <v>8092.0908968036665</v>
       </c>
     </row>
     <row r="486" spans="1:10" x14ac:dyDescent="0.3">
@@ -26203,13 +26023,13 @@
         <v>54.54</v>
       </c>
       <c r="H486">
-        <v>287245.41500000004</v>
+        <v>2.6135660452201508</v>
       </c>
       <c r="I486">
-        <v>2.6135660452201508</v>
+        <v>8005.1027153496661</v>
       </c>
       <c r="J486">
-        <v>8005.1027153496661</v>
+        <v>8092.0908968036665</v>
       </c>
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.3">
@@ -26236,13 +26056,13 @@
         <v>54.89</v>
       </c>
       <c r="H487">
-        <v>288889.29499999998</v>
+        <v>2.5415324548560276</v>
       </c>
       <c r="I487">
-        <v>2.5415324548560276</v>
+        <v>8005.1027153496661</v>
       </c>
       <c r="J487">
-        <v>8005.1027153496661</v>
+        <v>8092.0908968036665</v>
       </c>
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.3">
@@ -26269,13 +26089,13 @@
         <v>46.63</v>
       </c>
       <c r="H488">
-        <v>290566.85799999995</v>
+        <v>2.5925587999311084</v>
       </c>
       <c r="I488">
-        <v>2.5925587999311084</v>
+        <v>8005.1027153496661</v>
       </c>
       <c r="J488">
-        <v>8005.1027153496661</v>
+        <v>8092.0908968036665</v>
       </c>
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.3">
@@ -26302,13 +26122,13 @@
         <v>39.28</v>
       </c>
       <c r="H489">
-        <v>290334.31600000017</v>
+        <v>2.52869746416388</v>
       </c>
       <c r="I489">
-        <v>2.52869746416388</v>
+        <v>8005.1027153496661</v>
       </c>
       <c r="J489">
-        <v>8005.1027153496661</v>
+        <v>8092.0908968036665</v>
       </c>
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.3">
@@ -26335,13 +26155,13 @@
         <v>41.76</v>
       </c>
       <c r="H490">
-        <v>289666.30200000014</v>
+        <v>2.4332522125756824</v>
       </c>
       <c r="I490">
-        <v>2.4332522125756824</v>
+        <v>8005.1027153496661</v>
       </c>
       <c r="J490">
-        <v>8005.1027153496661</v>
+        <v>8092.0908968036665</v>
       </c>
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.3">
@@ -26368,13 +26188,13 @@
         <v>42.39</v>
       </c>
       <c r="H491">
-        <v>290281.66900000005</v>
+        <v>2.1277797637321734</v>
       </c>
       <c r="I491">
-        <v>2.1277797637321734</v>
+        <v>8005.1027153496661</v>
       </c>
       <c r="J491">
-        <v>8005.1027153496661</v>
+        <v>8092.0908968036665</v>
       </c>
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.3">
@@ -26401,13 +26221,13 @@
         <v>38.89</v>
       </c>
       <c r="H492">
-        <v>291112.30999999988</v>
+        <v>1.9057811239580533</v>
       </c>
       <c r="I492">
-        <v>1.9057811239580533</v>
+        <v>8005.1027153496661</v>
       </c>
       <c r="J492">
-        <v>8005.1027153496661</v>
+        <v>8092.0908968036665</v>
       </c>
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.3">
@@ -26434,13 +26254,13 @@
         <v>34.1</v>
       </c>
       <c r="H493">
-        <v>290975.61800000013</v>
+        <v>1.7606546209900891</v>
       </c>
       <c r="I493">
-        <v>1.7606546209900891</v>
+        <v>8091.9892900152508</v>
       </c>
       <c r="J493">
-        <v>8091.9892900152508</v>
+        <v>8092.0908968036665</v>
       </c>
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.3">
@@ -26467,13 +26287,13 @@
         <v>29.05</v>
       </c>
       <c r="H494">
-        <v>290455.80400000012</v>
+        <v>2.0814672480269771</v>
       </c>
       <c r="I494">
-        <v>2.0814672480269771</v>
+        <v>8091.9892900152508</v>
       </c>
       <c r="J494">
-        <v>8091.9892900152508</v>
+        <v>8125.9152174408337</v>
       </c>
     </row>
     <row r="495" spans="1:10" x14ac:dyDescent="0.3">
@@ -26500,13 +26320,13 @@
         <v>27.84</v>
       </c>
       <c r="H495">
-        <v>287923.56200000015</v>
+        <v>1.7999688380378072</v>
       </c>
       <c r="I495">
-        <v>1.7999688380378072</v>
+        <v>8091.9892900152508</v>
       </c>
       <c r="J495">
-        <v>8091.9892900152508</v>
+        <v>8125.9152174408337</v>
       </c>
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.3">
@@ -26533,13 +26353,13 @@
         <v>34.4</v>
       </c>
       <c r="H496">
-        <v>288423.77100000012</v>
+        <v>1.557465614733782</v>
       </c>
       <c r="I496">
-        <v>1.557465614733782</v>
+        <v>8091.9892900152508</v>
       </c>
       <c r="J496">
-        <v>8091.9892900152508</v>
+        <v>8125.9152174408337</v>
       </c>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.3">
@@ -26566,13 +26386,13 @@
         <v>37.21</v>
       </c>
       <c r="H497">
-        <v>287446.37200000015</v>
+        <v>1.7349462162988274</v>
       </c>
       <c r="I497">
-        <v>1.7349462162988274</v>
+        <v>8091.9892900152508</v>
       </c>
       <c r="J497">
-        <v>8091.9892900152508</v>
+        <v>8125.9152174408337</v>
       </c>
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.3">
@@ -26599,13 +26419,13 @@
         <v>42.54</v>
       </c>
       <c r="H498">
-        <v>285931.67300000013</v>
+        <v>1.7485450840209802</v>
       </c>
       <c r="I498">
-        <v>1.7485450840209802</v>
+        <v>8091.9892900152508</v>
       </c>
       <c r="J498">
-        <v>8091.9892900152508</v>
+        <v>8125.9152174408337</v>
       </c>
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.3">
@@ -26632,13 +26452,13 @@
         <v>44.28</v>
       </c>
       <c r="H499">
-        <v>287438.83000000013</v>
+        <v>2.333649502221371</v>
       </c>
       <c r="I499">
-        <v>2.333649502221371</v>
+        <v>8091.9892900152508</v>
       </c>
       <c r="J499">
-        <v>8091.9892900152508</v>
+        <v>8125.9152174408337</v>
       </c>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.3">
@@ -26665,13 +26485,13 @@
         <v>40.549999999999997</v>
       </c>
       <c r="H500">
-        <v>290606.12700000004</v>
+        <v>2.5335965021861337</v>
       </c>
       <c r="I500">
-        <v>2.5335965021861337</v>
+        <v>8091.9892900152508</v>
       </c>
       <c r="J500">
-        <v>8091.9892900152508</v>
+        <v>8125.9152174408337</v>
       </c>
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.3">
@@ -26698,13 +26518,13 @@
         <v>40.53</v>
       </c>
       <c r="H501">
-        <v>287620.66200000013</v>
+        <v>2.5288368342740295</v>
       </c>
       <c r="I501">
-        <v>2.5288368342740295</v>
+        <v>8091.9892900152508</v>
       </c>
       <c r="J501">
-        <v>8091.9892900152508</v>
+        <v>8125.9152174408337</v>
       </c>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.3">
@@ -26731,13 +26551,13 @@
         <v>40.869999999999997</v>
       </c>
       <c r="H502">
-        <v>288073.25800000003</v>
+        <v>2.686973296107463</v>
       </c>
       <c r="I502">
-        <v>2.686973296107463</v>
+        <v>8091.9892900152508</v>
       </c>
       <c r="J502">
-        <v>8091.9892900152508</v>
+        <v>8125.9152174408337</v>
       </c>
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.3">
@@ -26764,13 +26584,13 @@
         <v>44.92</v>
       </c>
       <c r="H503">
-        <v>291784.47100000008</v>
+        <v>2.6618119830692915</v>
       </c>
       <c r="I503">
-        <v>2.6618119830692915</v>
+        <v>8091.9892900152508</v>
       </c>
       <c r="J503">
-        <v>8091.9892900152508</v>
+        <v>8125.9152174408337</v>
       </c>
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.3">
@@ -26797,13 +26617,13 @@
         <v>41.14</v>
       </c>
       <c r="H504">
-        <v>295191.32400000014</v>
+        <v>2.2526226196034358</v>
       </c>
       <c r="I504">
-        <v>2.2526226196034358</v>
+        <v>8091.9892900152508</v>
       </c>
       <c r="J504">
-        <v>8091.9892900152508</v>
+        <v>8125.9152174408337</v>
       </c>
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.3">
@@ -26830,13 +26650,13 @@
         <v>46.68</v>
       </c>
       <c r="H505">
-        <v>291927.6750000001</v>
+        <v>3.2158832155273265</v>
       </c>
       <c r="I505">
-        <v>3.2158832155273265</v>
+        <v>8158.333333333333</v>
       </c>
       <c r="J505">
-        <v>8158.333333333333</v>
+        <v>8125.9152174408337</v>
       </c>
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.3">
@@ -26863,13 +26683,13 @@
         <v>46.97</v>
       </c>
       <c r="H506">
-        <v>288973.02800000022</v>
+        <v>2.9163212732791863</v>
       </c>
       <c r="I506">
-        <v>2.9163212732791863</v>
+        <v>8158.333333333333</v>
       </c>
       <c r="J506">
-        <v>8158.333333333333</v>
+        <v>8176.5388458904163</v>
       </c>
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.3">
@@ -26896,13 +26716,13 @@
         <v>47.8</v>
       </c>
       <c r="H507">
-        <v>289429.13600000029</v>
+        <v>2.5208357073466661</v>
       </c>
       <c r="I507">
-        <v>2.5208357073466661</v>
+        <v>8158.333333333333</v>
       </c>
       <c r="J507">
-        <v>8158.333333333333</v>
+        <v>8176.5388458904163</v>
       </c>
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.3">
@@ -26929,13 +26749,13 @@
         <v>44.14</v>
       </c>
       <c r="H508">
-        <v>287497.23900000018</v>
+        <v>2.5677627395394444</v>
       </c>
       <c r="I508">
-        <v>2.5677627395394444</v>
+        <v>8158.333333333333</v>
       </c>
       <c r="J508">
-        <v>8158.333333333333</v>
+        <v>8176.5388458904163</v>
       </c>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.3">
@@ -26962,13 +26782,13 @@
         <v>45.63</v>
       </c>
       <c r="H509">
-        <v>286877.55000000016</v>
+        <v>2.7522378519243933</v>
       </c>
       <c r="I509">
-        <v>2.7522378519243933</v>
+        <v>8158.333333333333</v>
       </c>
       <c r="J509">
-        <v>8158.333333333333</v>
+        <v>8176.5388458904163</v>
       </c>
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.3">
@@ -26995,13 +26815,13 @@
         <v>43.34</v>
       </c>
       <c r="H510">
-        <v>289741.7200000002</v>
+        <v>2.7889982866184084</v>
       </c>
       <c r="I510">
-        <v>2.7889982866184084</v>
+        <v>8158.333333333333</v>
       </c>
       <c r="J510">
-        <v>8158.333333333333</v>
+        <v>8176.5388458904163</v>
       </c>
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.3">
@@ -27028,13 +26848,13 @@
         <v>40.35</v>
       </c>
       <c r="H511">
-        <v>291875.41500000021</v>
+        <v>2.6257267120426571</v>
       </c>
       <c r="I511">
-        <v>2.6257267120426571</v>
+        <v>8158.333333333333</v>
       </c>
       <c r="J511">
-        <v>8158.333333333333</v>
+        <v>8176.5388458904163</v>
       </c>
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.3">
@@ -27061,13 +26881,13 @@
         <v>41.61</v>
       </c>
       <c r="H512">
-        <v>294037.90000000026</v>
+        <v>2.6413388436515408</v>
       </c>
       <c r="I512">
-        <v>2.6413388436515408</v>
+        <v>8158.333333333333</v>
       </c>
       <c r="J512">
-        <v>8158.333333333333</v>
+        <v>8176.5388458904163</v>
       </c>
     </row>
     <row r="513" spans="1:10" x14ac:dyDescent="0.3">
@@ -27094,13 +26914,13 @@
         <v>42.71</v>
       </c>
       <c r="H513">
-        <v>291783.83900000015</v>
+        <v>2.5604487621128675</v>
       </c>
       <c r="I513">
-        <v>2.5604487621128675</v>
+        <v>8158.333333333333</v>
       </c>
       <c r="J513">
-        <v>8158.333333333333</v>
+        <v>8176.5388458904163</v>
       </c>
     </row>
     <row r="514" spans="1:10" x14ac:dyDescent="0.3">
@@ -27127,13 +26947,13 @@
         <v>44.09</v>
       </c>
       <c r="H514">
-        <v>292217.81800000032</v>
+        <v>2.6196008408476654</v>
       </c>
       <c r="I514">
-        <v>2.6196008408476654</v>
+        <v>8158.333333333333</v>
       </c>
       <c r="J514">
-        <v>8158.333333333333</v>
+        <v>8176.5388458904163</v>
       </c>
     </row>
     <row r="515" spans="1:10" x14ac:dyDescent="0.3">
@@ -27160,13 +26980,13 @@
         <v>45.62</v>
       </c>
       <c r="H515">
-        <v>293700.46800000028</v>
+        <v>2.5382100435140544</v>
       </c>
       <c r="I515">
-        <v>2.5382100435140544</v>
+        <v>8158.333333333333</v>
       </c>
       <c r="J515">
-        <v>8158.333333333333</v>
+        <v>8176.5388458904163</v>
       </c>
     </row>
     <row r="516" spans="1:10" x14ac:dyDescent="0.3">
@@ -27193,13 +27013,13 @@
         <v>49.94</v>
       </c>
       <c r="H516">
-        <v>295432.24300000037</v>
+        <v>2.6363721637313415</v>
       </c>
       <c r="I516">
-        <v>2.6363721637313415</v>
+        <v>8158.333333333333</v>
       </c>
       <c r="J516">
-        <v>8158.333333333333</v>
+        <v>8176.5388458904163</v>
       </c>
     </row>
     <row r="517" spans="1:10" x14ac:dyDescent="0.3">
@@ -27226,13 +27046,13 @@
         <v>50.92</v>
       </c>
       <c r="H517">
-        <v>293199.71800000017</v>
+        <v>2.4279885922202813</v>
       </c>
       <c r="I517">
-        <v>2.4279885922202813</v>
+        <v>8275</v>
       </c>
       <c r="J517">
-        <v>8275</v>
+        <v>8176.5388458904163</v>
       </c>
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.3">
@@ -27259,13 +27079,13 @@
         <v>55.82</v>
       </c>
       <c r="H518">
-        <v>294525.30000000028</v>
+        <v>3.3997782099291238</v>
       </c>
       <c r="I518">
-        <v>3.3997782099291238</v>
+        <v>8275</v>
       </c>
       <c r="J518">
-        <v>8275</v>
+        <v>8404.3816744291671</v>
       </c>
     </row>
     <row r="519" spans="1:10" x14ac:dyDescent="0.3">
@@ -27292,13 +27112,13 @@
         <v>54.42</v>
       </c>
       <c r="H519">
-        <v>295367.56200000021</v>
+        <v>2.3349879094835364</v>
       </c>
       <c r="I519">
-        <v>2.3349879094835364</v>
+        <v>8275</v>
       </c>
       <c r="J519">
-        <v>8275</v>
+        <v>8404.3816744291671</v>
       </c>
     </row>
     <row r="520" spans="1:10" x14ac:dyDescent="0.3">
@@ -27325,13 +27145,13 @@
         <v>54.83</v>
       </c>
       <c r="H520">
-        <v>295706.0900000002</v>
+        <v>2.3512621343658067</v>
       </c>
       <c r="I520">
-        <v>2.3512621343658067</v>
+        <v>8275</v>
       </c>
       <c r="J520">
-        <v>8275</v>
+        <v>8404.3816744291671</v>
       </c>
     </row>
     <row r="521" spans="1:10" x14ac:dyDescent="0.3">
@@ -27358,13 +27178,13 @@
         <v>57.8</v>
       </c>
       <c r="H521">
-        <v>295885.00500000012</v>
+        <v>2.4080270127542445</v>
       </c>
       <c r="I521">
-        <v>2.4080270127542445</v>
+        <v>8275</v>
       </c>
       <c r="J521">
-        <v>8275</v>
+        <v>8404.3816744291671</v>
       </c>
     </row>
     <row r="522" spans="1:10" x14ac:dyDescent="0.3">
@@ -27391,13 +27211,13 @@
         <v>60.89</v>
       </c>
       <c r="H522">
-        <v>295849.44300000026</v>
+        <v>2.4187994222927953</v>
       </c>
       <c r="I522">
-        <v>2.4187994222927953</v>
+        <v>8275</v>
       </c>
       <c r="J522">
-        <v>8275</v>
+        <v>8404.3816744291671</v>
       </c>
     </row>
     <row r="523" spans="1:10" x14ac:dyDescent="0.3">
@@ -27424,13 +27244,13 @@
         <v>58.94</v>
       </c>
       <c r="H523">
-        <v>298371.65600000031</v>
+        <v>2.5530402096092129</v>
       </c>
       <c r="I523">
-        <v>2.5530402096092129</v>
+        <v>8275</v>
       </c>
       <c r="J523">
-        <v>8275</v>
+        <v>8404.3816744291671</v>
       </c>
     </row>
     <row r="524" spans="1:10" x14ac:dyDescent="0.3">
@@ -27457,13 +27277,13 @@
         <v>61.52</v>
       </c>
       <c r="H524">
-        <v>300698.80100000027</v>
+        <v>2.4269923727230451</v>
       </c>
       <c r="I524">
-        <v>2.4269923727230451</v>
+        <v>8275</v>
       </c>
       <c r="J524">
-        <v>8275</v>
+        <v>8404.3816744291671</v>
       </c>
     </row>
     <row r="525" spans="1:10" x14ac:dyDescent="0.3">
@@ -27490,13 +27310,13 @@
         <v>58.93</v>
       </c>
       <c r="H525">
-        <v>302101.64000000031</v>
+        <v>2.5628051564441656</v>
       </c>
       <c r="I525">
-        <v>2.5628051564441656</v>
+        <v>8275</v>
       </c>
       <c r="J525">
-        <v>8275</v>
+        <v>8404.3816744291671</v>
       </c>
     </row>
     <row r="526" spans="1:10" x14ac:dyDescent="0.3">
@@ -27523,13 +27343,13 @@
         <v>60.77</v>
       </c>
       <c r="H526">
-        <v>302215.07700000028</v>
+        <v>2.5960874568469507</v>
       </c>
       <c r="I526">
-        <v>2.5960874568469507</v>
+        <v>8275</v>
       </c>
       <c r="J526">
-        <v>8275</v>
+        <v>8404.3816744291671</v>
       </c>
     </row>
     <row r="527" spans="1:10" x14ac:dyDescent="0.3">
@@ -27556,13 +27376,13 @@
         <v>61.03</v>
       </c>
       <c r="H527">
-        <v>304741.65500000026</v>
+        <v>2.8382129322689624</v>
       </c>
       <c r="I527">
-        <v>2.8382129322689624</v>
+        <v>8275</v>
       </c>
       <c r="J527">
-        <v>8275</v>
+        <v>8404.3816744291671</v>
       </c>
     </row>
     <row r="528" spans="1:10" x14ac:dyDescent="0.3">
@@ -27589,13 +27409,13 @@
         <v>49.14</v>
       </c>
       <c r="H528">
-        <v>305019.17900000029</v>
+        <v>3.5719702484570344</v>
       </c>
       <c r="I528">
-        <v>3.5719702484570344</v>
+        <v>8275</v>
       </c>
       <c r="J528">
-        <v>8275</v>
+        <v>8404.3816744291671</v>
       </c>
     </row>
     <row r="529" spans="1:10" x14ac:dyDescent="0.3">
@@ -27622,13 +27442,13 @@
         <v>42.73</v>
       </c>
       <c r="H529">
-        <v>303033.66400000022</v>
+        <v>3.4085382019048525</v>
       </c>
       <c r="I529">
-        <v>3.4085382019048525</v>
+        <v>8358.3333333333339</v>
       </c>
       <c r="J529">
-        <v>8358.3333333333339</v>
+        <v>8404.3816744291671</v>
       </c>
     </row>
     <row r="530" spans="1:10" x14ac:dyDescent="0.3">
@@ -27655,12 +27475,9 @@
         <v>44.35</v>
       </c>
       <c r="H530">
-        <v>298683.28400000022</v>
+        <v>2.6583228124888691</v>
       </c>
       <c r="I530">
-        <v>2.6583228124888691</v>
-      </c>
-      <c r="J530">
         <v>8358.3333333333339</v>
       </c>
     </row>
@@ -27688,12 +27505,9 @@
         <v>47.34</v>
       </c>
       <c r="H531">
-        <v>298063.44100000011</v>
+        <v>2.3435287796359732</v>
       </c>
       <c r="I531">
-        <v>2.3435287796359732</v>
-      </c>
-      <c r="J531">
         <v>8358.3333333333339</v>
       </c>
     </row>
@@ -27721,12 +27535,9 @@
         <v>49.9</v>
       </c>
       <c r="H532">
-        <v>298013.6230000002</v>
+        <v>2.5227631144057794</v>
       </c>
       <c r="I532">
-        <v>2.5227631144057794</v>
-      </c>
-      <c r="J532">
         <v>8358.3333333333339</v>
       </c>
     </row>
@@ -27754,12 +27565,9 @@
         <v>54.62</v>
       </c>
       <c r="H533">
-        <v>298315.38300000021</v>
+        <v>2.2666949066120696</v>
       </c>
       <c r="I533">
-        <v>2.2666949066120696</v>
-      </c>
-      <c r="J533">
         <v>8358.3333333333339</v>
       </c>
     </row>
@@ -27787,12 +27595,9 @@
         <v>51.99</v>
       </c>
       <c r="H534">
-        <v>297656.18100000022</v>
+        <v>2.2478509141502223</v>
       </c>
       <c r="I534">
-        <v>2.2478509141502223</v>
-      </c>
-      <c r="J534">
         <v>8358.3333333333339</v>
       </c>
     </row>
@@ -27820,12 +27625,9 @@
         <v>46.69</v>
       </c>
       <c r="H535">
-        <v>298811.5680000002</v>
+        <v>2.0500656078024324</v>
       </c>
       <c r="I535">
-        <v>2.0500656078024324</v>
-      </c>
-      <c r="J535">
         <v>8358.3333333333339</v>
       </c>
     </row>
@@ -27853,12 +27655,9 @@
         <v>48.82</v>
       </c>
       <c r="H536">
-        <v>297266.9320000002</v>
+        <v>2.0091614258220414</v>
       </c>
       <c r="I536">
-        <v>2.0091614258220414</v>
-      </c>
-      <c r="J536">
         <v>8358.3333333333339</v>
       </c>
     </row>
@@ -27885,10 +27684,10 @@
       <c r="G537">
         <v>46.64</v>
       </c>
+      <c r="H537">
+        <v>1.8889488880218497</v>
+      </c>
       <c r="I537">
-        <v>1.8889488880218497</v>
-      </c>
-      <c r="J537">
         <v>8358.3333333333339</v>
       </c>
     </row>
@@ -27915,10 +27714,10 @@
       <c r="G538">
         <v>48.45</v>
       </c>
+      <c r="H538">
+        <v>2.1947682537701185</v>
+      </c>
       <c r="I538">
-        <v>2.1947682537701185</v>
-      </c>
-      <c r="J538">
         <v>8358.3333333333339</v>
       </c>
     </row>
@@ -27945,7 +27744,7 @@
       <c r="G539">
         <v>49.24</v>
       </c>
-      <c r="I539">
+      <c r="H539">
         <v>49.240945151221865</v>
       </c>
     </row>

--- a/Data/Model_Data_Rev1.xlsx
+++ b/Data/Model_Data_Rev1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Homework\Project_3\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{3D00718E-777A-4932-BD77-0364457C7C3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6034FAA9-3B69-40BA-A371-4145516A22E0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0D1142-C44B-4037-B85F-E61B3BF5404B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,6 +609,8370 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Model_Data!$A$132:$A$538</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="407"/>
+                <c:pt idx="0">
+                  <c:v>31352</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31382</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31413</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31472</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31503</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31533</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31564</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31594</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31656</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31686</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31717</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31747</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31778</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31809</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31837</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31868</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31898</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31929</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31959</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31990</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32021</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32051</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32082</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32112</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32143</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32174</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32203</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32234</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32264</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32295</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32325</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32356</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>32387</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32417</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32448</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32478</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>32509</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32540</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32568</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>32599</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>32629</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>32660</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32690</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>32721</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>32752</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>32782</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>32813</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>32843</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>32874</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>32905</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>32933</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>32964</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>32994</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>33025</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>33055</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>33086</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>33117</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>33147</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>33178</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>33208</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>33239</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>33270</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>33298</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>33329</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>33359</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>33390</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>33420</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>33451</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>33482</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>33512</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>33543</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>33573</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>33604</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>33635</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>33664</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>33695</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>33725</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>33756</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>33786</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>33817</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>33848</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>33878</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>33909</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>33939</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>33970</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>34001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>34029</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>34060</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>34090</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>34121</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>34151</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>34182</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>34213</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>34243</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>34274</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>34304</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>34335</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>34366</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>34394</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>34425</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>34455</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>34486</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>34516</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>34547</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>34578</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>34608</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>34639</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>34669</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>34700</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>34731</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>34759</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>34790</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>34820</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>34851</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>34881</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>34912</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>34943</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>34973</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>35004</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>35034</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>35065</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>35096</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>35125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>35156</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>35186</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>35217</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>35247</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>35278</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>35309</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>35339</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>35370</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>35400</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>35431</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>35462</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>35490</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>35521</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>35551</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>35582</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>35612</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>35643</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>35674</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>35704</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>35735</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>35765</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>35796</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>35827</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>35855</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>35886</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>35916</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>35947</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>35977</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>36008</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>36039</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>36069</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>36100</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>36130</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>36161</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>36192</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>36220</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>36251</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>36281</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>36312</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>36342</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>36373</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>36404</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>36434</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>36465</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>36495</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>36526</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>36557</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>36586</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>36617</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>36647</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>36678</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>36708</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>36739</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>36770</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>36800</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>36831</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>36861</c:v>
+                </c:pt>
+                <c:pt idx="182" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>36892</c:v>
+                </c:pt>
+                <c:pt idx="183" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>36923</c:v>
+                </c:pt>
+                <c:pt idx="184" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>36951</c:v>
+                </c:pt>
+                <c:pt idx="185" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>36982</c:v>
+                </c:pt>
+                <c:pt idx="186" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37012</c:v>
+                </c:pt>
+                <c:pt idx="187" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37043</c:v>
+                </c:pt>
+                <c:pt idx="188" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37073</c:v>
+                </c:pt>
+                <c:pt idx="189" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37104</c:v>
+                </c:pt>
+                <c:pt idx="190" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37135</c:v>
+                </c:pt>
+                <c:pt idx="191" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37165</c:v>
+                </c:pt>
+                <c:pt idx="192" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37196</c:v>
+                </c:pt>
+                <c:pt idx="193" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37226</c:v>
+                </c:pt>
+                <c:pt idx="194" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37257</c:v>
+                </c:pt>
+                <c:pt idx="195" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37288</c:v>
+                </c:pt>
+                <c:pt idx="196" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37316</c:v>
+                </c:pt>
+                <c:pt idx="197" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37347</c:v>
+                </c:pt>
+                <c:pt idx="198" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37377</c:v>
+                </c:pt>
+                <c:pt idx="199" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37408</c:v>
+                </c:pt>
+                <c:pt idx="200" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37438</c:v>
+                </c:pt>
+                <c:pt idx="201" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37469</c:v>
+                </c:pt>
+                <c:pt idx="202" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37500</c:v>
+                </c:pt>
+                <c:pt idx="203" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37530</c:v>
+                </c:pt>
+                <c:pt idx="204" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37561</c:v>
+                </c:pt>
+                <c:pt idx="205" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37591</c:v>
+                </c:pt>
+                <c:pt idx="206" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37622</c:v>
+                </c:pt>
+                <c:pt idx="207" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37653</c:v>
+                </c:pt>
+                <c:pt idx="208" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37681</c:v>
+                </c:pt>
+                <c:pt idx="209" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37712</c:v>
+                </c:pt>
+                <c:pt idx="210" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37742</c:v>
+                </c:pt>
+                <c:pt idx="211" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37773</c:v>
+                </c:pt>
+                <c:pt idx="212" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37803</c:v>
+                </c:pt>
+                <c:pt idx="213" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37834</c:v>
+                </c:pt>
+                <c:pt idx="214" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37865</c:v>
+                </c:pt>
+                <c:pt idx="215" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37895</c:v>
+                </c:pt>
+                <c:pt idx="216" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37926</c:v>
+                </c:pt>
+                <c:pt idx="217" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37956</c:v>
+                </c:pt>
+                <c:pt idx="218" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37987</c:v>
+                </c:pt>
+                <c:pt idx="219" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38018</c:v>
+                </c:pt>
+                <c:pt idx="220" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38047</c:v>
+                </c:pt>
+                <c:pt idx="221" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38078</c:v>
+                </c:pt>
+                <c:pt idx="222" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38108</c:v>
+                </c:pt>
+                <c:pt idx="223" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38139</c:v>
+                </c:pt>
+                <c:pt idx="224" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38169</c:v>
+                </c:pt>
+                <c:pt idx="225" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38200</c:v>
+                </c:pt>
+                <c:pt idx="226" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38231</c:v>
+                </c:pt>
+                <c:pt idx="227" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38261</c:v>
+                </c:pt>
+                <c:pt idx="228" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38292</c:v>
+                </c:pt>
+                <c:pt idx="229" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38322</c:v>
+                </c:pt>
+                <c:pt idx="230" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38353</c:v>
+                </c:pt>
+                <c:pt idx="231" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38384</c:v>
+                </c:pt>
+                <c:pt idx="232" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38412</c:v>
+                </c:pt>
+                <c:pt idx="233" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38443</c:v>
+                </c:pt>
+                <c:pt idx="234" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38473</c:v>
+                </c:pt>
+                <c:pt idx="235" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38504</c:v>
+                </c:pt>
+                <c:pt idx="236" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38534</c:v>
+                </c:pt>
+                <c:pt idx="237" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38565</c:v>
+                </c:pt>
+                <c:pt idx="238" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38596</c:v>
+                </c:pt>
+                <c:pt idx="239" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38626</c:v>
+                </c:pt>
+                <c:pt idx="240" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38657</c:v>
+                </c:pt>
+                <c:pt idx="241" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38687</c:v>
+                </c:pt>
+                <c:pt idx="242" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38718</c:v>
+                </c:pt>
+                <c:pt idx="243" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38749</c:v>
+                </c:pt>
+                <c:pt idx="244" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38777</c:v>
+                </c:pt>
+                <c:pt idx="245" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38808</c:v>
+                </c:pt>
+                <c:pt idx="246" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38838</c:v>
+                </c:pt>
+                <c:pt idx="247" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38869</c:v>
+                </c:pt>
+                <c:pt idx="248" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38899</c:v>
+                </c:pt>
+                <c:pt idx="249" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38930</c:v>
+                </c:pt>
+                <c:pt idx="250" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38961</c:v>
+                </c:pt>
+                <c:pt idx="251" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38991</c:v>
+                </c:pt>
+                <c:pt idx="252" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39022</c:v>
+                </c:pt>
+                <c:pt idx="253" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39052</c:v>
+                </c:pt>
+                <c:pt idx="254" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39083</c:v>
+                </c:pt>
+                <c:pt idx="255" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39114</c:v>
+                </c:pt>
+                <c:pt idx="256" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39142</c:v>
+                </c:pt>
+                <c:pt idx="257" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39173</c:v>
+                </c:pt>
+                <c:pt idx="258" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39203</c:v>
+                </c:pt>
+                <c:pt idx="259" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39234</c:v>
+                </c:pt>
+                <c:pt idx="260" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39264</c:v>
+                </c:pt>
+                <c:pt idx="261" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39295</c:v>
+                </c:pt>
+                <c:pt idx="262" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39326</c:v>
+                </c:pt>
+                <c:pt idx="263" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39356</c:v>
+                </c:pt>
+                <c:pt idx="264" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39387</c:v>
+                </c:pt>
+                <c:pt idx="265" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39417</c:v>
+                </c:pt>
+                <c:pt idx="266" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39448</c:v>
+                </c:pt>
+                <c:pt idx="267" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39479</c:v>
+                </c:pt>
+                <c:pt idx="268" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39508</c:v>
+                </c:pt>
+                <c:pt idx="269" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39539</c:v>
+                </c:pt>
+                <c:pt idx="270" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39569</c:v>
+                </c:pt>
+                <c:pt idx="271" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39600</c:v>
+                </c:pt>
+                <c:pt idx="272" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39630</c:v>
+                </c:pt>
+                <c:pt idx="273" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39661</c:v>
+                </c:pt>
+                <c:pt idx="274" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39692</c:v>
+                </c:pt>
+                <c:pt idx="275" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39722</c:v>
+                </c:pt>
+                <c:pt idx="276" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39753</c:v>
+                </c:pt>
+                <c:pt idx="277" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39783</c:v>
+                </c:pt>
+                <c:pt idx="278" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39814</c:v>
+                </c:pt>
+                <c:pt idx="279" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39845</c:v>
+                </c:pt>
+                <c:pt idx="280" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39873</c:v>
+                </c:pt>
+                <c:pt idx="281" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39904</c:v>
+                </c:pt>
+                <c:pt idx="282" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39934</c:v>
+                </c:pt>
+                <c:pt idx="283" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39965</c:v>
+                </c:pt>
+                <c:pt idx="284" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39995</c:v>
+                </c:pt>
+                <c:pt idx="285" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40026</c:v>
+                </c:pt>
+                <c:pt idx="286" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40057</c:v>
+                </c:pt>
+                <c:pt idx="287" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40087</c:v>
+                </c:pt>
+                <c:pt idx="288" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40118</c:v>
+                </c:pt>
+                <c:pt idx="289" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40148</c:v>
+                </c:pt>
+                <c:pt idx="290" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40179</c:v>
+                </c:pt>
+                <c:pt idx="291" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40210</c:v>
+                </c:pt>
+                <c:pt idx="292" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40238</c:v>
+                </c:pt>
+                <c:pt idx="293" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40269</c:v>
+                </c:pt>
+                <c:pt idx="294" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40299</c:v>
+                </c:pt>
+                <c:pt idx="295" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40330</c:v>
+                </c:pt>
+                <c:pt idx="296" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40360</c:v>
+                </c:pt>
+                <c:pt idx="297" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40391</c:v>
+                </c:pt>
+                <c:pt idx="298" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40422</c:v>
+                </c:pt>
+                <c:pt idx="299" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40452</c:v>
+                </c:pt>
+                <c:pt idx="300" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40483</c:v>
+                </c:pt>
+                <c:pt idx="301" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40513</c:v>
+                </c:pt>
+                <c:pt idx="302" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40544</c:v>
+                </c:pt>
+                <c:pt idx="303" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40575</c:v>
+                </c:pt>
+                <c:pt idx="304" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40603</c:v>
+                </c:pt>
+                <c:pt idx="305" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40634</c:v>
+                </c:pt>
+                <c:pt idx="306" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40664</c:v>
+                </c:pt>
+                <c:pt idx="307" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40695</c:v>
+                </c:pt>
+                <c:pt idx="308" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40725</c:v>
+                </c:pt>
+                <c:pt idx="309" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40756</c:v>
+                </c:pt>
+                <c:pt idx="310" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40787</c:v>
+                </c:pt>
+                <c:pt idx="311" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40817</c:v>
+                </c:pt>
+                <c:pt idx="312" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40848</c:v>
+                </c:pt>
+                <c:pt idx="313" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40878</c:v>
+                </c:pt>
+                <c:pt idx="314" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40909</c:v>
+                </c:pt>
+                <c:pt idx="315" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40940</c:v>
+                </c:pt>
+                <c:pt idx="316" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40969</c:v>
+                </c:pt>
+                <c:pt idx="317" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="318" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41030</c:v>
+                </c:pt>
+                <c:pt idx="319" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41061</c:v>
+                </c:pt>
+                <c:pt idx="320" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="321" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41122</c:v>
+                </c:pt>
+                <c:pt idx="322" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41153</c:v>
+                </c:pt>
+                <c:pt idx="323" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41183</c:v>
+                </c:pt>
+                <c:pt idx="324" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41214</c:v>
+                </c:pt>
+                <c:pt idx="325" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41244</c:v>
+                </c:pt>
+                <c:pt idx="326" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="327" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41306</c:v>
+                </c:pt>
+                <c:pt idx="328" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41334</c:v>
+                </c:pt>
+                <c:pt idx="329" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41365</c:v>
+                </c:pt>
+                <c:pt idx="330" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41395</c:v>
+                </c:pt>
+                <c:pt idx="331" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="332" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="333" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41487</c:v>
+                </c:pt>
+                <c:pt idx="334" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41518</c:v>
+                </c:pt>
+                <c:pt idx="335" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41548</c:v>
+                </c:pt>
+                <c:pt idx="336" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41579</c:v>
+                </c:pt>
+                <c:pt idx="337" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41609</c:v>
+                </c:pt>
+                <c:pt idx="338" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="339" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="340" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41699</c:v>
+                </c:pt>
+                <c:pt idx="341" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41730</c:v>
+                </c:pt>
+                <c:pt idx="342" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="343" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="344" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41821</c:v>
+                </c:pt>
+                <c:pt idx="345" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41852</c:v>
+                </c:pt>
+                <c:pt idx="346" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="347" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="348" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="349" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="350" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="351" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="352" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="353" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="354" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="355" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="356" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="357" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="358" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="359" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="360" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="361" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="362" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="363" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="364" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="365" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="366" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="367" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="368" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="369" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="370" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="371" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="372" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="373" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42705</c:v>
+                </c:pt>
+                <c:pt idx="374" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="375" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="376" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="377" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="378" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="379" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="380" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="381" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="382" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42979</c:v>
+                </c:pt>
+                <c:pt idx="383" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43009</c:v>
+                </c:pt>
+                <c:pt idx="384" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43040</c:v>
+                </c:pt>
+                <c:pt idx="385" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43070</c:v>
+                </c:pt>
+                <c:pt idx="386" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="387" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="388" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="389" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="390" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="391" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="392" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43282</c:v>
+                </c:pt>
+                <c:pt idx="393" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43313</c:v>
+                </c:pt>
+                <c:pt idx="394" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="395" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="396" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43405</c:v>
+                </c:pt>
+                <c:pt idx="397" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43435</c:v>
+                </c:pt>
+                <c:pt idx="398" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="399" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="400" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="401" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="402" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="403" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43617</c:v>
+                </c:pt>
+                <c:pt idx="404" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43647</c:v>
+                </c:pt>
+                <c:pt idx="405" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43678</c:v>
+                </c:pt>
+                <c:pt idx="406" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Model_Data!$I$132:$I$538</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="407"/>
+                <c:pt idx="0">
+                  <c:v>4992.77092493075</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5149.6462894977494</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5149.6462894977494</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5149.6462894977494</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5149.6462894977494</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5149.6462894977494</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5149.6462894977494</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5149.6462894977494</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5149.6462894977494</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5149.6462894977494</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5149.6462894977494</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5149.6462894977494</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5149.6462894977494</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5255.1381941780828</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5255.1381941780828</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5255.1381941780828</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5255.1381941780828</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5255.1381941780828</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5255.1381941780828</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5255.1381941780828</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5255.1381941780828</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5255.1381941780828</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5255.1381941780828</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5255.1381941780828</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5255.1381941780828</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5412.9423517948335</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5412.9423517948335</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5412.9423517948335</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5412.9423517948335</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5412.9423517948335</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5412.9423517948335</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5412.9423517948335</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5412.9423517948335</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5412.9423517948335</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5412.9423517948335</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5412.9423517948335</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5412.9423517948335</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5503.8022080136661</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5503.8022080136661</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5503.8022080136661</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5503.8022080136661</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5503.8022080136661</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5503.8022080136661</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5503.8022080136661</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5503.8022080136661</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5503.8022080136661</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5503.8022080136661</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5503.8022080136661</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5503.8022080136661</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5554.9497996917498</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5554.9497996917498</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5554.9497996917498</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5554.9497996917498</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5554.9497996917498</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5554.9497996917498</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5554.9497996917498</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5554.9497996917498</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5554.9497996917498</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5554.9497996917498</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5554.9497996917498</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5554.9497996917498</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5579.6155452511666</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5579.6155452511666</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5579.6155452511666</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5579.6155452511666</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5579.6155452511666</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5579.6155452511666</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5579.6155452511666</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5579.6155452511666</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5579.6155452511666</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5579.6155452511666</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5579.6155452511666</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5579.6155452511666</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5602.9976512795838</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5602.9976512795838</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5602.9976512795838</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5602.9976512795838</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5602.9976512795838</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5602.9976512795838</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5602.9976512795838</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5602.9976512795838</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5602.9976512795838</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5602.9976512795838</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5602.9976512795838</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5602.9976512795838</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5583.6918093036666</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5583.6918093036666</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5583.6918093036666</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5583.6918093036666</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5583.6918093036666</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5583.6918093036666</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5583.6918093036666</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5583.6918093036666</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5583.6918093036666</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5583.6918093036666</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5583.6918093036666</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5583.6918093036666</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5701.7821710616663</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5701.7821710616663</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5701.7821710616663</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5701.7821710616663</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5701.7821710616663</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5701.7821710616663</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5701.7821710616663</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5701.7821710616663</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5701.7821710616663</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5701.7821710616663</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5701.7821710616663</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5701.7821710616663</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5820.8462458357499</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5820.8462458357499</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5820.8462458357499</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5820.8462458357499</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5820.8462458357499</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5820.8462458357499</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5820.8462458357499</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5820.8462458357499</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5820.8462458357499</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5820.8462458357499</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5820.8462458357499</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>5820.8462458357499</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>5992.2054385132506</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5992.2054385132506</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5992.2054385132506</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>5992.2054385132506</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5992.2054385132506</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>5992.2054385132506</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>5992.2054385132506</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>5992.2054385132506</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>5992.2054385132506</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>5992.2054385132506</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>5992.2054385132506</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>5992.2054385132506</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>6093.9747731696662</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>6093.9747731696662</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6093.9747731696662</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>6093.9747731696662</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>6093.9747731696662</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>6093.9747731696662</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>6093.9747731696662</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>6093.9747731696662</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>6093.9747731696662</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>6093.9747731696662</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>6093.9747731696662</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>6093.9747731696662</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>6162.5895042607508</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>6162.5895042607508</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>6162.5895042607508</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>6162.5895042607508</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>6162.5895042607508</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>6162.5895042607508</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>6162.5895042607508</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>6162.5895042607508</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>6162.5895042607508</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6162.5895042607508</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>6162.5895042607508</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>6162.5895042607508</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6300.3318861344169</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6300.3318861344169</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>6300.3318861344169</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>6300.3318861344169</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>6300.3318861344169</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>6300.3318861344169</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>6300.3318861344169</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>6300.3318861344169</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>6300.3318861344169</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>6300.3318861344169</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>6300.3318861344169</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>6300.3318861344169</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>6440.6864477303325</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>6440.6864477303325</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>6440.6864477303325</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>6440.6864477303325</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>6440.6864477303325</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>6440.6864477303325</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>6440.6864477303325</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>6440.6864477303325</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>6440.6864477303325</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>6440.6864477303325</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>6440.6864477303325</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>6440.6864477303325</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>6508.4769006348333</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>6508.4769006348333</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>6508.4769006348333</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>6508.4769006348333</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>6508.4769006348333</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>6508.4769006348333</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>6508.4769006348333</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>6508.4769006348333</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>6508.4769006348333</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>6508.4769006348333</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>6508.4769006348333</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>6508.4769006348333</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>6569.9617535177495</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>6569.9617535177495</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>6569.9617535177495</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>6569.9617535177495</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>6569.9617535177495</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>6569.9617535177495</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>6569.9617535177495</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>6569.9617535177495</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>6569.9617535177495</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>6569.9617535177495</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>6569.9617535177495</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>6569.9617535177495</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>6706.2163981338335</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>6706.2163981338335</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>6706.2163981338335</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>6706.2163981338335</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>6706.2163981338335</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>6706.2163981338335</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>6706.2163981338335</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>6706.2163981338335</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>6706.2163981338335</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>6706.2163981338335</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>6706.2163981338335</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>6706.2163981338335</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>6968.496815135416</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>6968.496815135416</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>6968.496815135416</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>6968.496815135416</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>6968.496815135416</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>6968.496815135416</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>6968.496815135416</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>6968.496815135416</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>6968.496815135416</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>6968.496815135416</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>6968.496815135416</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>6968.496815135416</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>7076.6346961399167</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>7076.6346961399167</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>7076.6346961399167</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>7076.6346961399167</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>7076.6346961399167</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>7076.6346961399167</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>7076.6346961399167</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>7076.6346961399167</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>7076.6346961399167</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>7076.6346961399167</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>7076.6346961399167</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>7076.6346961399167</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>7177.2938619074166</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>7177.2938619074166</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>7177.2938619074166</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>7177.2938619074166</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>7177.2938619074166</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>7177.2938619074166</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>7177.2938619074166</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>7177.2938619074166</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>7177.2938619074166</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>7177.2938619074166</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>7177.2938619074166</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>7177.2938619074166</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>7295.8131212756671</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>7295.8131212756671</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>7295.8131212756671</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>7295.8131212756671</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>7295.8131212756671</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>7295.8131212756671</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>7295.8131212756671</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>7295.8131212756671</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>7295.8131212756671</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>7295.8131212756671</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>7295.8131212756671</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>7295.8131212756671</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>7253.3446709098325</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>7253.3446709098325</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>7253.3446709098325</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>7253.3446709098325</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>7253.3446709098325</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>7253.3446709098325</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>7253.3446709098325</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>7253.3446709098325</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>7253.3446709098325</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>7253.3446709098325</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>7253.3446709098325</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>7253.3446709098325</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>7172.5757773082505</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>7172.5757773082505</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>7172.5757773082505</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>7172.5757773082505</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>7172.5757773082505</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>7172.5757773082505</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>7172.5757773082505</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>7172.5757773082505</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>7172.5757773082505</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>7172.5757773082505</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>7172.5757773082505</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>7172.5757773082505</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>7404.2210640281664</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>7404.2210640281664</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>7404.2210640281664</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>7404.2210640281664</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>7404.2210640281664</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>7404.2210640281664</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>7404.2210640281664</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>7404.2210640281664</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>7404.2210640281664</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>7404.2210640281664</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>7404.2210640281664</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>7404.2210640281664</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>7470.8507910100825</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>7470.8507910100825</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>7470.8507910100825</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>7470.8507910100825</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>7470.8507910100825</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>7470.8507910100825</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>7470.8507910100825</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>7470.8507910100825</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>7470.8507910100825</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>7470.8507910100825</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>7470.8507910100825</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>7470.8507910100825</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>7583.8597079364999</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>7583.8597079364999</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>7583.8597079364999</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>7583.8597079364999</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>7583.8597079364999</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>7583.8597079364999</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>7583.8597079364999</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>7583.8597079364999</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>7583.8597079364999</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>7583.8597079364999</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>7583.8597079364999</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>7583.8597079364999</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>7700.5722596863334</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>7700.5722596863334</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>7700.5722596863334</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>7700.5722596863334</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>7700.5722596863334</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>7700.5722596863334</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>7700.5722596863334</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>7700.5722596863334</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>7700.5722596863334</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>7700.5722596863334</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>7700.5722596863334</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>7700.5722596863334</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>7836.6400631055003</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>7836.6400631055003</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>7836.6400631055003</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>7836.6400631055003</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>7836.6400631055003</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>7836.6400631055003</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>7836.6400631055003</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>7836.6400631055003</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>7836.6400631055003</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>7836.6400631055003</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>7836.6400631055003</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>7836.6400631055003</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>8005.1027153496661</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>8005.1027153496661</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>8005.1027153496661</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>8005.1027153496661</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>8005.1027153496661</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>8005.1027153496661</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>8005.1027153496661</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>8005.1027153496661</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>8005.1027153496661</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>8005.1027153496661</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>8005.1027153496661</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>8005.1027153496661</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>8091.9892900152508</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>8091.9892900152508</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>8091.9892900152508</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>8091.9892900152508</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>8091.9892900152508</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>8091.9892900152508</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>8091.9892900152508</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>8091.9892900152508</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>8091.9892900152508</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>8091.9892900152508</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>8091.9892900152508</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>8091.9892900152508</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>8158.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>8158.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>8158.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>8158.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>8158.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>8158.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>8158.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>8158.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>8158.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>8158.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>8158.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>8158.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>8275</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>8275</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>8275</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>8275</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>8275</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>8275</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>8275</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>8275</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>8275</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>8275</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>8275</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>8275</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>8358.3333333333339</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>8358.3333333333339</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>8358.3333333333339</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>8358.3333333333339</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>8358.3333333333339</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>8358.3333333333339</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>8358.3333333333339</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>8358.3333333333339</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>8358.3333333333339</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>8358.3333333333339</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D965-4001-B90A-3B77C07C5E91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Model_Data!$J$132:$J$538</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="407"/>
+                <c:pt idx="0">
+                  <c:v>4929.6771191533335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4929.6771191533335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5127.9131400385832</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5127.9131400385832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5127.9131400385832</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5127.9131400385832</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5127.9131400385832</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5127.9131400385832</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5127.9131400385832</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5127.9131400385832</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5127.9131400385832</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5127.9131400385832</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5127.9131400385832</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5127.9131400385832</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5175.1058703178333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5175.1058703178333</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5175.1058703178333</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5175.1058703178333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5175.1058703178333</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5175.1058703178333</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5175.1058703178333</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5175.1058703178333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5175.1058703178333</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5175.1058703178333</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5175.1058703178333</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5175.1058703178333</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5366.5609754768329</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5366.5609754768329</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5366.5609754768329</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5366.5609754768329</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5366.5609754768329</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5366.5609754768329</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5366.5609754768329</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5366.5609754768329</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5366.5609754768329</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5366.5609754768329</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5366.5609754768329</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5366.5609754768329</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5460.4092719290829</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5460.4092719290829</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5460.4092719290829</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5460.4092719290829</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5460.4092719290829</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5460.4092719290829</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5460.4092719290829</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5460.4092719290829</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5460.4092719290829</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5460.4092719290829</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5460.4092719290829</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5460.4092719290829</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5536.4319921509996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5536.4319921509996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5536.4319921509996</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5536.4319921509996</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5536.4319921509996</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5536.4319921509996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5536.4319921509996</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5536.4319921509996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5536.4319921509996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5536.4319921509996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5536.4319921509996</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5536.4319921509996</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5528.2375914284166</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5528.2375914284166</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5528.2375914284166</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5528.2375914284166</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5528.2375914284166</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5528.2375914284166</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5528.2375914284166</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5528.2375914284166</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5528.2375914284166</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5528.2375914284166</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5528.2375914284166</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5528.2375914284166</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5545.9975145588332</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5545.9975145588332</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5545.9975145588332</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5545.9975145588332</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5545.9975145588332</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5545.9975145588332</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5545.9975145588332</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5545.9975145588332</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5545.9975145588332</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5545.9975145588332</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5545.9975145588332</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5545.9975145588332</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5591.9719411987498</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5591.9719411987498</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5591.9719411987498</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5591.9719411987498</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5591.9719411987498</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5591.9719411987498</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5591.9719411987498</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5591.9719411987498</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5591.9719411987498</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5591.9719411987498</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5591.9719411987498</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5591.9719411987498</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5719.92399543375</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5719.92399543375</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5719.92399543375</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5719.92399543375</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5719.92399543375</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5719.92399543375</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5719.92399543375</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5719.92399543375</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5719.92399543375</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5719.92399543375</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5719.92399543375</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5719.92399543375</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5858.8406621004169</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5858.8406621004169</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5858.8406621004169</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5858.8406621004169</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5858.8406621004169</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5858.8406621004169</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5858.8406621004169</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5858.8406621004169</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5858.8406621004169</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5858.8406621004169</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>5858.8406621004169</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>5858.8406621004169</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5998.8045309654162</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5998.8045309654162</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>5998.8045309654162</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5998.8045309654162</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>5998.8045309654162</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>5998.8045309654162</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>5998.8045309654162</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>5998.8045309654162</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>5998.8045309654162</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>5998.8045309654162</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>5998.8045309654162</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>5998.8045309654162</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>6185.0263470319996</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6185.0263470319996</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>6185.0263470319996</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>6185.0263470319996</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>6185.0263470319996</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>6185.0263470319996</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>6185.0263470319996</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>6185.0263470319996</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>6185.0263470319996</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>6185.0263470319996</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>6185.0263470319996</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>6185.0263470319996</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>6306.9079223744166</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>6306.9079223744166</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>6306.9079223744166</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>6306.9079223744166</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>6306.9079223744166</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>6306.9079223744166</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>6306.9079223744166</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>6306.9079223744166</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6306.9079223744166</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>6306.9079223744166</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>6306.9079223744166</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6306.9079223744166</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6236.6724429223332</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>6236.6724429223332</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>6236.6724429223332</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>6236.6724429223332</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>6236.6724429223332</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>6236.6724429223332</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>6236.6724429223332</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>6236.6724429223332</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>6236.6724429223332</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>6236.6724429223332</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>6236.6724429223332</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>6236.6724429223332</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>6477.4275847185008</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>6477.4275847185008</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>6477.4275847185008</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>6477.4275847185008</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>6477.4275847185008</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>6477.4275847185008</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>6477.4275847185008</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>6477.4275847185008</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>6477.4275847185008</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>6477.4275847185008</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>6477.4275847185008</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>6477.4275847185008</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>6472.7671688515838</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>6472.7671688515838</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>6472.7671688515838</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>6472.7671688515838</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>6472.7671688515838</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>6472.7671688515838</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>6472.7671688515838</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>6472.7671688515838</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>6472.7671688515838</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>6472.7671688515838</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>6472.7671688515838</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>6472.7671688515838</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>6425.3059677438332</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>6425.3059677438332</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>6425.3059677438332</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>6425.3059677438332</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>6425.3059677438332</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>6425.3059677438332</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>6425.3059677438332</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>6425.3059677438332</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>6425.3059677438332</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>6425.3059677438332</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>6425.3059677438332</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>6425.3059677438332</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>6635.2824495295836</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>6635.2824495295836</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>6635.2824495295836</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>6635.2824495295836</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>6635.2824495295836</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>6635.2824495295836</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>6635.2824495295836</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>6635.2824495295836</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>6635.2824495295836</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>6635.2824495295836</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>6635.2824495295836</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>6635.2824495295836</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>6954.1729199940828</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>6954.1729199940828</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>6954.1729199940828</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>6954.1729199940828</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>6954.1729199940828</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>6954.1729199940828</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>6954.1729199940828</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>6954.1729199940828</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>6954.1729199940828</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>6954.1729199940828</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>6954.1729199940828</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>6954.1729199940828</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>7093.1839550228333</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>7093.1839550228333</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>7093.1839550228333</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>7093.1839550228333</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>7093.1839550228333</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>7093.1839550228333</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>7093.1839550228333</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>7093.1839550228333</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>7093.1839550228333</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>7093.1839550228333</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>7093.1839550228333</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>7093.1839550228333</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>7103.5472029679995</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>7103.5472029679995</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>7103.5472029679995</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>7103.5472029679995</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>7103.5472029679995</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>7103.5472029679995</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>7103.5472029679995</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>7103.5472029679995</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>7103.5472029679995</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>7103.5472029679995</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>7103.5472029679995</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>7103.5472029679995</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>7109.255239269417</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>7109.255239269417</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>7109.255239269417</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>7109.255239269417</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>7109.255239269417</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>7109.255239269417</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>7109.255239269417</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>7109.255239269417</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>7109.255239269417</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>7109.255239269417</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>7109.255239269417</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>7109.255239269417</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>7222.2654166666662</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>7222.2654166666662</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>7222.2654166666662</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>7222.2654166666662</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>7222.2654166666662</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>7222.2654166666662</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>7222.2654166666662</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>7222.2654166666662</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>7222.2654166666662</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>7222.2654166666662</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>7222.2654166666662</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>7222.2654166666662</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>7155.8168136986669</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>7155.8168136986669</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>7155.8168136986669</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>7155.8168136986669</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>7155.8168136986669</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>7155.8168136986669</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>7155.8168136986669</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>7155.8168136986669</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>7155.8168136986669</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>7155.8168136986669</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>7155.8168136986669</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>7155.8168136986669</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>7380.8865198630001</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>7380.8865198630001</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>7380.8865198630001</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>7380.8865198630001</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>7380.8865198630001</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>7380.8865198630001</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>7380.8865198630001</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>7380.8865198630001</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>7380.8865198630001</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>7380.8865198630001</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>7380.8865198630001</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>7380.8865198630001</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>7419.8428742009164</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>7419.8428742009164</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>7419.8428742009164</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>7419.8428742009164</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>7419.8428742009164</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>7419.8428742009164</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>7419.8428742009164</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>7419.8428742009164</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>7419.8428742009164</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>7419.8428742009164</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>7419.8428742009164</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>7419.8428742009164</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>7591.0217035519163</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>7591.0217035519163</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>7591.0217035519163</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>7591.0217035519163</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>7591.0217035519163</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>7591.0217035519163</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>7591.0217035519163</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>7591.0217035519163</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>7591.0217035519163</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>7591.0217035519163</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>7591.0217035519163</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>7591.0217035519163</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>7641.2225057077494</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>7641.2225057077494</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>7641.2225057077494</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>7641.2225057077494</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>7641.2225057077494</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>7641.2225057077494</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>7641.2225057077494</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>7641.2225057077494</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>7641.2225057077494</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>7641.2225057077494</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>7641.2225057077494</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>7641.2225057077494</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>7856.4242559360828</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>7856.4242559360828</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>7856.4242559360828</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>7856.4242559360828</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>7856.4242559360828</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>7856.4242559360828</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>7856.4242559360828</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>7856.4242559360828</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>7856.4242559360828</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>7856.4242559360828</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>7856.4242559360828</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>7856.4242559360828</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>8092.0908968036665</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>8092.0908968036665</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>8092.0908968036665</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>8092.0908968036665</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>8092.0908968036665</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>8092.0908968036665</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>8092.0908968036665</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>8092.0908968036665</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>8092.0908968036665</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>8092.0908968036665</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>8092.0908968036665</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>8092.0908968036665</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>8125.9152174408337</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>8125.9152174408337</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>8125.9152174408337</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>8125.9152174408337</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>8125.9152174408337</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>8125.9152174408337</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>8125.9152174408337</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>8125.9152174408337</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>8125.9152174408337</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>8125.9152174408337</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>8125.9152174408337</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>8125.9152174408337</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>8176.5388458904163</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>8176.5388458904163</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>8176.5388458904163</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>8176.5388458904163</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>8176.5388458904163</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>8176.5388458904163</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>8176.5388458904163</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>8176.5388458904163</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>8176.5388458904163</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>8176.5388458904163</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>8176.5388458904163</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>8176.5388458904163</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>8404.3816744291671</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>8404.3816744291671</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>8404.3816744291671</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>8404.3816744291671</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>8404.3816744291671</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>8404.3816744291671</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>8404.3816744291671</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>8404.3816744291671</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>8404.3816744291671</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>8404.3816744291671</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>8404.3816744291671</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>8404.3816744291671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D965-4001-B90A-3B77C07C5E91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="923456671"/>
+        <c:axId val="1621508687"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Model_Data!$A$132:$A$538</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="407"/>
+                <c:pt idx="0">
+                  <c:v>31352</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31382</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31413</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31472</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31503</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31533</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31564</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31594</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31656</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31686</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31717</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31747</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31778</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31809</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31837</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31868</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31898</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31929</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31959</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31990</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32021</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32051</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32082</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32112</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32143</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32174</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32203</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32234</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32264</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32295</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32325</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32356</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>32387</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32417</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32448</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32478</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>32509</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32540</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32568</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>32599</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>32629</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>32660</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32690</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>32721</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>32752</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>32782</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>32813</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>32843</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>32874</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>32905</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>32933</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>32964</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>32994</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>33025</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>33055</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>33086</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>33117</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>33147</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>33178</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>33208</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>33239</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>33270</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>33298</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>33329</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>33359</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>33390</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>33420</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>33451</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>33482</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>33512</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>33543</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>33573</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>33604</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>33635</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>33664</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>33695</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>33725</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>33756</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>33786</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>33817</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>33848</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>33878</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>33909</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>33939</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>33970</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>34001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>34029</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>34060</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>34090</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>34121</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>34151</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>34182</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>34213</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>34243</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>34274</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>34304</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>34335</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>34366</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>34394</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>34425</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>34455</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>34486</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>34516</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>34547</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>34578</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>34608</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>34639</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>34669</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>34700</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>34731</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>34759</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>34790</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>34820</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>34851</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>34881</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>34912</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>34943</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>34973</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>35004</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>35034</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>35065</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>35096</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>35125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>35156</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>35186</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>35217</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>35247</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>35278</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>35309</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>35339</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>35370</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>35400</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>35431</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>35462</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>35490</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>35521</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>35551</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>35582</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>35612</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>35643</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>35674</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>35704</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>35735</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>35765</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>35796</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>35827</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>35855</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>35886</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>35916</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>35947</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>35977</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>36008</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>36039</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>36069</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>36100</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>36130</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>36161</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>36192</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>36220</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>36251</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>36281</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>36312</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>36342</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>36373</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>36404</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>36434</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>36465</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>36495</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>36526</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>36557</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>36586</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>36617</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>36647</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>36678</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>36708</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>36739</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>36770</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>36800</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>36831</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>36861</c:v>
+                </c:pt>
+                <c:pt idx="182" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>36892</c:v>
+                </c:pt>
+                <c:pt idx="183" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>36923</c:v>
+                </c:pt>
+                <c:pt idx="184" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>36951</c:v>
+                </c:pt>
+                <c:pt idx="185" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>36982</c:v>
+                </c:pt>
+                <c:pt idx="186" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37012</c:v>
+                </c:pt>
+                <c:pt idx="187" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37043</c:v>
+                </c:pt>
+                <c:pt idx="188" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37073</c:v>
+                </c:pt>
+                <c:pt idx="189" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37104</c:v>
+                </c:pt>
+                <c:pt idx="190" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37135</c:v>
+                </c:pt>
+                <c:pt idx="191" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37165</c:v>
+                </c:pt>
+                <c:pt idx="192" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37196</c:v>
+                </c:pt>
+                <c:pt idx="193" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37226</c:v>
+                </c:pt>
+                <c:pt idx="194" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37257</c:v>
+                </c:pt>
+                <c:pt idx="195" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37288</c:v>
+                </c:pt>
+                <c:pt idx="196" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37316</c:v>
+                </c:pt>
+                <c:pt idx="197" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37347</c:v>
+                </c:pt>
+                <c:pt idx="198" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37377</c:v>
+                </c:pt>
+                <c:pt idx="199" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37408</c:v>
+                </c:pt>
+                <c:pt idx="200" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37438</c:v>
+                </c:pt>
+                <c:pt idx="201" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37469</c:v>
+                </c:pt>
+                <c:pt idx="202" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37500</c:v>
+                </c:pt>
+                <c:pt idx="203" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37530</c:v>
+                </c:pt>
+                <c:pt idx="204" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37561</c:v>
+                </c:pt>
+                <c:pt idx="205" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37591</c:v>
+                </c:pt>
+                <c:pt idx="206" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37622</c:v>
+                </c:pt>
+                <c:pt idx="207" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37653</c:v>
+                </c:pt>
+                <c:pt idx="208" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37681</c:v>
+                </c:pt>
+                <c:pt idx="209" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37712</c:v>
+                </c:pt>
+                <c:pt idx="210" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37742</c:v>
+                </c:pt>
+                <c:pt idx="211" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37773</c:v>
+                </c:pt>
+                <c:pt idx="212" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37803</c:v>
+                </c:pt>
+                <c:pt idx="213" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37834</c:v>
+                </c:pt>
+                <c:pt idx="214" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37865</c:v>
+                </c:pt>
+                <c:pt idx="215" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37895</c:v>
+                </c:pt>
+                <c:pt idx="216" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37926</c:v>
+                </c:pt>
+                <c:pt idx="217" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37956</c:v>
+                </c:pt>
+                <c:pt idx="218" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>37987</c:v>
+                </c:pt>
+                <c:pt idx="219" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38018</c:v>
+                </c:pt>
+                <c:pt idx="220" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38047</c:v>
+                </c:pt>
+                <c:pt idx="221" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38078</c:v>
+                </c:pt>
+                <c:pt idx="222" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38108</c:v>
+                </c:pt>
+                <c:pt idx="223" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38139</c:v>
+                </c:pt>
+                <c:pt idx="224" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38169</c:v>
+                </c:pt>
+                <c:pt idx="225" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38200</c:v>
+                </c:pt>
+                <c:pt idx="226" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38231</c:v>
+                </c:pt>
+                <c:pt idx="227" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38261</c:v>
+                </c:pt>
+                <c:pt idx="228" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38292</c:v>
+                </c:pt>
+                <c:pt idx="229" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38322</c:v>
+                </c:pt>
+                <c:pt idx="230" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38353</c:v>
+                </c:pt>
+                <c:pt idx="231" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38384</c:v>
+                </c:pt>
+                <c:pt idx="232" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38412</c:v>
+                </c:pt>
+                <c:pt idx="233" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38443</c:v>
+                </c:pt>
+                <c:pt idx="234" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38473</c:v>
+                </c:pt>
+                <c:pt idx="235" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38504</c:v>
+                </c:pt>
+                <c:pt idx="236" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38534</c:v>
+                </c:pt>
+                <c:pt idx="237" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38565</c:v>
+                </c:pt>
+                <c:pt idx="238" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38596</c:v>
+                </c:pt>
+                <c:pt idx="239" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38626</c:v>
+                </c:pt>
+                <c:pt idx="240" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38657</c:v>
+                </c:pt>
+                <c:pt idx="241" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38687</c:v>
+                </c:pt>
+                <c:pt idx="242" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38718</c:v>
+                </c:pt>
+                <c:pt idx="243" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38749</c:v>
+                </c:pt>
+                <c:pt idx="244" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38777</c:v>
+                </c:pt>
+                <c:pt idx="245" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38808</c:v>
+                </c:pt>
+                <c:pt idx="246" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38838</c:v>
+                </c:pt>
+                <c:pt idx="247" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38869</c:v>
+                </c:pt>
+                <c:pt idx="248" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38899</c:v>
+                </c:pt>
+                <c:pt idx="249" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38930</c:v>
+                </c:pt>
+                <c:pt idx="250" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38961</c:v>
+                </c:pt>
+                <c:pt idx="251" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>38991</c:v>
+                </c:pt>
+                <c:pt idx="252" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39022</c:v>
+                </c:pt>
+                <c:pt idx="253" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39052</c:v>
+                </c:pt>
+                <c:pt idx="254" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39083</c:v>
+                </c:pt>
+                <c:pt idx="255" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39114</c:v>
+                </c:pt>
+                <c:pt idx="256" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39142</c:v>
+                </c:pt>
+                <c:pt idx="257" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39173</c:v>
+                </c:pt>
+                <c:pt idx="258" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39203</c:v>
+                </c:pt>
+                <c:pt idx="259" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39234</c:v>
+                </c:pt>
+                <c:pt idx="260" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39264</c:v>
+                </c:pt>
+                <c:pt idx="261" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39295</c:v>
+                </c:pt>
+                <c:pt idx="262" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39326</c:v>
+                </c:pt>
+                <c:pt idx="263" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39356</c:v>
+                </c:pt>
+                <c:pt idx="264" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39387</c:v>
+                </c:pt>
+                <c:pt idx="265" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39417</c:v>
+                </c:pt>
+                <c:pt idx="266" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39448</c:v>
+                </c:pt>
+                <c:pt idx="267" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39479</c:v>
+                </c:pt>
+                <c:pt idx="268" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39508</c:v>
+                </c:pt>
+                <c:pt idx="269" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39539</c:v>
+                </c:pt>
+                <c:pt idx="270" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39569</c:v>
+                </c:pt>
+                <c:pt idx="271" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39600</c:v>
+                </c:pt>
+                <c:pt idx="272" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39630</c:v>
+                </c:pt>
+                <c:pt idx="273" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39661</c:v>
+                </c:pt>
+                <c:pt idx="274" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39692</c:v>
+                </c:pt>
+                <c:pt idx="275" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39722</c:v>
+                </c:pt>
+                <c:pt idx="276" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39753</c:v>
+                </c:pt>
+                <c:pt idx="277" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39783</c:v>
+                </c:pt>
+                <c:pt idx="278" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39814</c:v>
+                </c:pt>
+                <c:pt idx="279" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39845</c:v>
+                </c:pt>
+                <c:pt idx="280" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39873</c:v>
+                </c:pt>
+                <c:pt idx="281" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39904</c:v>
+                </c:pt>
+                <c:pt idx="282" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39934</c:v>
+                </c:pt>
+                <c:pt idx="283" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39965</c:v>
+                </c:pt>
+                <c:pt idx="284" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>39995</c:v>
+                </c:pt>
+                <c:pt idx="285" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40026</c:v>
+                </c:pt>
+                <c:pt idx="286" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40057</c:v>
+                </c:pt>
+                <c:pt idx="287" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40087</c:v>
+                </c:pt>
+                <c:pt idx="288" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40118</c:v>
+                </c:pt>
+                <c:pt idx="289" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40148</c:v>
+                </c:pt>
+                <c:pt idx="290" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40179</c:v>
+                </c:pt>
+                <c:pt idx="291" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40210</c:v>
+                </c:pt>
+                <c:pt idx="292" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40238</c:v>
+                </c:pt>
+                <c:pt idx="293" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40269</c:v>
+                </c:pt>
+                <c:pt idx="294" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40299</c:v>
+                </c:pt>
+                <c:pt idx="295" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40330</c:v>
+                </c:pt>
+                <c:pt idx="296" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40360</c:v>
+                </c:pt>
+                <c:pt idx="297" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40391</c:v>
+                </c:pt>
+                <c:pt idx="298" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40422</c:v>
+                </c:pt>
+                <c:pt idx="299" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40452</c:v>
+                </c:pt>
+                <c:pt idx="300" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40483</c:v>
+                </c:pt>
+                <c:pt idx="301" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40513</c:v>
+                </c:pt>
+                <c:pt idx="302" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40544</c:v>
+                </c:pt>
+                <c:pt idx="303" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40575</c:v>
+                </c:pt>
+                <c:pt idx="304" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40603</c:v>
+                </c:pt>
+                <c:pt idx="305" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40634</c:v>
+                </c:pt>
+                <c:pt idx="306" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40664</c:v>
+                </c:pt>
+                <c:pt idx="307" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40695</c:v>
+                </c:pt>
+                <c:pt idx="308" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40725</c:v>
+                </c:pt>
+                <c:pt idx="309" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40756</c:v>
+                </c:pt>
+                <c:pt idx="310" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40787</c:v>
+                </c:pt>
+                <c:pt idx="311" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40817</c:v>
+                </c:pt>
+                <c:pt idx="312" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40848</c:v>
+                </c:pt>
+                <c:pt idx="313" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40878</c:v>
+                </c:pt>
+                <c:pt idx="314" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40909</c:v>
+                </c:pt>
+                <c:pt idx="315" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40940</c:v>
+                </c:pt>
+                <c:pt idx="316" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>40969</c:v>
+                </c:pt>
+                <c:pt idx="317" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="318" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41030</c:v>
+                </c:pt>
+                <c:pt idx="319" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41061</c:v>
+                </c:pt>
+                <c:pt idx="320" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="321" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41122</c:v>
+                </c:pt>
+                <c:pt idx="322" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41153</c:v>
+                </c:pt>
+                <c:pt idx="323" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41183</c:v>
+                </c:pt>
+                <c:pt idx="324" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41214</c:v>
+                </c:pt>
+                <c:pt idx="325" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41244</c:v>
+                </c:pt>
+                <c:pt idx="326" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="327" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41306</c:v>
+                </c:pt>
+                <c:pt idx="328" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41334</c:v>
+                </c:pt>
+                <c:pt idx="329" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41365</c:v>
+                </c:pt>
+                <c:pt idx="330" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41395</c:v>
+                </c:pt>
+                <c:pt idx="331" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="332" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="333" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41487</c:v>
+                </c:pt>
+                <c:pt idx="334" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41518</c:v>
+                </c:pt>
+                <c:pt idx="335" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41548</c:v>
+                </c:pt>
+                <c:pt idx="336" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41579</c:v>
+                </c:pt>
+                <c:pt idx="337" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41609</c:v>
+                </c:pt>
+                <c:pt idx="338" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="339" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="340" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41699</c:v>
+                </c:pt>
+                <c:pt idx="341" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41730</c:v>
+                </c:pt>
+                <c:pt idx="342" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="343" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="344" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41821</c:v>
+                </c:pt>
+                <c:pt idx="345" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41852</c:v>
+                </c:pt>
+                <c:pt idx="346" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="347" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="348" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="349" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="350" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="351" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="352" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="353" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="354" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="355" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="356" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="357" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="358" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="359" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="360" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="361" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="362" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="363" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="364" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="365" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="366" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="367" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="368" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="369" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="370" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="371" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="372" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="373" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42705</c:v>
+                </c:pt>
+                <c:pt idx="374" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="375" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="376" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="377" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="378" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="379" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="380" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="381" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="382" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>42979</c:v>
+                </c:pt>
+                <c:pt idx="383" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43009</c:v>
+                </c:pt>
+                <c:pt idx="384" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43040</c:v>
+                </c:pt>
+                <c:pt idx="385" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43070</c:v>
+                </c:pt>
+                <c:pt idx="386" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="387" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="388" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="389" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="390" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="391" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="392" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43282</c:v>
+                </c:pt>
+                <c:pt idx="393" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43313</c:v>
+                </c:pt>
+                <c:pt idx="394" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="395" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="396" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43405</c:v>
+                </c:pt>
+                <c:pt idx="397" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43435</c:v>
+                </c:pt>
+                <c:pt idx="398" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="399" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="400" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="401" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="402" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="403" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43617</c:v>
+                </c:pt>
+                <c:pt idx="404" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43647</c:v>
+                </c:pt>
+                <c:pt idx="405" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43678</c:v>
+                </c:pt>
+                <c:pt idx="406" formatCode="[$-409]mmm\-yy;@">
+                  <c:v>43709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Model_Data!$E$132:$E$538</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="407"/>
+                <c:pt idx="0">
+                  <c:v>85.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61.89</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58.19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58.57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60.58</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60.02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>58.33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56.52</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>58.31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>58.94</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>61.93</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>63.93</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>67.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>68.989999999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>69.95</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>71.45</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>72.63</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>73.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>73.67</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>73.739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>74.14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>74.31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>74.37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>75.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>74.55</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>73.86</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>73.33</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>73.72</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>73.38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>72.27</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>70.05</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>70.7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>72.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>72.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>75.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>76.709999999999994</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>77.13</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>77.47</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>78.41</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>80.25</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>80.62</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>79.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>79.45</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>79.63</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>80.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>81.55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>81.06</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>80.95</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>81.33</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>81.27</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>81.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>79.59</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>79.33</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>79.33</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>79.87</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>79.37</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>80.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>80.87</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>80.05</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>78.55</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>79.17</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>79.31</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>79.260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>77.8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74.84</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>74.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>73.819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>73.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>72.959999999999994</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>74.28</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>75.14</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>76.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>77.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>76.98</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>77.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>77.84</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>78.09</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>79.040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>78.69</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>80.790000000000006</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>80.05</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>79.56</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>80.08</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>80.86</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>81.99</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>81.67</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>81.37</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>79.33</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>79.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>78.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>77.83</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>77.84</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>78.12</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>77.45</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>77.67</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>78.790000000000006</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>79.69</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>79.97</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>79.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>78.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>78.88</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>79.64</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>80.06</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>81.91</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>81.59</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>81.72</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>82.04</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>82.09</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>83.41</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>85.35</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>85.31</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>86.31</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>86.65</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>88.07</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>88.8</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>88.81</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>89.49</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>90.07</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>90.2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>90.8</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>91.15</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>90.71</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>91.18</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>92.22</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>92.67</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>93.15</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>92.55</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>92.98</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>92.8</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>92.89</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>92.91</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>93.34</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>93.41</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>93.44</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>93.12</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>93.15</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>93.16</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>92.42</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>92.41</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>91.43</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>89.99</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>87.4</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>86.85</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>85.6</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>82.51</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>81.08</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>77.13</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>75.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>74.73</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>73.81</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>73.709999999999994</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>73.3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>72.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>74.37</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>73.72</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>73.7</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>74.91</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>75.23</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>76.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>78.19</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>79.69</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>80.930000000000007</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>82.68</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>83.33</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>84.71</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>84.93</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>85.07</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>85.75</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>86.68</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>86.67</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>85.37</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>86.98</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>88.5</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>89.3</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>88.71</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>88.15</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>87.25</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>85.52</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>82.46</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>80.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>81.03</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>80.78</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>80.36</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>80.040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>80.05</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>79.73</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>80.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>81.66</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>81.61</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>80.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>80.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>80.89</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>81.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>80.16</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>79.19</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>79.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>80.22</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>81.27</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>80.66</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>80.48</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>81.73</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>79.989999999999995</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>81.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>80.89</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>80.56</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>80.67</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>80.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>81.17</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>81.3</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>82.17</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>82.96</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>83.63</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>85.33</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>86.96</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>87.23</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>87.43</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>88.13</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>88.84</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>89.41</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>90.43</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>90.71</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>90.42</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>90.85</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>91.11</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>90.19</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>89.18</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>90.11</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>90.46</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>90.95</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>90.95</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>91.5</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>92.23</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>92.99</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>93.13</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>92.84</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>92.57</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>92.22</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>91.98</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>91.93</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>92.69</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>92.78</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>92.36</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>92.57</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>92.26</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>92.93</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>93.56</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>93.77</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>92.84</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>91.83</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>91.89</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>91.88</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>91.99</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>92.37</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>91.45</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>91.69</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>92.24</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>92.97</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>93.46</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>93.54</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>93.38</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>93.25</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>92.89</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>92.1</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>91.69</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>90.67</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>88.15</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>86.32</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>84.82</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>83.19</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>81.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>79.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>77.53</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>78.03</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>78.27</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>77.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>77.8</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>78.36</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>79.41</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>79.91</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>80.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>80.56</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>80.42</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>79.39</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>78.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>77.989999999999995</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>77.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>76.430000000000007</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>75.44</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>74.27</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>75.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>77.47</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>78.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>78.44</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>79.459999999999994</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>80.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>80.709999999999994</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>81.36</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>81.819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>82.09</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>82.8</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>82.64</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>82.25</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>82.88</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>83.16</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>83.89</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>84.69</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>85.11</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>84.99</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>85.68</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>85.31</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>85.2</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>86.1</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>86.63</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>87.01</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>86.99</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>87.11</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>87.55</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>87.44</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>87.57</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>87.74</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>88.31</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>88.56</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>88.2</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>88.14</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>87.62</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>87.27</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>87.26</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>87.4</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>86.1</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>85.45</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>85.56</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>84.87</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>83.97</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>83.43</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>82.87</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>82.04</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>80.92</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>79.27</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>79.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>77.95</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>76.78</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>75.459999999999994</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>74.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>72.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>70.83</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>69.7</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>68.42</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>67.31</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>64.930000000000007</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>63.83</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>63.49</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>62.49</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>61.37</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>59.68</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>59.24</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>58.1</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>57.43</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>56.93</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>55.75</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>55.17</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>54.84</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>55.34</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>55.87</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>56.32</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>56.45</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>56.82</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>57.83</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>57.65</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>57.69</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>57.03</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>57.74</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>57.7</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>58.2</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>58.32</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>58.4</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>60.55</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>61.81</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>61.88</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>61.88</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>62.96</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>63.3</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>63.68</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>64.77</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>65.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>66.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>66.790000000000006</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>67.28</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>67.75</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>68.959999999999994</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>69.75</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>69.739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>70.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D965-4001-B90A-3B77C07C5E91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Model_Data!$G$132:$G$538</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="407"/>
+                <c:pt idx="0">
+                  <c:v>61.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29.39</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.04</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.64</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36.520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34.58</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35.58</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36.08</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37.47</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38.49</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40.92</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38.68</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37.119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37.64</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35.75</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32.53</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>31.46</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30.36</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33.26</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32.36</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30.55</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>28.52</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>28.45</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25.1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25.34</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29.39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>32.36</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31.97</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>34.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>37.270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>35.32</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>35.15</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>34.409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>32.44</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>34.24</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>34.94</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>34.33</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>36.409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>38.729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>37.67</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>34.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>31.44</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>30.81</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>28.32</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>31.15</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45.03</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>55.44</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>58.72</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>52.68</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44.42</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>40.409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>33.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>32.130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>33.61</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>34.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>32.380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>34.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>34.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>34.79</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>36.92</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>35.549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>30.8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>29.68</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>29.89</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>29.66</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>31.67</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>32.69</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>34.83</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>33.770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>33.07</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>33.85</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>33.380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>31.22</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>29.74</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>29.13</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>30.56</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>30.96</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>30.74</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>30.16</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>28.82</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>26.96</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>27.12</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>26.34</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>27.18</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>24.94</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>21.63</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>22.36</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>21.97</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>21.73</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>24.27</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>26.44</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>28.12</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>28.88</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>26.9</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>25.85</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>26.35</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>24.93</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>26.07</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>26.78</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>26.76</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>28.55</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>28.3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>26.36</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>24.72</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>25.72</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>25.97</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>24.78</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>25.53</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>26.98</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>26.62</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>26.83</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>29.96</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>32.93</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>29.63</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>28.46</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>29.61</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>30.46</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>33.18</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>34.32</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>32.58</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>34.44</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>30.33</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>28.65</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>26.9</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>28.41</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>26.1</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>26.69</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>27.03</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>26.77</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>28.71</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>24.69</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>22.49</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>21.62</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>20.22</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>20.76</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>19.93</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>18.809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>17.829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>19.940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>19.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>17.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>14.96</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>16.510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>22.79</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>23.32</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>26.26</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>27.75</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>31.04</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>29.37</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>32.340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>33.69</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>35.01</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>37.65</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>38.119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>32.85</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>36.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>40.31</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>37.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>39.42</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>42.56</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>41.48</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>43.07</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>35.549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>36.74</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>36.69</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>33.729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>33.89</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>35.229999999999997</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>33.869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>32.520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>33.770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>31.69</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>27.27</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>24.17</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>23.76</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>24.14</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>25.41</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>29.83</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>31.95</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>32.83</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>30.99</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>32.64</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>34.29</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>35.79</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>34.72</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>31.56</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>35.29</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>39.340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>42.61</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>39.79</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>33.630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>33.549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>36.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>36.520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>37.340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>33.33</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>35.770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>36.65</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>37.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>40.119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>40.58</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>42.85</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>42.7</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>46.68</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>43.89</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>46.93</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>51.8</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>52.8</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>60.73</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>55.13</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>49.29</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>53.31</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>54.37</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>61.34</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>59.72</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>56.13</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>63.34</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>65.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>72.25</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>71.930000000000007</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>68.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>64.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>65.42</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>71.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>67.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>68.69</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>75.72</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>76.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>76.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>79.98</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>78.17</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>68.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>63.6</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>64.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>66.61</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>63.28</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>64.33</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>67.75</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>66.94</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>71.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>77.92</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>76.02</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>83.58</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>89.86</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>97.87</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>94.61</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>95.54</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>97.77</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>107.85</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>114.75</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>127.06</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>134.31</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>132.87</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>116.28</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>103.52</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>77.03</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>58.77</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>42.32</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>42.95</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>40.15</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>49.24</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>51.05</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>60.56</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>70.75</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>65.09</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>71.930000000000007</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>70.17</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>76.37</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>78.38</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>74.55</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>78.430000000000007</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>76.7</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>81.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>84.74</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>74.11</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>75.66</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>76.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>76.88</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>75.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>81.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>83.56</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>88.07</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>88.16</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>88.04</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>100.65</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>107.09</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>98.3</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>93.41</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>94.04</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>83.27</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>82.39</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>83.11</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>93.32</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>94.6</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>95.95</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>97.66</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>101.21</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>98.32</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>90.3</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>78.64</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>83.89</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>89.31</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>89.42</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>84.33</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>81.72</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>83.23</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>89.13</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>89.24</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>87.36</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>86.62</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>89.15</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>89.88</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>98.01</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>99.55</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>99.25</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>93.83</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>87.44</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>90.71</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>87.7</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>93.34</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>93.13</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>94.13</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>94.06</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>97.25</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>95.12</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>88.66</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>85.6</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>77.52</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>69.739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>54.73</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>43.87</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>46.89</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>44.19</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>50.28</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>54.54</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>54.89</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>46.63</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>39.28</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>41.76</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>42.39</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>38.89</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>34.1</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>29.05</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>27.84</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>34.4</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>37.21</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>42.54</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>44.28</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>40.549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>40.53</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>40.869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>44.92</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>41.14</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>46.68</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>46.97</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>47.8</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>44.14</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>45.63</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>43.34</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>40.35</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>41.61</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>42.71</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>44.09</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>45.62</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>49.94</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>50.92</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>55.82</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>54.42</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>54.83</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>57.8</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>60.89</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>58.94</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>61.52</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>58.93</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>60.77</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>61.03</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>49.14</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>42.73</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>44.35</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>47.34</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>49.9</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>54.62</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>51.99</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>46.69</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>48.82</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>46.64</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>48.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D965-4001-B90A-3B77C07C5E91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="923458271"/>
+        <c:axId val="1634940847"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="923456671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1621508687"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1621508687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="923456671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1634940847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="923458271"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="923458271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1634940847"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>512</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>527</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96359475-6EA5-40B8-8163-59931BE2BF3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -908,9 +9272,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J539"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A513" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O534" sqref="O534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16554,5 +24918,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data/Model_Data_Rev1.xlsx
+++ b/Data/Model_Data_Rev1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Homework\Project_3\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b6b1d75baa2bc4e/Homework/Project_3/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0D1142-C44B-4037-B85F-E61B3BF5404B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{F1BC7877-C7A7-4EFA-B67C-10393784DE1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -544,13 +544,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1914,7 +1915,7 @@
                   <c:v>4992.77092493075</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5149.6462894977494</c:v>
+                  <c:v>4992.77092493075</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5149.6462894977494</c:v>
@@ -1950,7 +1951,7 @@
                   <c:v>5149.6462894977494</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5255.1381941780828</c:v>
+                  <c:v>5149.6462894977494</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>5255.1381941780828</c:v>
@@ -1986,7 +1987,7 @@
                   <c:v>5255.1381941780828</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5412.9423517948335</c:v>
+                  <c:v>5255.1381941780828</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5412.9423517948335</c:v>
@@ -2022,7 +2023,7 @@
                   <c:v>5412.9423517948335</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5503.8022080136661</c:v>
+                  <c:v>5412.9423517948335</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>5503.8022080136661</c:v>
@@ -2058,7 +2059,7 @@
                   <c:v>5503.8022080136661</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5554.9497996917498</c:v>
+                  <c:v>5503.8022080136661</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>5554.9497996917498</c:v>
@@ -2094,7 +2095,7 @@
                   <c:v>5554.9497996917498</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5579.6155452511666</c:v>
+                  <c:v>5554.9497996917498</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>5579.6155452511666</c:v>
@@ -2130,7 +2131,7 @@
                   <c:v>5579.6155452511666</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5602.9976512795838</c:v>
+                  <c:v>5579.6155452511666</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>5602.9976512795838</c:v>
@@ -2166,7 +2167,7 @@
                   <c:v>5602.9976512795838</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5583.6918093036666</c:v>
+                  <c:v>5602.9976512795838</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>5583.6918093036666</c:v>
@@ -2202,7 +2203,7 @@
                   <c:v>5583.6918093036666</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5701.7821710616663</c:v>
+                  <c:v>5583.6918093036666</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>5701.7821710616663</c:v>
@@ -2238,7 +2239,7 @@
                   <c:v>5701.7821710616663</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>5820.8462458357499</c:v>
+                  <c:v>5701.7821710616663</c:v>
                 </c:pt>
                 <c:pt idx="110">
                   <c:v>5820.8462458357499</c:v>
@@ -2274,7 +2275,7 @@
                   <c:v>5820.8462458357499</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>5992.2054385132506</c:v>
+                  <c:v>5820.8462458357499</c:v>
                 </c:pt>
                 <c:pt idx="122">
                   <c:v>5992.2054385132506</c:v>
@@ -2310,7 +2311,7 @@
                   <c:v>5992.2054385132506</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>6093.9747731696662</c:v>
+                  <c:v>5992.2054385132506</c:v>
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>6093.9747731696662</c:v>
@@ -2346,7 +2347,7 @@
                   <c:v>6093.9747731696662</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>6162.5895042607508</c:v>
+                  <c:v>6093.9747731696662</c:v>
                 </c:pt>
                 <c:pt idx="146">
                   <c:v>6162.5895042607508</c:v>
@@ -2382,7 +2383,7 @@
                   <c:v>6162.5895042607508</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>6300.3318861344169</c:v>
+                  <c:v>6162.5895042607508</c:v>
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>6300.3318861344169</c:v>
@@ -2418,7 +2419,7 @@
                   <c:v>6300.3318861344169</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>6440.6864477303325</c:v>
+                  <c:v>6300.3318861344169</c:v>
                 </c:pt>
                 <c:pt idx="170">
                   <c:v>6440.6864477303325</c:v>
@@ -2454,7 +2455,7 @@
                   <c:v>6440.6864477303325</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>6508.4769006348333</c:v>
+                  <c:v>6440.6864477303325</c:v>
                 </c:pt>
                 <c:pt idx="182">
                   <c:v>6508.4769006348333</c:v>
@@ -2490,7 +2491,7 @@
                   <c:v>6508.4769006348333</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>6569.9617535177495</c:v>
+                  <c:v>6508.4769006348333</c:v>
                 </c:pt>
                 <c:pt idx="194">
                   <c:v>6569.9617535177495</c:v>
@@ -2526,7 +2527,7 @@
                   <c:v>6569.9617535177495</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>6706.2163981338335</c:v>
+                  <c:v>6569.9617535177495</c:v>
                 </c:pt>
                 <c:pt idx="206">
                   <c:v>6706.2163981338335</c:v>
@@ -2562,7 +2563,7 @@
                   <c:v>6706.2163981338335</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>6968.496815135416</c:v>
+                  <c:v>6706.2163981338335</c:v>
                 </c:pt>
                 <c:pt idx="218">
                   <c:v>6968.496815135416</c:v>
@@ -2598,7 +2599,7 @@
                   <c:v>6968.496815135416</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>7076.6346961399167</c:v>
+                  <c:v>6968.496815135416</c:v>
                 </c:pt>
                 <c:pt idx="230">
                   <c:v>7076.6346961399167</c:v>
@@ -2634,7 +2635,7 @@
                   <c:v>7076.6346961399167</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>7177.2938619074166</c:v>
+                  <c:v>7076.6346961399167</c:v>
                 </c:pt>
                 <c:pt idx="242">
                   <c:v>7177.2938619074166</c:v>
@@ -2670,7 +2671,7 @@
                   <c:v>7177.2938619074166</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>7295.8131212756671</c:v>
+                  <c:v>7177.2938619074166</c:v>
                 </c:pt>
                 <c:pt idx="254">
                   <c:v>7295.8131212756671</c:v>
@@ -2706,7 +2707,7 @@
                   <c:v>7295.8131212756671</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>7253.3446709098325</c:v>
+                  <c:v>7295.8131212756671</c:v>
                 </c:pt>
                 <c:pt idx="266">
                   <c:v>7253.3446709098325</c:v>
@@ -2742,7 +2743,7 @@
                   <c:v>7253.3446709098325</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>7172.5757773082505</c:v>
+                  <c:v>7253.3446709098325</c:v>
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>7172.5757773082505</c:v>
@@ -2778,7 +2779,7 @@
                   <c:v>7172.5757773082505</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>7404.2210640281664</c:v>
+                  <c:v>7172.5757773082505</c:v>
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>7404.2210640281664</c:v>
@@ -2814,7 +2815,7 @@
                   <c:v>7404.2210640281664</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>7470.8507910100825</c:v>
+                  <c:v>7404.2210640281664</c:v>
                 </c:pt>
                 <c:pt idx="302">
                   <c:v>7470.8507910100825</c:v>
@@ -2850,7 +2851,7 @@
                   <c:v>7470.8507910100825</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>7583.8597079364999</c:v>
+                  <c:v>7470.8507910100825</c:v>
                 </c:pt>
                 <c:pt idx="314">
                   <c:v>7583.8597079364999</c:v>
@@ -2886,7 +2887,7 @@
                   <c:v>7583.8597079364999</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>7700.5722596863334</c:v>
+                  <c:v>7583.8597079364999</c:v>
                 </c:pt>
                 <c:pt idx="326">
                   <c:v>7700.5722596863334</c:v>
@@ -2922,7 +2923,7 @@
                   <c:v>7700.5722596863334</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>7836.6400631055003</c:v>
+                  <c:v>7700.5722596863334</c:v>
                 </c:pt>
                 <c:pt idx="338">
                   <c:v>7836.6400631055003</c:v>
@@ -2958,7 +2959,7 @@
                   <c:v>7836.6400631055003</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>8005.1027153496661</c:v>
+                  <c:v>7836.6400631055003</c:v>
                 </c:pt>
                 <c:pt idx="350">
                   <c:v>8005.1027153496661</c:v>
@@ -2994,7 +2995,7 @@
                   <c:v>8005.1027153496661</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>8091.9892900152508</c:v>
+                  <c:v>8005.1027153496661</c:v>
                 </c:pt>
                 <c:pt idx="362">
                   <c:v>8091.9892900152508</c:v>
@@ -3030,7 +3031,7 @@
                   <c:v>8091.9892900152508</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>8158.333333333333</c:v>
+                  <c:v>8091.9892900152508</c:v>
                 </c:pt>
                 <c:pt idx="374">
                   <c:v>8158.333333333333</c:v>
@@ -3066,7 +3067,7 @@
                   <c:v>8158.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>8275</c:v>
+                  <c:v>8158.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="386">
                   <c:v>8275</c:v>
@@ -3102,34 +3103,34 @@
                   <c:v>8275</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>8358.3333333333339</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>8358.3333333333339</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>8358.3333333333339</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>8358.3333333333339</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>8358.3333333333339</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>8358.3333333333339</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>8358.3333333333339</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>8358.3333333333339</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>8358.3333333333339</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>8358.3333333333339</c:v>
+                  <c:v>8275</c:v>
+                </c:pt>
+                <c:pt idx="398" formatCode="0">
+                  <c:v>8358</c:v>
+                </c:pt>
+                <c:pt idx="399" formatCode="0">
+                  <c:v>8358</c:v>
+                </c:pt>
+                <c:pt idx="400" formatCode="0">
+                  <c:v>8358</c:v>
+                </c:pt>
+                <c:pt idx="401" formatCode="0">
+                  <c:v>8358</c:v>
+                </c:pt>
+                <c:pt idx="402" formatCode="0">
+                  <c:v>8358</c:v>
+                </c:pt>
+                <c:pt idx="403" formatCode="0">
+                  <c:v>8358</c:v>
+                </c:pt>
+                <c:pt idx="404" formatCode="0">
+                  <c:v>8358</c:v>
+                </c:pt>
+                <c:pt idx="405" formatCode="0">
+                  <c:v>8358</c:v>
+                </c:pt>
+                <c:pt idx="406" formatCode="0">
+                  <c:v>8358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8289,6 +8290,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1634940847"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
@@ -8936,16 +8938,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142130</xdr:colOff>
       <xdr:row>512</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>166977</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>446930</xdr:colOff>
       <xdr:row>527</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>166977</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9272,9 +9274,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A513" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O534" sqref="O534"/>
+      <selection pane="bottomLeft" activeCell="I529" sqref="I529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10558,7 +10560,7 @@
         <v>81.11</v>
       </c>
       <c r="I85">
-        <v>4968.226666667083</v>
+        <v>5078.9028333333335</v>
       </c>
       <c r="J85">
         <v>5050.166666666667</v>
@@ -10798,7 +10800,7 @@
         <v>5.8482047082906856</v>
       </c>
       <c r="I97">
-        <v>4904.0350000019162</v>
+        <v>4968.226666667083</v>
       </c>
       <c r="J97">
         <v>4841.6750000000002</v>
@@ -11038,7 +11040,7 @@
         <v>5.6133017751479288</v>
       </c>
       <c r="I109">
-        <v>4969.6343246817496</v>
+        <v>4904.0350000019162</v>
       </c>
       <c r="J109">
         <v>4827.4416666666666</v>
@@ -11278,7 +11280,7 @@
         <v>5.3124701421800955</v>
       </c>
       <c r="I121">
-        <v>4992.77092493075</v>
+        <v>4969.6343246817496</v>
       </c>
       <c r="J121">
         <v>4963.6214949909163</v>
@@ -11544,7 +11546,7 @@
         <v>4.540843835616438</v>
       </c>
       <c r="I133">
-        <v>5149.6462894977494</v>
+        <v>4992.77092493075</v>
       </c>
       <c r="J133">
         <v>4929.6771191533335</v>
@@ -11940,7 +11942,7 @@
         <v>3.4640866425992782</v>
       </c>
       <c r="I145">
-        <v>5255.1381941780828</v>
+        <v>5149.6462894977494</v>
       </c>
       <c r="J145">
         <v>5127.9131400385832</v>
@@ -12336,7 +12338,7 @@
         <v>3.2070588235294122</v>
       </c>
       <c r="I157">
-        <v>5412.9423517948335</v>
+        <v>5255.1381941780828</v>
       </c>
       <c r="J157">
         <v>5175.1058703178333</v>
@@ -12732,7 +12734,7 @@
         <v>3.4148400994200498</v>
       </c>
       <c r="I169">
-        <v>5503.8022080136661</v>
+        <v>5412.9423517948335</v>
       </c>
       <c r="J169">
         <v>5366.5609754768329</v>
@@ -13128,7 +13130,7 @@
         <v>3.8677688044338883</v>
       </c>
       <c r="I181">
-        <v>5554.9497996917498</v>
+        <v>5503.8022080136661</v>
       </c>
       <c r="J181">
         <v>5460.4092719290829</v>
@@ -13524,7 +13526,7 @@
         <v>3.4288286140089421</v>
       </c>
       <c r="I193">
-        <v>5579.6155452511666</v>
+        <v>5554.9497996917498</v>
       </c>
       <c r="J193">
         <v>5536.4319921509996</v>
@@ -13920,7 +13922,7 @@
         <v>3.0297655571635316</v>
       </c>
       <c r="I205">
-        <v>5602.9976512795838</v>
+        <v>5579.6155452511666</v>
       </c>
       <c r="J205">
         <v>5528.2375914284166</v>
@@ -14316,7 +14318,7 @@
         <v>3.310279690794097</v>
       </c>
       <c r="I217">
-        <v>5583.6918093036666</v>
+        <v>5602.9976512795838</v>
       </c>
       <c r="J217">
         <v>5545.9975145588332</v>
@@ -14712,7 +14714,7 @@
         <v>3.4880874914559121</v>
       </c>
       <c r="I229">
-        <v>5701.7821710616663</v>
+        <v>5583.6918093036666</v>
       </c>
       <c r="J229">
         <v>5591.9719411987498</v>
@@ -15108,7 +15110,7 @@
         <v>2.4989846768820789</v>
       </c>
       <c r="I241">
-        <v>5820.8462458357499</v>
+        <v>5701.7821710616663</v>
       </c>
       <c r="J241">
         <v>5719.92399543375</v>
@@ -15504,7 +15506,7 @@
         <v>3.8401351526965564</v>
       </c>
       <c r="I253">
-        <v>5992.2054385132506</v>
+        <v>5820.8462458357499</v>
       </c>
       <c r="J253">
         <v>5858.8406621004169</v>
@@ -15900,7 +15902,7 @@
         <v>5.2361131363922064</v>
       </c>
       <c r="I265">
-        <v>6093.9747731696662</v>
+        <v>5992.2054385132506</v>
       </c>
       <c r="J265">
         <v>5998.8045309654162</v>
@@ -16296,7 +16298,7 @@
         <v>3.1404598269468482</v>
       </c>
       <c r="I277">
-        <v>6162.5895042607508</v>
+        <v>6093.9747731696662</v>
       </c>
       <c r="J277">
         <v>6185.0263470319996</v>
@@ -16692,7 +16694,7 @@
         <v>2.3081459854014601</v>
       </c>
       <c r="I289">
-        <v>6300.3318861344169</v>
+        <v>6162.5895042607508</v>
       </c>
       <c r="J289">
         <v>6306.9079223744166</v>
@@ -17088,7 +17090,7 @@
         <v>3.0489857819905208</v>
       </c>
       <c r="I301">
-        <v>6440.6864477303325</v>
+        <v>6300.3318861344169</v>
       </c>
       <c r="J301">
         <v>6236.6724429223332</v>
@@ -17484,7 +17486,7 @@
         <v>11.178785796105382</v>
       </c>
       <c r="I313">
-        <v>6508.4769006348333</v>
+        <v>6440.6864477303325</v>
       </c>
       <c r="J313">
         <v>6477.4275847185008</v>
@@ -17880,7 +17882,7 @@
         <v>2.9626426155580607</v>
       </c>
       <c r="I325">
-        <v>6569.9617535177495</v>
+        <v>6508.4769006348333</v>
       </c>
       <c r="J325">
         <v>6472.7671688515838</v>
@@ -18276,7 +18278,7 @@
         <v>5.6859141914191422</v>
       </c>
       <c r="I337">
-        <v>6706.2163981338335</v>
+        <v>6569.9617535177495</v>
       </c>
       <c r="J337">
         <v>6425.3059677438332</v>
@@ -18672,7 +18674,7 @@
         <v>7.2066328840970364</v>
       </c>
       <c r="I349">
-        <v>6968.496815135416</v>
+        <v>6706.2163981338335</v>
       </c>
       <c r="J349">
         <v>6635.2824495295836</v>
@@ -19068,7 +19070,7 @@
         <v>7.4854793948878457</v>
       </c>
       <c r="I361">
-        <v>7076.6346961399167</v>
+        <v>6968.496815135416</v>
       </c>
       <c r="J361">
         <v>6954.1729199940828</v>
@@ -19464,7 +19466,7 @@
         <v>14.124010095911158</v>
       </c>
       <c r="I373">
-        <v>7177.2938619074166</v>
+        <v>7076.6346961399167</v>
       </c>
       <c r="J373">
         <v>7093.1839550228333</v>
@@ -19860,7 +19862,7 @@
         <v>7.0653195470211729</v>
       </c>
       <c r="I385">
-        <v>7295.8131212756671</v>
+        <v>7177.2938619074166</v>
       </c>
       <c r="J385">
         <v>7103.5472029679995</v>
@@ -20256,7 +20258,7 @@
         <v>7.3743621272671387</v>
       </c>
       <c r="I397">
-        <v>7253.3446709098325</v>
+        <v>7295.8131212756671</v>
       </c>
       <c r="J397">
         <v>7109.255239269417</v>
@@ -20652,7 +20654,7 @@
         <v>5.9730139357988259</v>
       </c>
       <c r="I409">
-        <v>7172.5757773082505</v>
+        <v>7253.3446709098325</v>
       </c>
       <c r="J409">
         <v>7222.2654166666662</v>
@@ -21048,7 +21050,7 @@
         <v>5.3881102568703501</v>
       </c>
       <c r="I421">
-        <v>7404.2210640281664</v>
+        <v>7172.5757773082505</v>
       </c>
       <c r="J421">
         <v>7155.8168136986669</v>
@@ -21444,7 +21446,7 @@
         <v>4.1939983308538045</v>
       </c>
       <c r="I433">
-        <v>7470.8507910100825</v>
+        <v>7404.2210640281664</v>
       </c>
       <c r="J433">
         <v>7380.8865198630001</v>
@@ -21840,7 +21842,7 @@
         <v>3.0328479071220786</v>
       </c>
       <c r="I445">
-        <v>7583.8597079364999</v>
+        <v>7470.8507910100825</v>
       </c>
       <c r="J445">
         <v>7419.8428742009164</v>
@@ -22236,7 +22238,7 @@
         <v>3.15017753577746</v>
       </c>
       <c r="I457">
-        <v>7700.5722596863334</v>
+        <v>7583.8597079364999</v>
       </c>
       <c r="J457">
         <v>7591.0217035519163</v>
@@ -22632,7 +22634,7 @@
         <v>3.9394305531294869</v>
       </c>
       <c r="I469">
-        <v>7836.6400631055003</v>
+        <v>7700.5722596863334</v>
       </c>
       <c r="J469">
         <v>7641.2225057077494</v>
@@ -23028,7 +23030,7 @@
         <v>3.1661717149484452</v>
       </c>
       <c r="I481">
-        <v>8005.1027153496661</v>
+        <v>7836.6400631055003</v>
       </c>
       <c r="J481">
         <v>7856.4242559360828</v>
@@ -23424,7 +23426,7 @@
         <v>1.7606546209900891</v>
       </c>
       <c r="I493">
-        <v>8091.9892900152508</v>
+        <v>8005.1027153496661</v>
       </c>
       <c r="J493">
         <v>8092.0908968036665</v>
@@ -23820,7 +23822,7 @@
         <v>3.2158832155273265</v>
       </c>
       <c r="I505">
-        <v>8158.333333333333</v>
+        <v>8091.9892900152508</v>
       </c>
       <c r="J505">
         <v>8125.9152174408337</v>
@@ -24216,7 +24218,7 @@
         <v>2.4279885922202813</v>
       </c>
       <c r="I517">
-        <v>8275</v>
+        <v>8158.333333333333</v>
       </c>
       <c r="J517">
         <v>8176.5388458904163</v>
@@ -24612,7 +24614,7 @@
         <v>3.4085382019048525</v>
       </c>
       <c r="I529">
-        <v>8358.3333333333339</v>
+        <v>8275</v>
       </c>
       <c r="J529">
         <v>8404.3816744291671</v>
@@ -24644,8 +24646,8 @@
       <c r="H530">
         <v>2.6583228124888691</v>
       </c>
-      <c r="I530">
-        <v>8358.3333333333339</v>
+      <c r="I530" s="4">
+        <v>8358</v>
       </c>
     </row>
     <row r="531" spans="1:10" x14ac:dyDescent="0.3">
@@ -24674,8 +24676,8 @@
       <c r="H531">
         <v>2.3435287796359732</v>
       </c>
-      <c r="I531">
-        <v>8358.3333333333339</v>
+      <c r="I531" s="4">
+        <v>8358</v>
       </c>
     </row>
     <row r="532" spans="1:10" x14ac:dyDescent="0.3">
@@ -24704,8 +24706,8 @@
       <c r="H532">
         <v>2.5227631144057794</v>
       </c>
-      <c r="I532">
-        <v>8358.3333333333339</v>
+      <c r="I532" s="4">
+        <v>8358</v>
       </c>
     </row>
     <row r="533" spans="1:10" x14ac:dyDescent="0.3">
@@ -24734,8 +24736,8 @@
       <c r="H533">
         <v>2.2666949066120696</v>
       </c>
-      <c r="I533">
-        <v>8358.3333333333339</v>
+      <c r="I533" s="4">
+        <v>8358</v>
       </c>
     </row>
     <row r="534" spans="1:10" x14ac:dyDescent="0.3">
@@ -24764,8 +24766,8 @@
       <c r="H534">
         <v>2.2478509141502223</v>
       </c>
-      <c r="I534">
-        <v>8358.3333333333339</v>
+      <c r="I534" s="4">
+        <v>8358</v>
       </c>
     </row>
     <row r="535" spans="1:10" x14ac:dyDescent="0.3">
@@ -24794,8 +24796,8 @@
       <c r="H535">
         <v>2.0500656078024324</v>
       </c>
-      <c r="I535">
-        <v>8358.3333333333339</v>
+      <c r="I535" s="4">
+        <v>8358</v>
       </c>
     </row>
     <row r="536" spans="1:10" x14ac:dyDescent="0.3">
@@ -24824,8 +24826,8 @@
       <c r="H536">
         <v>2.0091614258220414</v>
       </c>
-      <c r="I536">
-        <v>8358.3333333333339</v>
+      <c r="I536" s="4">
+        <v>8358</v>
       </c>
     </row>
     <row r="537" spans="1:10" x14ac:dyDescent="0.3">
@@ -24854,8 +24856,8 @@
       <c r="H537">
         <v>1.8889488880218497</v>
       </c>
-      <c r="I537">
-        <v>8358.3333333333339</v>
+      <c r="I537" s="4">
+        <v>8358</v>
       </c>
     </row>
     <row r="538" spans="1:10" x14ac:dyDescent="0.3">
@@ -24884,8 +24886,8 @@
       <c r="H538">
         <v>2.1947682537701185</v>
       </c>
-      <c r="I538">
-        <v>8358.3333333333339</v>
+      <c r="I538" s="4">
+        <v>8358</v>
       </c>
     </row>
     <row r="539" spans="1:10" x14ac:dyDescent="0.3">
@@ -24913,6 +24915,9 @@
       </c>
       <c r="H539">
         <v>49.240945151221865</v>
+      </c>
+      <c r="I539" s="4">
+        <v>8358</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Model_Data_Rev1.xlsx
+++ b/Data/Model_Data_Rev1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b6b1d75baa2bc4e/Homework/Project_3/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyang/Desktop/Project-3/Project_3/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{F1BC7877-C7A7-4EFA-B67C-10393784DE1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E918A11-58E8-A140-AF9A-5D6482B416F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6100" yWindow="2640" windowWidth="23260" windowHeight="13180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_Data" sheetId="1" r:id="rId1"/>
@@ -4356,6 +4356,33 @@
                 </c:pt>
                 <c:pt idx="397">
                   <c:v>8404.3816744291671</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>8527</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>8527</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>8527</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>8527</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>8527</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>8527</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>8527</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>8527</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>8527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9275,18 +9302,18 @@
   <dimension ref="A1:J539"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A513" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I529" sqref="I529"/>
+      <pane ySplit="1" topLeftCell="A523" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J530" sqref="J530:J539"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9318,7 +9345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>27395</v>
       </c>
@@ -9332,7 +9359,7 @@
         <v>4683.143</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>27426</v>
       </c>
@@ -9346,7 +9373,7 @@
         <v>4683.143</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>27454</v>
       </c>
@@ -9360,7 +9387,7 @@
         <v>4683.143</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>27485</v>
       </c>
@@ -9374,7 +9401,7 @@
         <v>4683.143</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>27515</v>
       </c>
@@ -9388,7 +9415,7 @@
         <v>4683.143</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>27546</v>
       </c>
@@ -9402,7 +9429,7 @@
         <v>4683.143</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>27576</v>
       </c>
@@ -9416,7 +9443,7 @@
         <v>4683.143</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>27607</v>
       </c>
@@ -9430,7 +9457,7 @@
         <v>4683.143</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>27638</v>
       </c>
@@ -9444,7 +9471,7 @@
         <v>4683.143</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>27668</v>
       </c>
@@ -9458,7 +9485,7 @@
         <v>4683.143</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>27699</v>
       </c>
@@ -9472,7 +9499,7 @@
         <v>4683.143</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>27729</v>
       </c>
@@ -9486,7 +9513,7 @@
         <v>4683.143</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>27760</v>
       </c>
@@ -9500,7 +9527,7 @@
         <v>4972.7294166666661</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>27791</v>
       </c>
@@ -9514,7 +9541,7 @@
         <v>4972.7294166666661</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>27820</v>
       </c>
@@ -9528,7 +9555,7 @@
         <v>4972.7294166666661</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>27851</v>
       </c>
@@ -9542,7 +9569,7 @@
         <v>4972.7294166666661</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>27881</v>
       </c>
@@ -9556,7 +9583,7 @@
         <v>4972.7294166666661</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>27912</v>
       </c>
@@ -9570,7 +9597,7 @@
         <v>4972.7294166666661</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>27942</v>
       </c>
@@ -9584,7 +9611,7 @@
         <v>4972.7294166666661</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>27973</v>
       </c>
@@ -9598,7 +9625,7 @@
         <v>4972.7294166666661</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>28004</v>
       </c>
@@ -9612,7 +9639,7 @@
         <v>4972.7294166666661</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>28034</v>
       </c>
@@ -9626,7 +9653,7 @@
         <v>4972.7294166666661</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>28065</v>
       </c>
@@ -9640,7 +9667,7 @@
         <v>4972.7294166666661</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>28095</v>
       </c>
@@ -9654,7 +9681,7 @@
         <v>4972.7294166666661</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>28126</v>
       </c>
@@ -9668,7 +9695,7 @@
         <v>5152.1894166666671</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>28157</v>
       </c>
@@ -9682,7 +9709,7 @@
         <v>5152.1894166666671</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>28185</v>
       </c>
@@ -9696,7 +9723,7 @@
         <v>5152.1894166666671</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28216</v>
       </c>
@@ -9710,7 +9737,7 @@
         <v>5152.1894166666671</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28246</v>
       </c>
@@ -9724,7 +9751,7 @@
         <v>5152.1894166666671</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>28277</v>
       </c>
@@ -9738,7 +9765,7 @@
         <v>5152.1894166666671</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>28307</v>
       </c>
@@ -9752,7 +9779,7 @@
         <v>5152.1894166666671</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>28338</v>
       </c>
@@ -9766,7 +9793,7 @@
         <v>5152.1894166666671</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>28369</v>
       </c>
@@ -9780,7 +9807,7 @@
         <v>5152.1894166666671</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>28399</v>
       </c>
@@ -9794,7 +9821,7 @@
         <v>5152.1894166666671</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>28430</v>
       </c>
@@ -9808,7 +9835,7 @@
         <v>5152.1894166666671</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>28460</v>
       </c>
@@ -9822,7 +9849,7 @@
         <v>5152.1894166666671</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>28491</v>
       </c>
@@ -9836,7 +9863,7 @@
         <v>5346.5407500000001</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>28522</v>
       </c>
@@ -9850,7 +9877,7 @@
         <v>5346.5407500000001</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>28550</v>
       </c>
@@ -9864,7 +9891,7 @@
         <v>5346.5407500000001</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>28581</v>
       </c>
@@ -9878,7 +9905,7 @@
         <v>5346.5407500000001</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>28611</v>
       </c>
@@ -9892,7 +9919,7 @@
         <v>5346.5407500000001</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>28642</v>
       </c>
@@ -9906,7 +9933,7 @@
         <v>5346.5407500000001</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>28672</v>
       </c>
@@ -9920,7 +9947,7 @@
         <v>5346.5407500000001</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>28703</v>
       </c>
@@ -9934,7 +9961,7 @@
         <v>5346.5407500000001</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>28734</v>
       </c>
@@ -9948,7 +9975,7 @@
         <v>5346.5407500000001</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>28764</v>
       </c>
@@ -9962,7 +9989,7 @@
         <v>5346.5407500000001</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>28795</v>
       </c>
@@ -9976,7 +10003,7 @@
         <v>5346.5407500000001</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>28825</v>
       </c>
@@ -9990,7 +10017,7 @@
         <v>5346.5407500000001</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>28856</v>
       </c>
@@ -10004,7 +10031,7 @@
         <v>5435.0216666666665</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>28887</v>
       </c>
@@ -10018,7 +10045,7 @@
         <v>5435.0216666666665</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>28915</v>
       </c>
@@ -10032,7 +10059,7 @@
         <v>5435.0216666666665</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>28946</v>
       </c>
@@ -10046,7 +10073,7 @@
         <v>5435.0216666666665</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>28976</v>
       </c>
@@ -10060,7 +10087,7 @@
         <v>5435.0216666666665</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>29007</v>
       </c>
@@ -10074,7 +10101,7 @@
         <v>5435.0216666666665</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>29037</v>
       </c>
@@ -10088,7 +10115,7 @@
         <v>5435.0216666666665</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>29068</v>
       </c>
@@ -10102,7 +10129,7 @@
         <v>5435.0216666666665</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>29099</v>
       </c>
@@ -10116,7 +10143,7 @@
         <v>5435.0216666666665</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>29129</v>
       </c>
@@ -10130,7 +10157,7 @@
         <v>5435.0216666666665</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>29160</v>
       </c>
@@ -10144,7 +10171,7 @@
         <v>5435.0216666666665</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>29190</v>
       </c>
@@ -10158,7 +10185,7 @@
         <v>5435.0216666666665</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>29221</v>
       </c>
@@ -10175,7 +10202,7 @@
         <v>5332.3166666666666</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>29252</v>
       </c>
@@ -10192,7 +10219,7 @@
         <v>5332.3166666666666</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>29281</v>
       </c>
@@ -10209,7 +10236,7 @@
         <v>5332.3166666666666</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>29312</v>
       </c>
@@ -10226,7 +10253,7 @@
         <v>5332.3166666666666</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>29342</v>
       </c>
@@ -10243,7 +10270,7 @@
         <v>5332.3166666666666</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>29373</v>
       </c>
@@ -10260,7 +10287,7 @@
         <v>5332.3166666666666</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>29403</v>
       </c>
@@ -10277,7 +10304,7 @@
         <v>5332.3166666666666</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>29434</v>
       </c>
@@ -10294,7 +10321,7 @@
         <v>5332.3166666666666</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>29465</v>
       </c>
@@ -10311,7 +10338,7 @@
         <v>5332.3166666666666</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>29495</v>
       </c>
@@ -10328,7 +10355,7 @@
         <v>5332.3166666666666</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>29526</v>
       </c>
@@ -10345,7 +10372,7 @@
         <v>5332.3166666666666</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>29556</v>
       </c>
@@ -10362,7 +10389,7 @@
         <v>5332.3166666666666</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>29587</v>
       </c>
@@ -10379,7 +10406,7 @@
         <v>5050.166666666667</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>29618</v>
       </c>
@@ -10396,7 +10423,7 @@
         <v>5050.166666666667</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>29646</v>
       </c>
@@ -10413,7 +10440,7 @@
         <v>5050.166666666667</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>29677</v>
       </c>
@@ -10430,7 +10457,7 @@
         <v>5050.166666666667</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>29707</v>
       </c>
@@ -10447,7 +10474,7 @@
         <v>5050.166666666667</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>29738</v>
       </c>
@@ -10464,7 +10491,7 @@
         <v>5050.166666666667</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>29768</v>
       </c>
@@ -10481,7 +10508,7 @@
         <v>5050.166666666667</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>29799</v>
       </c>
@@ -10498,7 +10525,7 @@
         <v>5050.166666666667</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>29830</v>
       </c>
@@ -10515,7 +10542,7 @@
         <v>5050.166666666667</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>29860</v>
       </c>
@@ -10532,7 +10559,7 @@
         <v>5050.166666666667</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>29891</v>
       </c>
@@ -10549,7 +10576,7 @@
         <v>5050.166666666667</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>29921</v>
       </c>
@@ -10566,7 +10593,7 @@
         <v>5050.166666666667</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>29952</v>
       </c>
@@ -10586,7 +10613,7 @@
         <v>4841.6750000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>29983</v>
       </c>
@@ -10606,7 +10633,7 @@
         <v>4841.6750000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>30011</v>
       </c>
@@ -10626,7 +10653,7 @@
         <v>4841.6750000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>30042</v>
       </c>
@@ -10646,7 +10673,7 @@
         <v>4841.6750000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>30072</v>
       </c>
@@ -10666,7 +10693,7 @@
         <v>4841.6750000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>30103</v>
       </c>
@@ -10686,7 +10713,7 @@
         <v>4841.6750000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>30133</v>
       </c>
@@ -10706,7 +10733,7 @@
         <v>4841.6750000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>30164</v>
       </c>
@@ -10726,7 +10753,7 @@
         <v>4841.6750000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>30195</v>
       </c>
@@ -10746,7 +10773,7 @@
         <v>4841.6750000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>30225</v>
       </c>
@@ -10766,7 +10793,7 @@
         <v>4841.6750000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>30256</v>
       </c>
@@ -10786,7 +10813,7 @@
         <v>4841.6750000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>30286</v>
       </c>
@@ -10806,7 +10833,7 @@
         <v>4841.6750000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>30317</v>
       </c>
@@ -10826,7 +10853,7 @@
         <v>4827.4416666666666</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>30348</v>
       </c>
@@ -10846,7 +10873,7 @@
         <v>4827.4416666666666</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>30376</v>
       </c>
@@ -10866,7 +10893,7 @@
         <v>4827.4416666666666</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>30407</v>
       </c>
@@ -10886,7 +10913,7 @@
         <v>4827.4416666666666</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>30437</v>
       </c>
@@ -10906,7 +10933,7 @@
         <v>4827.4416666666666</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>30468</v>
       </c>
@@ -10926,7 +10953,7 @@
         <v>4827.4416666666666</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>30498</v>
       </c>
@@ -10946,7 +10973,7 @@
         <v>4827.4416666666666</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>30529</v>
       </c>
@@ -10966,7 +10993,7 @@
         <v>4827.4416666666666</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>30560</v>
       </c>
@@ -10986,7 +11013,7 @@
         <v>4827.4416666666666</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>30590</v>
       </c>
@@ -11006,7 +11033,7 @@
         <v>4827.4416666666666</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>30621</v>
       </c>
@@ -11026,7 +11053,7 @@
         <v>4827.4416666666666</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>30651</v>
       </c>
@@ -11046,7 +11073,7 @@
         <v>4827.4416666666666</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>30682</v>
       </c>
@@ -11066,7 +11093,7 @@
         <v>4963.6214949909163</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>30713</v>
       </c>
@@ -11086,7 +11113,7 @@
         <v>4963.6214949909163</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>30742</v>
       </c>
@@ -11106,7 +11133,7 @@
         <v>4963.6214949909163</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>30773</v>
       </c>
@@ -11126,7 +11153,7 @@
         <v>4963.6214949909163</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>30803</v>
       </c>
@@ -11146,7 +11173,7 @@
         <v>4963.6214949909163</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>30834</v>
       </c>
@@ -11166,7 +11193,7 @@
         <v>4963.6214949909163</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>30864</v>
       </c>
@@ -11186,7 +11213,7 @@
         <v>4963.6214949909163</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>30895</v>
       </c>
@@ -11206,7 +11233,7 @@
         <v>4963.6214949909163</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>30926</v>
       </c>
@@ -11226,7 +11253,7 @@
         <v>4963.6214949909163</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>30956</v>
       </c>
@@ -11246,7 +11273,7 @@
         <v>4963.6214949909163</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>30987</v>
       </c>
@@ -11266,7 +11293,7 @@
         <v>4963.6214949909163</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>31017</v>
       </c>
@@ -11286,7 +11313,7 @@
         <v>4963.6214949909163</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>31048</v>
       </c>
@@ -11306,7 +11333,7 @@
         <v>4929.6771191533335</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>31079</v>
       </c>
@@ -11326,7 +11353,7 @@
         <v>4929.6771191533335</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>31107</v>
       </c>
@@ -11346,7 +11373,7 @@
         <v>4929.6771191533335</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>31138</v>
       </c>
@@ -11366,7 +11393,7 @@
         <v>4929.6771191533335</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>31168</v>
       </c>
@@ -11386,7 +11413,7 @@
         <v>4929.6771191533335</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>31199</v>
       </c>
@@ -11406,7 +11433,7 @@
         <v>4929.6771191533335</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>31229</v>
       </c>
@@ -11426,7 +11453,7 @@
         <v>4929.6771191533335</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>31260</v>
       </c>
@@ -11446,7 +11473,7 @@
         <v>4929.6771191533335</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>31291</v>
       </c>
@@ -11466,7 +11493,7 @@
         <v>4929.6771191533335</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>31321</v>
       </c>
@@ -11486,7 +11513,7 @@
         <v>4929.6771191533335</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>31352</v>
       </c>
@@ -11519,7 +11546,7 @@
         <v>4929.6771191533335</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>31382</v>
       </c>
@@ -11552,7 +11579,7 @@
         <v>4929.6771191533335</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>31413</v>
       </c>
@@ -11585,7 +11612,7 @@
         <v>5127.9131400385832</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>31444</v>
       </c>
@@ -11618,7 +11645,7 @@
         <v>5127.9131400385832</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>31472</v>
       </c>
@@ -11651,7 +11678,7 @@
         <v>5127.9131400385832</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>31503</v>
       </c>
@@ -11684,7 +11711,7 @@
         <v>5127.9131400385832</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>31533</v>
       </c>
@@ -11717,7 +11744,7 @@
         <v>5127.9131400385832</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>31564</v>
       </c>
@@ -11750,7 +11777,7 @@
         <v>5127.9131400385832</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>31594</v>
       </c>
@@ -11783,7 +11810,7 @@
         <v>5127.9131400385832</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>31625</v>
       </c>
@@ -11816,7 +11843,7 @@
         <v>5127.9131400385832</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>31656</v>
       </c>
@@ -11849,7 +11876,7 @@
         <v>5127.9131400385832</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>31686</v>
       </c>
@@ -11882,7 +11909,7 @@
         <v>5127.9131400385832</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>31717</v>
       </c>
@@ -11915,7 +11942,7 @@
         <v>5127.9131400385832</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>31747</v>
       </c>
@@ -11948,7 +11975,7 @@
         <v>5127.9131400385832</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>31778</v>
       </c>
@@ -11981,7 +12008,7 @@
         <v>5175.1058703178333</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>31809</v>
       </c>
@@ -12014,7 +12041,7 @@
         <v>5175.1058703178333</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>31837</v>
       </c>
@@ -12047,7 +12074,7 @@
         <v>5175.1058703178333</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>31868</v>
       </c>
@@ -12080,7 +12107,7 @@
         <v>5175.1058703178333</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>31898</v>
       </c>
@@ -12113,7 +12140,7 @@
         <v>5175.1058703178333</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>31929</v>
       </c>
@@ -12146,7 +12173,7 @@
         <v>5175.1058703178333</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>31959</v>
       </c>
@@ -12179,7 +12206,7 @@
         <v>5175.1058703178333</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>31990</v>
       </c>
@@ -12212,7 +12239,7 @@
         <v>5175.1058703178333</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>32021</v>
       </c>
@@ -12245,7 +12272,7 @@
         <v>5175.1058703178333</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>32051</v>
       </c>
@@ -12278,7 +12305,7 @@
         <v>5175.1058703178333</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>32082</v>
       </c>
@@ -12311,7 +12338,7 @@
         <v>5175.1058703178333</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>32112</v>
       </c>
@@ -12344,7 +12371,7 @@
         <v>5175.1058703178333</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>32143</v>
       </c>
@@ -12377,7 +12404,7 @@
         <v>5366.5609754768329</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>32174</v>
       </c>
@@ -12410,7 +12437,7 @@
         <v>5366.5609754768329</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>32203</v>
       </c>
@@ -12443,7 +12470,7 @@
         <v>5366.5609754768329</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>32234</v>
       </c>
@@ -12476,7 +12503,7 @@
         <v>5366.5609754768329</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>32264</v>
       </c>
@@ -12509,7 +12536,7 @@
         <v>5366.5609754768329</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>32295</v>
       </c>
@@ -12542,7 +12569,7 @@
         <v>5366.5609754768329</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>32325</v>
       </c>
@@ -12575,7 +12602,7 @@
         <v>5366.5609754768329</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>32356</v>
       </c>
@@ -12608,7 +12635,7 @@
         <v>5366.5609754768329</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>32387</v>
       </c>
@@ -12641,7 +12668,7 @@
         <v>5366.5609754768329</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>32417</v>
       </c>
@@ -12674,7 +12701,7 @@
         <v>5366.5609754768329</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>32448</v>
       </c>
@@ -12707,7 +12734,7 @@
         <v>5366.5609754768329</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>32478</v>
       </c>
@@ -12740,7 +12767,7 @@
         <v>5366.5609754768329</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>32509</v>
       </c>
@@ -12773,7 +12800,7 @@
         <v>5460.4092719290829</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>32540</v>
       </c>
@@ -12806,7 +12833,7 @@
         <v>5460.4092719290829</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>32568</v>
       </c>
@@ -12839,7 +12866,7 @@
         <v>5460.4092719290829</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>32599</v>
       </c>
@@ -12872,7 +12899,7 @@
         <v>5460.4092719290829</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>32629</v>
       </c>
@@ -12905,7 +12932,7 @@
         <v>5460.4092719290829</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>32660</v>
       </c>
@@ -12938,7 +12965,7 @@
         <v>5460.4092719290829</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>32690</v>
       </c>
@@ -12971,7 +12998,7 @@
         <v>5460.4092719290829</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>32721</v>
       </c>
@@ -13004,7 +13031,7 @@
         <v>5460.4092719290829</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>32752</v>
       </c>
@@ -13037,7 +13064,7 @@
         <v>5460.4092719290829</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>32782</v>
       </c>
@@ -13070,7 +13097,7 @@
         <v>5460.4092719290829</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>32813</v>
       </c>
@@ -13103,7 +13130,7 @@
         <v>5460.4092719290829</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>32843</v>
       </c>
@@ -13136,7 +13163,7 @@
         <v>5460.4092719290829</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>32874</v>
       </c>
@@ -13169,7 +13196,7 @@
         <v>5536.4319921509996</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>32905</v>
       </c>
@@ -13202,7 +13229,7 @@
         <v>5536.4319921509996</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>32933</v>
       </c>
@@ -13235,7 +13262,7 @@
         <v>5536.4319921509996</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>32964</v>
       </c>
@@ -13268,7 +13295,7 @@
         <v>5536.4319921509996</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>32994</v>
       </c>
@@ -13301,7 +13328,7 @@
         <v>5536.4319921509996</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>33025</v>
       </c>
@@ -13334,7 +13361,7 @@
         <v>5536.4319921509996</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>33055</v>
       </c>
@@ -13367,7 +13394,7 @@
         <v>5536.4319921509996</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>33086</v>
       </c>
@@ -13400,7 +13427,7 @@
         <v>5536.4319921509996</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>33117</v>
       </c>
@@ -13433,7 +13460,7 @@
         <v>5536.4319921509996</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>33147</v>
       </c>
@@ -13466,7 +13493,7 @@
         <v>5536.4319921509996</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>33178</v>
       </c>
@@ -13499,7 +13526,7 @@
         <v>5536.4319921509996</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>33208</v>
       </c>
@@ -13532,7 +13559,7 @@
         <v>5536.4319921509996</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>33239</v>
       </c>
@@ -13565,7 +13592,7 @@
         <v>5528.2375914284166</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>33270</v>
       </c>
@@ -13598,7 +13625,7 @@
         <v>5528.2375914284166</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>33298</v>
       </c>
@@ -13631,7 +13658,7 @@
         <v>5528.2375914284166</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>33329</v>
       </c>
@@ -13664,7 +13691,7 @@
         <v>5528.2375914284166</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>33359</v>
       </c>
@@ -13697,7 +13724,7 @@
         <v>5528.2375914284166</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>33390</v>
       </c>
@@ -13730,7 +13757,7 @@
         <v>5528.2375914284166</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>33420</v>
       </c>
@@ -13763,7 +13790,7 @@
         <v>5528.2375914284166</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>33451</v>
       </c>
@@ -13796,7 +13823,7 @@
         <v>5528.2375914284166</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>33482</v>
       </c>
@@ -13829,7 +13856,7 @@
         <v>5528.2375914284166</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>33512</v>
       </c>
@@ -13862,7 +13889,7 @@
         <v>5528.2375914284166</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>33543</v>
       </c>
@@ -13895,7 +13922,7 @@
         <v>5528.2375914284166</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>33573</v>
       </c>
@@ -13928,7 +13955,7 @@
         <v>5528.2375914284166</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>33604</v>
       </c>
@@ -13961,7 +13988,7 @@
         <v>5545.9975145588332</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>33635</v>
       </c>
@@ -13994,7 +14021,7 @@
         <v>5545.9975145588332</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>33664</v>
       </c>
@@ -14027,7 +14054,7 @@
         <v>5545.9975145588332</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>33695</v>
       </c>
@@ -14060,7 +14087,7 @@
         <v>5545.9975145588332</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>33725</v>
       </c>
@@ -14093,7 +14120,7 @@
         <v>5545.9975145588332</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>33756</v>
       </c>
@@ -14126,7 +14153,7 @@
         <v>5545.9975145588332</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>33786</v>
       </c>
@@ -14159,7 +14186,7 @@
         <v>5545.9975145588332</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>33817</v>
       </c>
@@ -14192,7 +14219,7 @@
         <v>5545.9975145588332</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>33848</v>
       </c>
@@ -14225,7 +14252,7 @@
         <v>5545.9975145588332</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>33878</v>
       </c>
@@ -14258,7 +14285,7 @@
         <v>5545.9975145588332</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>33909</v>
       </c>
@@ -14291,7 +14318,7 @@
         <v>5545.9975145588332</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>33939</v>
       </c>
@@ -14324,7 +14351,7 @@
         <v>5545.9975145588332</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>33970</v>
       </c>
@@ -14357,7 +14384,7 @@
         <v>5591.9719411987498</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>34001</v>
       </c>
@@ -14390,7 +14417,7 @@
         <v>5591.9719411987498</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>34029</v>
       </c>
@@ -14423,7 +14450,7 @@
         <v>5591.9719411987498</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>34060</v>
       </c>
@@ -14456,7 +14483,7 @@
         <v>5591.9719411987498</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>34090</v>
       </c>
@@ -14489,7 +14516,7 @@
         <v>5591.9719411987498</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>34121</v>
       </c>
@@ -14522,7 +14549,7 @@
         <v>5591.9719411987498</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>34151</v>
       </c>
@@ -14555,7 +14582,7 @@
         <v>5591.9719411987498</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>34182</v>
       </c>
@@ -14588,7 +14615,7 @@
         <v>5591.9719411987498</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>34213</v>
       </c>
@@ -14621,7 +14648,7 @@
         <v>5591.9719411987498</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>34243</v>
       </c>
@@ -14654,7 +14681,7 @@
         <v>5591.9719411987498</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>34274</v>
       </c>
@@ -14687,7 +14714,7 @@
         <v>5591.9719411987498</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>34304</v>
       </c>
@@ -14720,7 +14747,7 @@
         <v>5591.9719411987498</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>34335</v>
       </c>
@@ -14753,7 +14780,7 @@
         <v>5719.92399543375</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>34366</v>
       </c>
@@ -14786,7 +14813,7 @@
         <v>5719.92399543375</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>34394</v>
       </c>
@@ -14819,7 +14846,7 @@
         <v>5719.92399543375</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>34425</v>
       </c>
@@ -14852,7 +14879,7 @@
         <v>5719.92399543375</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>34455</v>
       </c>
@@ -14885,7 +14912,7 @@
         <v>5719.92399543375</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>34486</v>
       </c>
@@ -14918,7 +14945,7 @@
         <v>5719.92399543375</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>34516</v>
       </c>
@@ -14951,7 +14978,7 @@
         <v>5719.92399543375</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>34547</v>
       </c>
@@ -14984,7 +15011,7 @@
         <v>5719.92399543375</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>34578</v>
       </c>
@@ -15017,7 +15044,7 @@
         <v>5719.92399543375</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>34608</v>
       </c>
@@ -15050,7 +15077,7 @@
         <v>5719.92399543375</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>34639</v>
       </c>
@@ -15083,7 +15110,7 @@
         <v>5719.92399543375</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>34669</v>
       </c>
@@ -15116,7 +15143,7 @@
         <v>5719.92399543375</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>34700</v>
       </c>
@@ -15149,7 +15176,7 @@
         <v>5858.8406621004169</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>34731</v>
       </c>
@@ -15182,7 +15209,7 @@
         <v>5858.8406621004169</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>34759</v>
       </c>
@@ -15215,7 +15242,7 @@
         <v>5858.8406621004169</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>34790</v>
       </c>
@@ -15248,7 +15275,7 @@
         <v>5858.8406621004169</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>34820</v>
       </c>
@@ -15281,7 +15308,7 @@
         <v>5858.8406621004169</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>34851</v>
       </c>
@@ -15314,7 +15341,7 @@
         <v>5858.8406621004169</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>34881</v>
       </c>
@@ -15347,7 +15374,7 @@
         <v>5858.8406621004169</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>34912</v>
       </c>
@@ -15380,7 +15407,7 @@
         <v>5858.8406621004169</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>34943</v>
       </c>
@@ -15413,7 +15440,7 @@
         <v>5858.8406621004169</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>34973</v>
       </c>
@@ -15446,7 +15473,7 @@
         <v>5858.8406621004169</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>35004</v>
       </c>
@@ -15479,7 +15506,7 @@
         <v>5858.8406621004169</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>35034</v>
       </c>
@@ -15512,7 +15539,7 @@
         <v>5858.8406621004169</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>35065</v>
       </c>
@@ -15545,7 +15572,7 @@
         <v>5998.8045309654162</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>35096</v>
       </c>
@@ -15578,7 +15605,7 @@
         <v>5998.8045309654162</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>35125</v>
       </c>
@@ -15611,7 +15638,7 @@
         <v>5998.8045309654162</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>35156</v>
       </c>
@@ -15644,7 +15671,7 @@
         <v>5998.8045309654162</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>35186</v>
       </c>
@@ -15677,7 +15704,7 @@
         <v>5998.8045309654162</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>35217</v>
       </c>
@@ -15710,7 +15737,7 @@
         <v>5998.8045309654162</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>35247</v>
       </c>
@@ -15743,7 +15770,7 @@
         <v>5998.8045309654162</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>35278</v>
       </c>
@@ -15776,7 +15803,7 @@
         <v>5998.8045309654162</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>35309</v>
       </c>
@@ -15809,7 +15836,7 @@
         <v>5998.8045309654162</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>35339</v>
       </c>
@@ -15842,7 +15869,7 @@
         <v>5998.8045309654162</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>35370</v>
       </c>
@@ -15875,7 +15902,7 @@
         <v>5998.8045309654162</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>35400</v>
       </c>
@@ -15908,7 +15935,7 @@
         <v>5998.8045309654162</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>35431</v>
       </c>
@@ -15941,7 +15968,7 @@
         <v>6185.0263470319996</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>35462</v>
       </c>
@@ -15974,7 +16001,7 @@
         <v>6185.0263470319996</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>35490</v>
       </c>
@@ -16007,7 +16034,7 @@
         <v>6185.0263470319996</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>35521</v>
       </c>
@@ -16040,7 +16067,7 @@
         <v>6185.0263470319996</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>35551</v>
       </c>
@@ -16073,7 +16100,7 @@
         <v>6185.0263470319996</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>35582</v>
       </c>
@@ -16106,7 +16133,7 @@
         <v>6185.0263470319996</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>35612</v>
       </c>
@@ -16139,7 +16166,7 @@
         <v>6185.0263470319996</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>35643</v>
       </c>
@@ -16172,7 +16199,7 @@
         <v>6185.0263470319996</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>35674</v>
       </c>
@@ -16205,7 +16232,7 @@
         <v>6185.0263470319996</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>35704</v>
       </c>
@@ -16238,7 +16265,7 @@
         <v>6185.0263470319996</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>35735</v>
       </c>
@@ -16271,7 +16298,7 @@
         <v>6185.0263470319996</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>35765</v>
       </c>
@@ -16304,7 +16331,7 @@
         <v>6185.0263470319996</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>35796</v>
       </c>
@@ -16337,7 +16364,7 @@
         <v>6306.9079223744166</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>35827</v>
       </c>
@@ -16370,7 +16397,7 @@
         <v>6306.9079223744166</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>35855</v>
       </c>
@@ -16403,7 +16430,7 @@
         <v>6306.9079223744166</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>35886</v>
       </c>
@@ -16436,7 +16463,7 @@
         <v>6306.9079223744166</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>35916</v>
       </c>
@@ -16469,7 +16496,7 @@
         <v>6306.9079223744166</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>35947</v>
       </c>
@@ -16502,7 +16529,7 @@
         <v>6306.9079223744166</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>35977</v>
       </c>
@@ -16535,7 +16562,7 @@
         <v>6306.9079223744166</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>36008</v>
       </c>
@@ -16568,7 +16595,7 @@
         <v>6306.9079223744166</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>36039</v>
       </c>
@@ -16601,7 +16628,7 @@
         <v>6306.9079223744166</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>36069</v>
       </c>
@@ -16634,7 +16661,7 @@
         <v>6306.9079223744166</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>36100</v>
       </c>
@@ -16667,7 +16694,7 @@
         <v>6306.9079223744166</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>36130</v>
       </c>
@@ -16700,7 +16727,7 @@
         <v>6306.9079223744166</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>36161</v>
       </c>
@@ -16733,7 +16760,7 @@
         <v>6236.6724429223332</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>36192</v>
       </c>
@@ -16766,7 +16793,7 @@
         <v>6236.6724429223332</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>36220</v>
       </c>
@@ -16799,7 +16826,7 @@
         <v>6236.6724429223332</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>36251</v>
       </c>
@@ -16832,7 +16859,7 @@
         <v>6236.6724429223332</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>36281</v>
       </c>
@@ -16865,7 +16892,7 @@
         <v>6236.6724429223332</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>36312</v>
       </c>
@@ -16898,7 +16925,7 @@
         <v>6236.6724429223332</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>36342</v>
       </c>
@@ -16931,7 +16958,7 @@
         <v>6236.6724429223332</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>36373</v>
       </c>
@@ -16964,7 +16991,7 @@
         <v>6236.6724429223332</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>36404</v>
       </c>
@@ -16997,7 +17024,7 @@
         <v>6236.6724429223332</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>36434</v>
       </c>
@@ -17030,7 +17057,7 @@
         <v>6236.6724429223332</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>36465</v>
       </c>
@@ -17063,7 +17090,7 @@
         <v>6236.6724429223332</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>36495</v>
       </c>
@@ -17096,7 +17123,7 @@
         <v>6236.6724429223332</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>36526</v>
       </c>
@@ -17129,7 +17156,7 @@
         <v>6477.4275847185008</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>36557</v>
       </c>
@@ -17162,7 +17189,7 @@
         <v>6477.4275847185008</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>36586</v>
       </c>
@@ -17195,7 +17222,7 @@
         <v>6477.4275847185008</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>36617</v>
       </c>
@@ -17228,7 +17255,7 @@
         <v>6477.4275847185008</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>36647</v>
       </c>
@@ -17261,7 +17288,7 @@
         <v>6477.4275847185008</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>36678</v>
       </c>
@@ -17294,7 +17321,7 @@
         <v>6477.4275847185008</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>36708</v>
       </c>
@@ -17327,7 +17354,7 @@
         <v>6477.4275847185008</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>36739</v>
       </c>
@@ -17360,7 +17387,7 @@
         <v>6477.4275847185008</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>36770</v>
       </c>
@@ -17393,7 +17420,7 @@
         <v>6477.4275847185008</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>36800</v>
       </c>
@@ -17426,7 +17453,7 @@
         <v>6477.4275847185008</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>36831</v>
       </c>
@@ -17459,7 +17486,7 @@
         <v>6477.4275847185008</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>36861</v>
       </c>
@@ -17492,7 +17519,7 @@
         <v>6477.4275847185008</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>36892</v>
       </c>
@@ -17525,7 +17552,7 @@
         <v>6472.7671688515838</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>36923</v>
       </c>
@@ -17558,7 +17585,7 @@
         <v>6472.7671688515838</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <v>36951</v>
       </c>
@@ -17591,7 +17618,7 @@
         <v>6472.7671688515838</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <v>36982</v>
       </c>
@@ -17624,7 +17651,7 @@
         <v>6472.7671688515838</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>37012</v>
       </c>
@@ -17657,7 +17684,7 @@
         <v>6472.7671688515838</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>37043</v>
       </c>
@@ -17690,7 +17717,7 @@
         <v>6472.7671688515838</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>37073</v>
       </c>
@@ -17723,7 +17750,7 @@
         <v>6472.7671688515838</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <v>37104</v>
       </c>
@@ -17756,7 +17783,7 @@
         <v>6472.7671688515838</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <v>37135</v>
       </c>
@@ -17789,7 +17816,7 @@
         <v>6472.7671688515838</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>37165</v>
       </c>
@@ -17822,7 +17849,7 @@
         <v>6472.7671688515838</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>37196</v>
       </c>
@@ -17855,7 +17882,7 @@
         <v>6472.7671688515838</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>37226</v>
       </c>
@@ -17888,7 +17915,7 @@
         <v>6472.7671688515838</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>37257</v>
       </c>
@@ -17921,7 +17948,7 @@
         <v>6425.3059677438332</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>37288</v>
       </c>
@@ -17954,7 +17981,7 @@
         <v>6425.3059677438332</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
         <v>37316</v>
       </c>
@@ -17987,7 +18014,7 @@
         <v>6425.3059677438332</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
         <v>37347</v>
       </c>
@@ -18020,7 +18047,7 @@
         <v>6425.3059677438332</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
         <v>37377</v>
       </c>
@@ -18053,7 +18080,7 @@
         <v>6425.3059677438332</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
         <v>37408</v>
       </c>
@@ -18086,7 +18113,7 @@
         <v>6425.3059677438332</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
         <v>37438</v>
       </c>
@@ -18119,7 +18146,7 @@
         <v>6425.3059677438332</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
         <v>37469</v>
       </c>
@@ -18152,7 +18179,7 @@
         <v>6425.3059677438332</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
         <v>37500</v>
       </c>
@@ -18185,7 +18212,7 @@
         <v>6425.3059677438332</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
         <v>37530</v>
       </c>
@@ -18218,7 +18245,7 @@
         <v>6425.3059677438332</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <v>37561</v>
       </c>
@@ -18251,7 +18278,7 @@
         <v>6425.3059677438332</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
         <v>37591</v>
       </c>
@@ -18284,7 +18311,7 @@
         <v>6425.3059677438332</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <v>37622</v>
       </c>
@@ -18317,7 +18344,7 @@
         <v>6635.2824495295836</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
         <v>37653</v>
       </c>
@@ -18350,7 +18377,7 @@
         <v>6635.2824495295836</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
         <v>37681</v>
       </c>
@@ -18383,7 +18410,7 @@
         <v>6635.2824495295836</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
         <v>37712</v>
       </c>
@@ -18416,7 +18443,7 @@
         <v>6635.2824495295836</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <v>37742</v>
       </c>
@@ -18449,7 +18476,7 @@
         <v>6635.2824495295836</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
         <v>37773</v>
       </c>
@@ -18482,7 +18509,7 @@
         <v>6635.2824495295836</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
         <v>37803</v>
       </c>
@@ -18515,7 +18542,7 @@
         <v>6635.2824495295836</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
         <v>37834</v>
       </c>
@@ -18548,7 +18575,7 @@
         <v>6635.2824495295836</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
         <v>37865</v>
       </c>
@@ -18581,7 +18608,7 @@
         <v>6635.2824495295836</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
         <v>37895</v>
       </c>
@@ -18614,7 +18641,7 @@
         <v>6635.2824495295836</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
         <v>37926</v>
       </c>
@@ -18647,7 +18674,7 @@
         <v>6635.2824495295836</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
         <v>37956</v>
       </c>
@@ -18680,7 +18707,7 @@
         <v>6635.2824495295836</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
         <v>37987</v>
       </c>
@@ -18713,7 +18740,7 @@
         <v>6954.1729199940828</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
         <v>38018</v>
       </c>
@@ -18746,7 +18773,7 @@
         <v>6954.1729199940828</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
         <v>38047</v>
       </c>
@@ -18779,7 +18806,7 @@
         <v>6954.1729199940828</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
         <v>38078</v>
       </c>
@@ -18812,7 +18839,7 @@
         <v>6954.1729199940828</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
         <v>38108</v>
       </c>
@@ -18845,7 +18872,7 @@
         <v>6954.1729199940828</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
         <v>38139</v>
       </c>
@@ -18878,7 +18905,7 @@
         <v>6954.1729199940828</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <v>38169</v>
       </c>
@@ -18911,7 +18938,7 @@
         <v>6954.1729199940828</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
         <v>38200</v>
       </c>
@@ -18944,7 +18971,7 @@
         <v>6954.1729199940828</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
         <v>38231</v>
       </c>
@@ -18977,7 +19004,7 @@
         <v>6954.1729199940828</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
         <v>38261</v>
       </c>
@@ -19010,7 +19037,7 @@
         <v>6954.1729199940828</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
         <v>38292</v>
       </c>
@@ -19043,7 +19070,7 @@
         <v>6954.1729199940828</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
         <v>38322</v>
       </c>
@@ -19076,7 +19103,7 @@
         <v>6954.1729199940828</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
         <v>38353</v>
       </c>
@@ -19109,7 +19136,7 @@
         <v>7093.1839550228333</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
         <v>38384</v>
       </c>
@@ -19142,7 +19169,7 @@
         <v>7093.1839550228333</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
         <v>38412</v>
       </c>
@@ -19175,7 +19202,7 @@
         <v>7093.1839550228333</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
         <v>38443</v>
       </c>
@@ -19208,7 +19235,7 @@
         <v>7093.1839550228333</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
         <v>38473</v>
       </c>
@@ -19241,7 +19268,7 @@
         <v>7093.1839550228333</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
         <v>38504</v>
       </c>
@@ -19274,7 +19301,7 @@
         <v>7093.1839550228333</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
         <v>38534</v>
       </c>
@@ -19307,7 +19334,7 @@
         <v>7093.1839550228333</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
         <v>38565</v>
       </c>
@@ -19340,7 +19367,7 @@
         <v>7093.1839550228333</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
         <v>38596</v>
       </c>
@@ -19373,7 +19400,7 @@
         <v>7093.1839550228333</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
         <v>38626</v>
       </c>
@@ -19406,7 +19433,7 @@
         <v>7093.1839550228333</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
         <v>38657</v>
       </c>
@@ -19439,7 +19466,7 @@
         <v>7093.1839550228333</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
         <v>38687</v>
       </c>
@@ -19472,7 +19499,7 @@
         <v>7093.1839550228333</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
         <v>38718</v>
       </c>
@@ -19505,7 +19532,7 @@
         <v>7103.5472029679995</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
         <v>38749</v>
       </c>
@@ -19538,7 +19565,7 @@
         <v>7103.5472029679995</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
         <v>38777</v>
       </c>
@@ -19571,7 +19598,7 @@
         <v>7103.5472029679995</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
         <v>38808</v>
       </c>
@@ -19604,7 +19631,7 @@
         <v>7103.5472029679995</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
         <v>38838</v>
       </c>
@@ -19637,7 +19664,7 @@
         <v>7103.5472029679995</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
         <v>38869</v>
       </c>
@@ -19670,7 +19697,7 @@
         <v>7103.5472029679995</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
         <v>38899</v>
       </c>
@@ -19703,7 +19730,7 @@
         <v>7103.5472029679995</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
         <v>38930</v>
       </c>
@@ -19736,7 +19763,7 @@
         <v>7103.5472029679995</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
         <v>38961</v>
       </c>
@@ -19769,7 +19796,7 @@
         <v>7103.5472029679995</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
         <v>38991</v>
       </c>
@@ -19802,7 +19829,7 @@
         <v>7103.5472029679995</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
         <v>39022</v>
       </c>
@@ -19835,7 +19862,7 @@
         <v>7103.5472029679995</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
         <v>39052</v>
       </c>
@@ -19868,7 +19895,7 @@
         <v>7103.5472029679995</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
         <v>39083</v>
       </c>
@@ -19901,7 +19928,7 @@
         <v>7109.255239269417</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
         <v>39114</v>
       </c>
@@ -19934,7 +19961,7 @@
         <v>7109.255239269417</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
         <v>39142</v>
       </c>
@@ -19967,7 +19994,7 @@
         <v>7109.255239269417</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
         <v>39173</v>
       </c>
@@ -20000,7 +20027,7 @@
         <v>7109.255239269417</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
         <v>39203</v>
       </c>
@@ -20033,7 +20060,7 @@
         <v>7109.255239269417</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
         <v>39234</v>
       </c>
@@ -20066,7 +20093,7 @@
         <v>7109.255239269417</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
         <v>39264</v>
       </c>
@@ -20099,7 +20126,7 @@
         <v>7109.255239269417</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
         <v>39295</v>
       </c>
@@ -20132,7 +20159,7 @@
         <v>7109.255239269417</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
         <v>39326</v>
       </c>
@@ -20165,7 +20192,7 @@
         <v>7109.255239269417</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
         <v>39356</v>
       </c>
@@ -20198,7 +20225,7 @@
         <v>7109.255239269417</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
         <v>39387</v>
       </c>
@@ -20231,7 +20258,7 @@
         <v>7109.255239269417</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
         <v>39417</v>
       </c>
@@ -20264,7 +20291,7 @@
         <v>7109.255239269417</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
         <v>39448</v>
       </c>
@@ -20297,7 +20324,7 @@
         <v>7222.2654166666662</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
         <v>39479</v>
       </c>
@@ -20330,7 +20357,7 @@
         <v>7222.2654166666662</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
         <v>39508</v>
       </c>
@@ -20363,7 +20390,7 @@
         <v>7222.2654166666662</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
         <v>39539</v>
       </c>
@@ -20396,7 +20423,7 @@
         <v>7222.2654166666662</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
         <v>39569</v>
       </c>
@@ -20429,7 +20456,7 @@
         <v>7222.2654166666662</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
         <v>39600</v>
       </c>
@@ -20462,7 +20489,7 @@
         <v>7222.2654166666662</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
         <v>39630</v>
       </c>
@@ -20495,7 +20522,7 @@
         <v>7222.2654166666662</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
         <v>39661</v>
       </c>
@@ -20528,7 +20555,7 @@
         <v>7222.2654166666662</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
         <v>39692</v>
       </c>
@@ -20561,7 +20588,7 @@
         <v>7222.2654166666662</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
         <v>39722</v>
       </c>
@@ -20594,7 +20621,7 @@
         <v>7222.2654166666662</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
         <v>39753</v>
       </c>
@@ -20627,7 +20654,7 @@
         <v>7222.2654166666662</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
         <v>39783</v>
       </c>
@@ -20660,7 +20687,7 @@
         <v>7222.2654166666662</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
         <v>39814</v>
       </c>
@@ -20693,7 +20720,7 @@
         <v>7155.8168136986669</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
         <v>39845</v>
       </c>
@@ -20726,7 +20753,7 @@
         <v>7155.8168136986669</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
         <v>39873</v>
       </c>
@@ -20759,7 +20786,7 @@
         <v>7155.8168136986669</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
         <v>39904</v>
       </c>
@@ -20792,7 +20819,7 @@
         <v>7155.8168136986669</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
         <v>39934</v>
       </c>
@@ -20825,7 +20852,7 @@
         <v>7155.8168136986669</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
         <v>39965</v>
       </c>
@@ -20858,7 +20885,7 @@
         <v>7155.8168136986669</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
         <v>39995</v>
       </c>
@@ -20891,7 +20918,7 @@
         <v>7155.8168136986669</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
         <v>40026</v>
       </c>
@@ -20924,7 +20951,7 @@
         <v>7155.8168136986669</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
         <v>40057</v>
       </c>
@@ -20957,7 +20984,7 @@
         <v>7155.8168136986669</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
         <v>40087</v>
       </c>
@@ -20990,7 +21017,7 @@
         <v>7155.8168136986669</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
         <v>40118</v>
       </c>
@@ -21023,7 +21050,7 @@
         <v>7155.8168136986669</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
         <v>40148</v>
       </c>
@@ -21056,7 +21083,7 @@
         <v>7155.8168136986669</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
         <v>40179</v>
       </c>
@@ -21089,7 +21116,7 @@
         <v>7380.8865198630001</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A423" s="2">
         <v>40210</v>
       </c>
@@ -21122,7 +21149,7 @@
         <v>7380.8865198630001</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
         <v>40238</v>
       </c>
@@ -21155,7 +21182,7 @@
         <v>7380.8865198630001</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
         <v>40269</v>
       </c>
@@ -21188,7 +21215,7 @@
         <v>7380.8865198630001</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
         <v>40299</v>
       </c>
@@ -21221,7 +21248,7 @@
         <v>7380.8865198630001</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
         <v>40330</v>
       </c>
@@ -21254,7 +21281,7 @@
         <v>7380.8865198630001</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
         <v>40360</v>
       </c>
@@ -21287,7 +21314,7 @@
         <v>7380.8865198630001</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
         <v>40391</v>
       </c>
@@ -21320,7 +21347,7 @@
         <v>7380.8865198630001</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
         <v>40422</v>
       </c>
@@ -21353,7 +21380,7 @@
         <v>7380.8865198630001</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A431" s="2">
         <v>40452</v>
       </c>
@@ -21386,7 +21413,7 @@
         <v>7380.8865198630001</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A432" s="2">
         <v>40483</v>
       </c>
@@ -21419,7 +21446,7 @@
         <v>7380.8865198630001</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A433" s="2">
         <v>40513</v>
       </c>
@@ -21452,7 +21479,7 @@
         <v>7380.8865198630001</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
         <v>40544</v>
       </c>
@@ -21485,7 +21512,7 @@
         <v>7419.8428742009164</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
         <v>40575</v>
       </c>
@@ -21518,7 +21545,7 @@
         <v>7419.8428742009164</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
         <v>40603</v>
       </c>
@@ -21551,7 +21578,7 @@
         <v>7419.8428742009164</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
         <v>40634</v>
       </c>
@@ -21584,7 +21611,7 @@
         <v>7419.8428742009164</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
         <v>40664</v>
       </c>
@@ -21617,7 +21644,7 @@
         <v>7419.8428742009164</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
         <v>40695</v>
       </c>
@@ -21650,7 +21677,7 @@
         <v>7419.8428742009164</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
         <v>40725</v>
       </c>
@@ -21683,7 +21710,7 @@
         <v>7419.8428742009164</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A441" s="2">
         <v>40756</v>
       </c>
@@ -21716,7 +21743,7 @@
         <v>7419.8428742009164</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A442" s="2">
         <v>40787</v>
       </c>
@@ -21749,7 +21776,7 @@
         <v>7419.8428742009164</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A443" s="2">
         <v>40817</v>
       </c>
@@ -21782,7 +21809,7 @@
         <v>7419.8428742009164</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A444" s="2">
         <v>40848</v>
       </c>
@@ -21815,7 +21842,7 @@
         <v>7419.8428742009164</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A445" s="2">
         <v>40878</v>
       </c>
@@ -21848,7 +21875,7 @@
         <v>7419.8428742009164</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A446" s="2">
         <v>40909</v>
       </c>
@@ -21881,7 +21908,7 @@
         <v>7591.0217035519163</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A447" s="2">
         <v>40940</v>
       </c>
@@ -21914,7 +21941,7 @@
         <v>7591.0217035519163</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A448" s="2">
         <v>40969</v>
       </c>
@@ -21947,7 +21974,7 @@
         <v>7591.0217035519163</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A449" s="2">
         <v>41000</v>
       </c>
@@ -21980,7 +22007,7 @@
         <v>7591.0217035519163</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A450" s="2">
         <v>41030</v>
       </c>
@@ -22013,7 +22040,7 @@
         <v>7591.0217035519163</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A451" s="2">
         <v>41061</v>
       </c>
@@ -22046,7 +22073,7 @@
         <v>7591.0217035519163</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A452" s="2">
         <v>41091</v>
       </c>
@@ -22079,7 +22106,7 @@
         <v>7591.0217035519163</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A453" s="2">
         <v>41122</v>
       </c>
@@ -22112,7 +22139,7 @@
         <v>7591.0217035519163</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A454" s="2">
         <v>41153</v>
       </c>
@@ -22145,7 +22172,7 @@
         <v>7591.0217035519163</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A455" s="2">
         <v>41183</v>
       </c>
@@ -22178,7 +22205,7 @@
         <v>7591.0217035519163</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A456" s="2">
         <v>41214</v>
       </c>
@@ -22211,7 +22238,7 @@
         <v>7591.0217035519163</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A457" s="2">
         <v>41244</v>
       </c>
@@ -22244,7 +22271,7 @@
         <v>7591.0217035519163</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A458" s="2">
         <v>41275</v>
       </c>
@@ -22277,7 +22304,7 @@
         <v>7641.2225057077494</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A459" s="2">
         <v>41306</v>
       </c>
@@ -22310,7 +22337,7 @@
         <v>7641.2225057077494</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A460" s="2">
         <v>41334</v>
       </c>
@@ -22343,7 +22370,7 @@
         <v>7641.2225057077494</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A461" s="2">
         <v>41365</v>
       </c>
@@ -22376,7 +22403,7 @@
         <v>7641.2225057077494</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A462" s="2">
         <v>41395</v>
       </c>
@@ -22409,7 +22436,7 @@
         <v>7641.2225057077494</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A463" s="2">
         <v>41426</v>
       </c>
@@ -22442,7 +22469,7 @@
         <v>7641.2225057077494</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A464" s="2">
         <v>41456</v>
       </c>
@@ -22475,7 +22502,7 @@
         <v>7641.2225057077494</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A465" s="2">
         <v>41487</v>
       </c>
@@ -22508,7 +22535,7 @@
         <v>7641.2225057077494</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A466" s="2">
         <v>41518</v>
       </c>
@@ -22541,7 +22568,7 @@
         <v>7641.2225057077494</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A467" s="2">
         <v>41548</v>
       </c>
@@ -22574,7 +22601,7 @@
         <v>7641.2225057077494</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A468" s="2">
         <v>41579</v>
       </c>
@@ -22607,7 +22634,7 @@
         <v>7641.2225057077494</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A469" s="2">
         <v>41609</v>
       </c>
@@ -22640,7 +22667,7 @@
         <v>7641.2225057077494</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A470" s="2">
         <v>41640</v>
       </c>
@@ -22673,7 +22700,7 @@
         <v>7856.4242559360828</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A471" s="2">
         <v>41671</v>
       </c>
@@ -22706,7 +22733,7 @@
         <v>7856.4242559360828</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A472" s="2">
         <v>41699</v>
       </c>
@@ -22739,7 +22766,7 @@
         <v>7856.4242559360828</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A473" s="2">
         <v>41730</v>
       </c>
@@ -22772,7 +22799,7 @@
         <v>7856.4242559360828</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A474" s="2">
         <v>41760</v>
       </c>
@@ -22805,7 +22832,7 @@
         <v>7856.4242559360828</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A475" s="2">
         <v>41791</v>
       </c>
@@ -22838,7 +22865,7 @@
         <v>7856.4242559360828</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A476" s="2">
         <v>41821</v>
       </c>
@@ -22871,7 +22898,7 @@
         <v>7856.4242559360828</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A477" s="2">
         <v>41852</v>
       </c>
@@ -22904,7 +22931,7 @@
         <v>7856.4242559360828</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A478" s="2">
         <v>41883</v>
       </c>
@@ -22937,7 +22964,7 @@
         <v>7856.4242559360828</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A479" s="2">
         <v>41913</v>
       </c>
@@ -22970,7 +22997,7 @@
         <v>7856.4242559360828</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A480" s="2">
         <v>41944</v>
       </c>
@@ -23003,7 +23030,7 @@
         <v>7856.4242559360828</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A481" s="2">
         <v>41974</v>
       </c>
@@ -23036,7 +23063,7 @@
         <v>7856.4242559360828</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A482" s="2">
         <v>42005</v>
       </c>
@@ -23069,7 +23096,7 @@
         <v>8092.0908968036665</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A483" s="2">
         <v>42036</v>
       </c>
@@ -23102,7 +23129,7 @@
         <v>8092.0908968036665</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A484" s="2">
         <v>42064</v>
       </c>
@@ -23135,7 +23162,7 @@
         <v>8092.0908968036665</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A485" s="2">
         <v>42095</v>
       </c>
@@ -23168,7 +23195,7 @@
         <v>8092.0908968036665</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A486" s="2">
         <v>42125</v>
       </c>
@@ -23201,7 +23228,7 @@
         <v>8092.0908968036665</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A487" s="2">
         <v>42156</v>
       </c>
@@ -23234,7 +23261,7 @@
         <v>8092.0908968036665</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A488" s="2">
         <v>42186</v>
       </c>
@@ -23267,7 +23294,7 @@
         <v>8092.0908968036665</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A489" s="2">
         <v>42217</v>
       </c>
@@ -23300,7 +23327,7 @@
         <v>8092.0908968036665</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A490" s="2">
         <v>42248</v>
       </c>
@@ -23333,7 +23360,7 @@
         <v>8092.0908968036665</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A491" s="2">
         <v>42278</v>
       </c>
@@ -23366,7 +23393,7 @@
         <v>8092.0908968036665</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A492" s="2">
         <v>42309</v>
       </c>
@@ -23399,7 +23426,7 @@
         <v>8092.0908968036665</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A493" s="2">
         <v>42339</v>
       </c>
@@ -23432,7 +23459,7 @@
         <v>8092.0908968036665</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A494" s="2">
         <v>42370</v>
       </c>
@@ -23465,7 +23492,7 @@
         <v>8125.9152174408337</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A495" s="2">
         <v>42401</v>
       </c>
@@ -23498,7 +23525,7 @@
         <v>8125.9152174408337</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A496" s="2">
         <v>42430</v>
       </c>
@@ -23531,7 +23558,7 @@
         <v>8125.9152174408337</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A497" s="2">
         <v>42461</v>
       </c>
@@ -23564,7 +23591,7 @@
         <v>8125.9152174408337</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A498" s="2">
         <v>42491</v>
       </c>
@@ -23597,7 +23624,7 @@
         <v>8125.9152174408337</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A499" s="2">
         <v>42522</v>
       </c>
@@ -23630,7 +23657,7 @@
         <v>8125.9152174408337</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A500" s="2">
         <v>42552</v>
       </c>
@@ -23663,7 +23690,7 @@
         <v>8125.9152174408337</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A501" s="2">
         <v>42583</v>
       </c>
@@ -23696,7 +23723,7 @@
         <v>8125.9152174408337</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A502" s="2">
         <v>42614</v>
       </c>
@@ -23729,7 +23756,7 @@
         <v>8125.9152174408337</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A503" s="2">
         <v>42644</v>
       </c>
@@ -23762,7 +23789,7 @@
         <v>8125.9152174408337</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A504" s="2">
         <v>42675</v>
       </c>
@@ -23795,7 +23822,7 @@
         <v>8125.9152174408337</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A505" s="2">
         <v>42705</v>
       </c>
@@ -23828,7 +23855,7 @@
         <v>8125.9152174408337</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A506" s="2">
         <v>42736</v>
       </c>
@@ -23861,7 +23888,7 @@
         <v>8176.5388458904163</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A507" s="2">
         <v>42767</v>
       </c>
@@ -23894,7 +23921,7 @@
         <v>8176.5388458904163</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A508" s="2">
         <v>42795</v>
       </c>
@@ -23927,7 +23954,7 @@
         <v>8176.5388458904163</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A509" s="2">
         <v>42826</v>
       </c>
@@ -23960,7 +23987,7 @@
         <v>8176.5388458904163</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A510" s="2">
         <v>42856</v>
       </c>
@@ -23993,7 +24020,7 @@
         <v>8176.5388458904163</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A511" s="2">
         <v>42887</v>
       </c>
@@ -24026,7 +24053,7 @@
         <v>8176.5388458904163</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A512" s="2">
         <v>42917</v>
       </c>
@@ -24059,7 +24086,7 @@
         <v>8176.5388458904163</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A513" s="2">
         <v>42948</v>
       </c>
@@ -24092,7 +24119,7 @@
         <v>8176.5388458904163</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A514" s="2">
         <v>42979</v>
       </c>
@@ -24125,7 +24152,7 @@
         <v>8176.5388458904163</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A515" s="2">
         <v>43009</v>
       </c>
@@ -24158,7 +24185,7 @@
         <v>8176.5388458904163</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A516" s="2">
         <v>43040</v>
       </c>
@@ -24191,7 +24218,7 @@
         <v>8176.5388458904163</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A517" s="2">
         <v>43070</v>
       </c>
@@ -24224,7 +24251,7 @@
         <v>8176.5388458904163</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A518" s="2">
         <v>43101</v>
       </c>
@@ -24257,7 +24284,7 @@
         <v>8404.3816744291671</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A519" s="2">
         <v>43132</v>
       </c>
@@ -24290,7 +24317,7 @@
         <v>8404.3816744291671</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A520" s="2">
         <v>43160</v>
       </c>
@@ -24323,7 +24350,7 @@
         <v>8404.3816744291671</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A521" s="2">
         <v>43191</v>
       </c>
@@ -24356,7 +24383,7 @@
         <v>8404.3816744291671</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A522" s="2">
         <v>43221</v>
       </c>
@@ -24389,7 +24416,7 @@
         <v>8404.3816744291671</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A523" s="2">
         <v>43252</v>
       </c>
@@ -24422,7 +24449,7 @@
         <v>8404.3816744291671</v>
       </c>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A524" s="2">
         <v>43282</v>
       </c>
@@ -24455,7 +24482,7 @@
         <v>8404.3816744291671</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A525" s="2">
         <v>43313</v>
       </c>
@@ -24488,7 +24515,7 @@
         <v>8404.3816744291671</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A526" s="2">
         <v>43344</v>
       </c>
@@ -24521,7 +24548,7 @@
         <v>8404.3816744291671</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A527" s="2">
         <v>43374</v>
       </c>
@@ -24554,7 +24581,7 @@
         <v>8404.3816744291671</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A528" s="2">
         <v>43405</v>
       </c>
@@ -24587,7 +24614,7 @@
         <v>8404.3816744291671</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A529" s="2">
         <v>43435</v>
       </c>
@@ -24620,7 +24647,7 @@
         <v>8404.3816744291671</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A530" s="2">
         <v>43466</v>
       </c>
@@ -24649,8 +24676,11 @@
       <c r="I530" s="4">
         <v>8358</v>
       </c>
-    </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J530">
+        <v>8527</v>
+      </c>
+    </row>
+    <row r="531" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A531" s="2">
         <v>43497</v>
       </c>
@@ -24679,8 +24709,11 @@
       <c r="I531" s="4">
         <v>8358</v>
       </c>
-    </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J531">
+        <v>8527</v>
+      </c>
+    </row>
+    <row r="532" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A532" s="2">
         <v>43525</v>
       </c>
@@ -24709,8 +24742,11 @@
       <c r="I532" s="4">
         <v>8358</v>
       </c>
-    </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J532">
+        <v>8527</v>
+      </c>
+    </row>
+    <row r="533" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A533" s="2">
         <v>43556</v>
       </c>
@@ -24739,8 +24775,11 @@
       <c r="I533" s="4">
         <v>8358</v>
       </c>
-    </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J533">
+        <v>8527</v>
+      </c>
+    </row>
+    <row r="534" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A534" s="2">
         <v>43586</v>
       </c>
@@ -24769,8 +24808,11 @@
       <c r="I534" s="4">
         <v>8358</v>
       </c>
-    </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J534">
+        <v>8527</v>
+      </c>
+    </row>
+    <row r="535" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A535" s="2">
         <v>43617</v>
       </c>
@@ -24799,8 +24841,11 @@
       <c r="I535" s="4">
         <v>8358</v>
       </c>
-    </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J535">
+        <v>8527</v>
+      </c>
+    </row>
+    <row r="536" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A536" s="2">
         <v>43647</v>
       </c>
@@ -24829,8 +24874,11 @@
       <c r="I536" s="4">
         <v>8358</v>
       </c>
-    </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J536">
+        <v>8527</v>
+      </c>
+    </row>
+    <row r="537" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A537" s="2">
         <v>43678</v>
       </c>
@@ -24859,8 +24907,11 @@
       <c r="I537" s="4">
         <v>8358</v>
       </c>
-    </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J537">
+        <v>8527</v>
+      </c>
+    </row>
+    <row r="538" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A538" s="2">
         <v>43709</v>
       </c>
@@ -24889,8 +24940,11 @@
       <c r="I538" s="4">
         <v>8358</v>
       </c>
-    </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J538">
+        <v>8527</v>
+      </c>
+    </row>
+    <row r="539" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A539" s="2">
         <v>43739</v>
       </c>
@@ -24918,6 +24972,9 @@
       </c>
       <c r="I539" s="4">
         <v>8358</v>
+      </c>
+      <c r="J539">
+        <v>8527</v>
       </c>
     </row>
   </sheetData>
